--- a/samples/عينة-المراكز-الطبية-sa.xlsx
+++ b/samples/عينة-المراكز-الطبية-sa.xlsx
@@ -494,12 +494,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%82%D9%88%D9%8A%D8%B2%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3cdbd3ca0593f:0x73ce399c40f814ba!8m2!3d21.5012106!4d39.2632889!16s%2Fg%2F11c1rshbqh!19sChIJP1mgPL3NwxURuhT4QJw5znM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B5%D9%82%D8%B1+%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D9%84+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+1(+%D8%A7%D9%84%D8%B1%D8%AD%D9%8A%D9%84%D9%8A+)%E2%80%AD/data=!4m7!3m6!1s0x15c16589a6172165:0xdd2a81066d35c932!8m2!3d21.8053822!4d39.1418098!16s%2Fg%2F11t53f9747!19sChIJZSEXpollwRURMsk1bQaBKt0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>صيدلية قويزة البيطرية</t>
+          <t>صيدلية صقر الشمال البيطرية 1( طيبة )</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -509,22 +509,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>G727+F8M، ابرق الرغامة، جدة 22262، المملكة العربية السعودية</t>
+          <t>Taibah District, 7684, 4750, جدة 23832، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>+966508626993</t>
+          <t>+966591899200</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -532,12 +532,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%A7%D9%84%D9%82%D8%B1%D9%89+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15ef33662052ab55:0xcd2b30dd6302524a!8m2!3d20.28233!4d41.3582585!16s%2Fg%2F11rsk_y0q7!19sChIJVatSIGYz7xURSlICY90wK80?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%A7%D9%84%D9%81%D9%8A%D8%A7%D9%81%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1572bd65d882a885:0x18a581a2dff8e034!8m2!3d29.9579325!4d40.2724928!16s%2Fg%2F11sfj61mrx!19sChIJhaiC2GW9chURNOD436KBpRg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>صيدليه القرى البيطريه</t>
+          <t>صيدليه الفيافي البيطرية</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,22 +547,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>79J5+W8J، 79M5+2FX،، الاطاولة 65793،، المملكة العربية السعودية</t>
+          <t>Souq el halal, سكاكا 72443، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+966542001456</t>
+          <t>+966583381836</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -570,12 +570,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%82%D9%8A%D8%B4%D8%A7%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f5e98acc2fec7:0x1126080fbcf80c32!8m2!3d26.3702603!4d44.039359!16s%2Fg%2F11cs24wn1_!19sChIJx_7CrJhefxURMgz4vA8IJhE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D9%87%D8%B1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15ea337b4ab6ac2d:0x731e2ff6e2cc331a!8m2!3d21.5221649!4d40.6042037!16s%2Fg%2F11g0n46rrg!19sChIJLay2Snsz6hURGjPM4vYvHnM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>صيدلية القيشان البيطرية</t>
+          <t>صيدلية الشاهر البيطرية</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,22 +585,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>92CQ+4P5, 44، حي الرابية، بريدة 52369، المملكة العربية السعودية</t>
+          <t>GJC3+XR2, شارع المكة المكرمة, حي العرفاء, الطائف 26436، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>+966163247830</t>
+          <t>+966594161382</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -608,12 +608,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%88%D9%82%D8%A7%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fca18e2d80090d:0x2fd91ec257d37837!8m2!3d18.1750339!4d42.8219478!16s%2Fg%2F11hdxv_pn9!19sChIJDQmALY6h_BURN3jTV8Ie2S8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%A7%D8%B2+%D8%A7%D9%84%D8%B0%D9%87%D8%A8%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%B0%D9%86%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x1581b9101151a421:0xd81651f3d625769d!8m2!3d25.8699176!4d44.2117531!16s%2Fg%2F11rsqdhrcq!19sChIJIaRRERC5gRURnXYl1vNRFtg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>صيدلية الوقاية والعلاج البيطرية</t>
+          <t>صيدلية الباز الذهبي البيطرية المذنب</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -623,22 +623,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6997، أحد رفيدة 62419 4011، المملكة العربية السعودية</t>
+          <t>V696+XP6, 413، الخالدية، المذنب 56522، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>+966558872177</t>
+          <t>+966163430681</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -646,12 +646,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AE%D8%B2%D9%8A%D9%85+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+%D9%81%D8%B1%D8%B9+%D8%B1%D9%8A%D8%A7%D8%B6+%D8%A7%D9%84%D8%AE%D8%A8%D8%B1%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15823911d33bc649:0xccf578757e2d2610!8m2!3d26.0446714!4d43.555083!16s%2Fg%2F11rcmtl42d!19sChIJScY70xE5ghURECYtfnV49cw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AC%D9%88%D8%B2%D9%84+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fc6a02312f4d:0x313866ab2c93b547!8m2!3d26.4419754!4d50.0806818!16s%2Fg%2F11cjgczdbz!19sChIJTS8xAmr8ST4RR7WTLKtmODE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>صيدلية الخزيم البيطرية فرع رياض الخبرا</t>
+          <t>صيدلية جوزل البيطرية شارع الملك سعود</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,22 +661,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>297</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2HV4+V28، طريق الملك عبدالعزيز، الحزم، رياض الخبراء 54655، المملكة العربية السعودية</t>
+          <t>شارع الملك سعود بن عبدالعزيز، الجلوية، الدمام 32246، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>+966502134179</t>
+          <t>+966138330605</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -684,12 +684,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AD%D8%B3%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fb5a3cdfc09611:0x29164f99379e6a51!8m2!3d18.3109814!4d42.7296517!16s%2Fg%2F11f0_gp1vw!19sChIJEZbA3zxa-xURUWqeN5lPFik?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D9%88+%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B1%D9%81%D9%82+%D8%A8%D8%A7%D9%84%D8%AD%D9%8A%D9%88%D8%A7%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1607e38a17da92a7:0xcb1211ff360c492e!8m2!3d16.8614945!4d42.5804135!16s%2Fg%2F11trk7zhvl!19sChIJp5LaF4rjBxYRLkkMNv8REss?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>صيدلية حسن البيطرية</t>
+          <t>عيادة و صيدلية الرفق بالحيوان البيطرية</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -699,22 +699,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8P6H+9VR، العرق الشمالي، خميس مشيط 62461، المملكة العربية السعودية</t>
+          <t>حي، السويس، جازان 82613، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>+966502013503</t>
+          <t>+966507627705</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -722,12 +722,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B5%D9%8A%D8%AA%D9%87+%D9%85%D8%AD%D8%B3%D9%86+%D8%A7%D9%84%D8%B9%D8%AC%D9%85%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e379f7a234e0395:0x8387ad72db6a4df5!8m2!3d25.370647!4d49.436575!16s%2Fg%2F11v60sq6jc!19sChIJlQNOI3qfNz4R9U1q23Kth4M?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D8%AF%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+-+%D9%81%D8%B1%D8%B9+%D9%A2%E2%80%AD/data=!4m7!3m6!1s0x3e37ed7257f58be5:0x1b356558b33e7cd2!8m2!3d25.3423753!4d49.7236472!16s%2Fg%2F11cn9683jq!19sChIJ5Yv1V3LtNz4R0nw-s1hlNRs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>صيدلية صيته محسن العجمي البيطرية</t>
+          <t>صيدلية العاديات العربية البيطرية - فرع ٢</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -737,22 +737,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9CCP+8H، المنطقة الصناعية بالاحساء 36455، المملكة العربية السعودية</t>
+          <t>8pRF+XF3 Rd، الطرف 36287، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+966531939768</t>
+          <t>+966569677851</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -760,12 +760,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AC%D9%85%D8%B9%D9%8A%D8%A9+%D8%A7%D9%84%D8%AA%D8%B9%D8%A7%D9%88%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15823b0027ae59af:0x8799d2f608dd1507!8m2!3d26.0503715!4d43.5716035!16s%2Fg%2F11xdfnjnts!19sChIJr1muJwA7ghURBxXdCPbSmYc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9%D8%AF%D9%88%D8%A7%D8%A1+%D8%A7%D9%84%D8%A7%D9%86%D8%B9%D8%A7%D9%85+%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3fcc1e977cb93a97:0x9bc5d99285c4480b!8m2!3d28.4111554!4d48.4679407!16s%2Fg%2F11cn95t898!19sChIJlzq5fJcezD8RC0jEhZLZxZs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>صيدلية الجمعية التعاونية البيطرية</t>
+          <t>صيدليةدواء الانعام بيطرية</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -773,29 +773,41 @@
           <t>الصيدلة البيطرية</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3H2C+4JX، طريق الملك عبدالعزيز، الافراح، رياض الخبراء 54662، المملكة العربية السعودية</t>
+          <t>مكة، الخفجي المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>+966503981824</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>+966502415158</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.snapchat.com/add/alanaam2023?share_id=e_zyaud-H3A&amp;locale=ar-EG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%89+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87+%D8%A7%D9%84%D9%86%D9%88%D8%A7%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c1f64ceb887b45:0xd7d78595a87f7e5a!8m2!3d21.5575874!4d39.7738929!16s%2Fg%2F11g8wpqc5m!19sChIJRXuI60z2wRURWn5_qJWF19c?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%83%D8%B1%D9%85%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f0f2c4a5ed9ab:0xeaa6c32833cd3c98!8m2!3d24.5854394!4d46.7443139!16s%2Fg%2F11c51xmzjq!19sChIJq9leSiwPLz4RmDzNMyjDpuo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>صيدلية العالى البيطريه النواريه</t>
+          <t>صيدلية كرمان</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -805,35 +817,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>198</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8398، مكة 24215، المملكة العربية السعودية</t>
+          <t>7058 طريق الحائر، العزيزية، الرياض 14711، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>+966534481959</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>+966507025020</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://karamanvet.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+%D8%B1%D9%81%D8%AD%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x4931964144d77889:0xb6a27c9c30886d1f!8m2!3d29.6361357!4d43.5138846!16s%2Fg%2F11k9jcw4gs!19sChIJiXjXREGWMUkRH22IMJx8orY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D8%B3%D8%B1%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f059fb09d4113:0x515573e2e6be261e!8m2!3d24.6219934!4d46.7108237!16s%2Fg%2F11bxc572sh!19sChIJE0GdsJ8FLz4RHia-5uJzVVE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>صيدلية بيطرية رفحاء</t>
+          <t>صيدلية مسرة البيطرية</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -841,12 +857,24 @@
           <t>الصيدلة البيطرية</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>JPC6+Q8W، شارع سلام، الدوبية، الرياض 12651، المملكة العربية السعودية</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>+966554862374</t>
+          <t>+966114135892</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -854,12 +882,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D8%B7%D8%A7%D9%8A%D8%A7+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c05511bd1062bd:0xdd260c3f71972f48!8m2!3d22.3422899!4d39.3221397!16s%2Fg%2F11t3fhs0yk!19sChIJvWIQvRFVwBURSC-XcT8MJt0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%86%D8%AC%D9%88%D8%AF+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581e3068acf2da7:0x9a3808ae7a533069!8m2!3d26.3209735!4d43.9732014!16s%2Fg%2F11h75pqhyw!19sChIJpy3PigbjgRURaTBTeq4IOJo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>صيدلية العطايا البيطرية</t>
+          <t>صيدلية انجود البيطرية</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -869,22 +897,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>البريكة 25500، المملكة العربية السعودية</t>
+          <t>8XCF+97P، حي الجردة، بريدة 52354، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>+966535523863</t>
+          <t>+966501888795</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -892,12 +920,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B5%D9%82%D8%B1+%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3b44a4a253bad:0xd2a6fd8a96bb5bd1!8m2!3d21.3151374!4d39.2606275!16s%2Fg%2F11g235z_g2!19sChIJrTslSkq0wxUR0Vu7lor9ptI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B3%D8%A7%D8%AD%D9%84+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e80a8a2ba38005:0xa2cbcec926e595a0!8m2!3d20.1528308!4d40.2803957!16s%2Fg%2F11b75gqfbf!19sChIJBYCjK4oK6BURoJXlJsnOy6I?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>صيدلية صقر الجنوب البيطرية</t>
+          <t>صيدلية الساحل البيطرية</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -907,22 +935,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8786+372، القرينية، جدة 22535، المملكة العربية السعودية</t>
+          <t>573J+45J، شارع عمرو بن العاص،، الليث 28429، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>+966508771884</t>
+          <t>+966546258560</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -930,12 +958,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B1%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f051918004d69:0x3daaff7ee24535ab!8m2!3d24.6190024!4d46.710401!16s%2Fg%2F11svn0hb5m!19sChIJaU0AGBkFLz4RqzVF4n7_qj0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%81%D9%87%D8%AF+%D8%A7%D9%84%D9%85%D8%AD%D9%85%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bdbd21ce503583:0x67df52064ce4ee58!8m2!3d24.547813!4d39.5942585!16s%2Fg%2F11hdf0t1h8!19sChIJgzVQziG9vRURWO7kTAZS32c?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>صيدلية الرواد البيطرية</t>
+          <t>صيدلية فهد المحمدي</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -945,22 +973,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>شارع سلام، الدوبية، الرياض 12651، المملكة العربية السعودية</t>
+          <t>GHXV+4PC، الصادقية، المدينة المنورة 42335، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>+966504194203</t>
+          <t>+966544297486</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -968,12 +996,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A3%D9%87%D9%84+%D8%A7%D9%84%D9%88%D8%A8%D8%B1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1582270341b20955:0x60a3146a0ac4caa0!8m2!3d25.966345!4d43.7528799!16s%2Fg%2F11xp6jzntw!19sChIJVQmyQQMnghURoMrECmoUo2A?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B3%D8%A7%D8%B1%D9%87+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e27cfcfb9b21e71:0x1f7459b86ca82877!8m2!3d23.5476862!4d45.5022239!16s%2Fg%2F11t6rs18pq!19sChIJcR6yuc_PJz4RdyiobLhZdB8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>صيدلية أهل الوبر البيطرية</t>
+          <t>صيدلية ساره عبدالعزيز البيطرية</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -981,16 +1009,24 @@
           <t>الصيدلة البيطرية</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>طريق الملك فيصل، الياسمين، البدائع 56364، المملكة العربية السعودية</t>
+          <t>ORWA2791، 2791 طريق الملك عبدالعزيز شرق، 9556،، الرين 19599،، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>+966533944506</t>
+          <t>+966501519238</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -998,12 +1034,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D9%88%D8%A7%D9%83%D8%A8+%D8%A7%D9%84%D8%BA%D8%B1%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c211dc4bbc9e43:0x96b6612a0d9d4038!8m2!3d21.3468533!4d39.7689592!16s%2Fg%2F11kjl__mwb!19sChIJQ568S9wRwhUROECdDSphtpY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AD%D9%8A%D8%A7%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D9%86%D8%B2%D9%8A+%D8%B3%D8%A7%D8%A8%D9%82%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x1581e29cfb79ee2d:0x9010e203ea2ef26f!8m2!3d26.3232432!4d43.9703374!16s%2Fg%2F11f1jwwh68!19sChIJLe55-5zigRURb_Iu6gPiEJA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>صيدلية مواكب الغربية البيطرية</t>
+          <t>صيدلية الحياة البيطرية العنزي سابقا</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1013,22 +1049,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>214</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>طريق الليث، ولي العهد، مكة 24356، المملكة العربية السعودية</t>
+          <t>الصباخ، حي الجردة، بريدة 52354، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>+966565510759</t>
+          <t>+966544211360</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1036,12 +1072,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B3%D8%A7%D8%B1%D9%87+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e27cfcfb9b21e71:0x1f7459b86ca82877!8m2!3d23.5476862!4d45.5022239!16s%2Fg%2F11t6rs18pq!19sChIJcR6yuc_PJz4RdyiobLhZdB8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A3%D9%86%D8%B9%D8%A7%D9%85+%D8%A7%D9%84%D9%88%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15f0c1a47d81bfdb:0xf11937ccebf56e70!8m2!3d19.5411311!4d43.519461!16s%2Fg%2F11p5zqkt5h!19sChIJ27-BfaTB8BURcG7168w3GfE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>صيدلية ساره عبدالعزيز البيطرية</t>
+          <t>صيدلية أنعام الوادي البيطرية</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1051,22 +1087,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ORWA2791، 2791 طريق الملك عبدالعزيز شرق، 9556،، الرين 19599،، المملكة العربية السعودية</t>
+          <t>شارع سوق الخضار، الزهور، تثليث 69323، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>+966501519238</t>
+          <t>+966549486643</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1074,12 +1110,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D9%88%D8%B3%D9%85+%D8%A7%D9%84%D8%B3%D8%B1%D8%B9%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2e5557e06da8d3:0x7e9833f71f829061!8m2!3d24.8591013!4d46.8508971!16s%2Fg%2F11t7l4w5zy!19sChIJ06ht4FdVLj4RYZCCH_czmH4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%A8%D8%A7%D8%B2+%D8%A7%D9%84%D8%B0%D9%87%D8%A8%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1583ca7ffb3b6a0f:0x44418d8c849ad773!8m2!3d25.8654549!4d43.4841641!16s%2Fg%2F11gb40c20m!19sChIJD2o7-3_KgxURc9eahIyNQUQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>صيدلية موسم السرعة البيطرية</t>
+          <t>عيادة الباز الذهبي البيطرية</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1089,39 +1125,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>174</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2634 طريق الجنادرية, حي البيان, 6273، الرياض 13617، المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالعزيز، حي اليرموك، الرس 58881، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>+966594861627</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://mosem-alsoraah.com/ar</t>
-        </is>
-      </c>
+          <t>+966538265413</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A8%D8%B1%D9%83%D8%A9+%D8%B7%D9%8A%D8%A8%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+-+%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%81%D8%A4%D8%A7%D8%AF+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%84%D9%87+%D8%A7%D9%84%D8%B4%D8%B1%D9%8A%D9%81+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbc54e57eb0a9:0xbc73cd6d3df04e12!8m2!3d24.5487949!4d39.6087006!16s%2Fg%2F11g6l_4t24!19sChIJqbB-5VS8vRUREk7wPW3Nc7w?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Green+Almaraai+Veterinary+pharmacy+%7C+%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%B1%D8%A7%D8%B9%D9%8A+%D8%A7%D9%84%D8%AE%D8%B6%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f2da0fe4588c5:0xb3ba642cee06e349!8m2!3d24.4717483!4d46.2662898!16s%2Fg%2F11mcw88n_8!19sChIJxYhF_qAtLz4RSeMG7ixkurM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>صيدلية بركة طيبة البيطرية - صيدلية فؤاد عبدالله الشريف البيطرية</t>
+          <t>Green Almaraai Veterinary pharmacy | صيدلية المراعي الخضراء البيطرية</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1131,22 +1163,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>الغابة، شارع عبدالله بن علي الزيتونى حى، المدينة المنورة المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالعزيز, Street، المزاحمية 19652، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>+966509730320</t>
+          <t>+966583313451</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1154,12 +1186,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%81%D8%AA%D8%AD%D9%8A+%D8%A8%D8%B4%D9%8A%D8%B1+%D8%AE%D9%88%D8%A7%D8%AC%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x6e950917bfeff24b:0xb4ed8b0d519fcc9!8m2!3d24.222142!4d45.0740834!16s%2Fg%2F11mdxvtfx9!19sChIJS_LvvxcJlW4RyfwZ1bDYTgs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D8%B5%D9%8A%D9%84+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15ea2f5372737043:0x515ec1b2a837c49f!8m2!3d21.4369916!4d40.4991111!16s%2Fg%2F11h_vslqgw!19sChIJQ3BzclMv6hURn8Q3qLLBXlE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>صيدلية فتحي بشير خواجي البيطرية</t>
+          <t>عيادة و صيدلية الأصيل البيطرية</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1167,12 +1199,24 @@
           <t>الصيدلة البيطرية</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6382، الحوية، الطائف 26576 5489،، الطائف 26576، المملكة العربية السعودية</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>+966566988218</t>
+          <t>+966551058151</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1180,12 +1224,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B3%D9%87%D9%85+%D8%A7%D9%84%D8%AE%D9%8A%D8%A7%D9%84+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2e55bf3c8dec91:0xb1e52c94a545569e!8m2!3d24.8620567!4d46.8484023!16s%2Fg%2F11c1nxvb5x!19sChIJkeyNPL9VLj4RnlZFpZQs5bE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A8%D8%AF%D8%B1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bed713bc4b0951:0xa4709485213dfbb3!8m2!3d23.7775985!4d38.7957367!16s%2Fg%2F11c6cgmyf3!19sChIJUQlLvBPXvhURs_s9IYWUcKQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>صيدلية سهم الخيال البيطرية</t>
+          <t>صيدلية بدر البيطرية</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1195,39 +1239,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>طريق الجنادرية، الرمال، الرياض 13265، المملكة العربية السعودية</t>
+          <t>6534 طريق الملك فهد الفرعي، الغزوة، بدر 46357، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>+966556622584</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://www.gulfvet.com.sa/</t>
-        </is>
-      </c>
+          <t>+966532427013</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%82%D8%A7%D8%AF%D8%B3%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fcf77a768c63:0xf3a8bbe9bc7327d5!8m2!3d26.42087!4d50.07075!16s%2Fg%2F11dxl32vnm!19sChIJY4x2evf8ST4R1SdzvOm7qPM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%A7%D8%AB%D8%A7%D9%8A%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fedccbe351ae7f:0x804abe951b9d7594!8m2!3d17.55505!4d44.2523!16s%2Fg%2F11c607vywz!19sChIJf65R48vc_hURlHWdG5W-SoA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>مركز صحي القادسية</t>
+          <t>مركز صحي الاثايبة</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1237,22 +1277,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4024 9b, القادسية، الدمام 32247، المملكة العربية السعودية</t>
+          <t>Unnamed Road, 66255, نجران المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>+966138155159</t>
+          <t>+966175291505</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1264,12 +1304,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%A7%D8%B3%D9%83%D8%A7%D9%86+%D8%A8%D8%A8%D8%B1%D9%8A%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f576fd08e668f:0xb74871e35f742b86!8m2!3d26.3880868!4d43.9324918!16s%2Fg%2F11c702f36q!19sChIJj2aO0G9XfxURhit0X-NxSLc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%B3%D8%A7%D8%AC%D8%B1+%D8%A7%D9%84%D8%A3%D9%88%D9%84%E2%80%AD/data=!4m7!3m6!1s0x1580e9c537c7821f:0xd1f51f3dd422c130!8m2!3d25.19236!4d44.5985!16s%2Fg%2F11g6xjs587!19sChIJH4LHN8XpgBURMMEi1D0f9dE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>مركز صحي الاسكان ببريدة</t>
+          <t>مركز صحي ساجر الأول</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1279,22 +1319,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8620 طريق عثمان بن عفان، حي الإسكان، بريدة 52386، المملكة العربية السعودية</t>
+          <t>Unnamed Road, 17658, ساجر المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+966163818355</t>
+          <t>+966116321798</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1306,12 +1346,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A8%D8%AF%D8%B1+3%E2%80%AD/data=!4m7!3m6!1s0x3e2f0ebc6f2abafd:0x946a6604a0dec629!8m2!3d24.54873!4d46.73244!16s%2Fg%2F11g7nq2tlk!19sChIJ_boqb7wOLz4RKcbeoARmapQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B2%D8%A7%D9%87%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c21ca80e7b2cc9:0xc48af21fe14c108a!8m2!3d21.44312!4d39.80678!16s%2Fg%2F11b64mhtxg!19sChIJySx7DqgcwhURihBM4R_yisQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>مركز صحي بدر 3</t>
+          <t>مركز صحي الزاهر</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1321,22 +1361,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>301</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7723 الاعتدال، بدر، الرياض 14718، المملكة العربية السعودية</t>
+          <t>Unnamed Road, الزاهر، مكة 24222، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>+966112291513</t>
+          <t>+966125433077</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1348,12 +1388,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D8%AD%D9%8A+%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2f076886019a55:0xbeb643a006fd221a!8m2!3d24.6964286!4d46.8147732!16s%2Fg%2F11b6p2c9gy!19sChIJVZoBhmgHLz4RGiL9BqBDtr4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D9%85%D8%B7%D8%A7%D8%B1+%D8%A7%D8%A8%D9%87%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fca9c4d4058467:0xc91c5f21c8d67235!8m2!3d18.2352385!4d42.6562073!16s%2Fg%2F11c603r_1s!19sChIJZ4QF1MSp_BURNXLWyCFfHMk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>مركز الرعاية الصحية الأولية بحي السلام</t>
+          <t>مركز صحي مطار ابها</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1363,22 +1403,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6416 العشاب، السلام، الرياض 14226، المملكة العربية السعودية</t>
+          <t>9052، أبها 62439، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>+966112325800</t>
+          <t>+966172275761</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1390,12 +1430,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%A8%D8%AD%D9%8A%D8%B1%D8%A7%D8%AA+%D9%88%D8%A7%D9%84%D9%81%D9%8A%D8%AD%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15c21cf3a900810f:0xb0c893f65e3a6cf3!8m2!3d21.4723559!4d39.7828146!16s%2Fg%2F11g6982zb5!19sChIJD4EAqfMcwhUR82w6XvaTyLA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%AF%D8%AD%D9%88%E2%80%AD/data=!4m7!3m6!1s0x15f1d305e85ea10f:0x23e05afdf1d03979!8m2!3d20.1031341!4d42.6597785!16s%2Fg%2F1pw3wxmtg!19sChIJD6Fe6AXT8RUReTnQ8f1a4CM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>مركز صحي البحيرات والفيحاء</t>
+          <t>مركز صحي الدحو</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1405,22 +1445,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Unnamed Road, مكة 24227، المملكة العربية السعودية</t>
+          <t>Unnamed Road, بيشة 67844، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>+966125201315</t>
+          <t>+966176204799</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1432,12 +1472,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B4%D8%A7%D8%B7%D9%8A%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15c3d8fbce357c59:0xa5994a4812673f17!8m2!3d21.6866413!4d39.1068757!16s%2Fg%2F12qh3188q!19sChIJWXw1zvvYwxURFz9nEkhKmaU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B8%D9%81%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15ef45b73cbbfa47:0xee3b959e814551a1!8m2!3d20.0075721!4d41.4731521!16s%2Fg%2F11cjk30r1w!19sChIJR_q7PLdF7xURoVFFgZ6VO-4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>مركز صحي الشاطيء</t>
+          <t>مركز صحي الظفير</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1447,35 +1487,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>257</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>JEJA9006، 9006 المرجان، 3802، حي المرجان، جدة 23714، المملكة العربية السعودية</t>
+          <t>3442, AJ Janub Road, 65526, الباحة المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>+966122285617</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>+966177251450</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>http://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AA%D8%AF%D8%A7%D9%88%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A3%D8%A8%D9%87%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fcab75524d82f5:0xca81eef577f1ba05!8m2!3d18.2360625!4d42.5849375!16s%2Fg%2F11sv111l1n!19sChIJ9YJNUnWr_BURBbrxd_Xugco?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%AE%D8%B2%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15823bd527ca088b:0xbfd66ab8a626c712!8m2!3d26.06472!4d43.5629!16s%2Fg%2F11b7dwqnhc!19sChIJiwjKJ9U7ghUREscmprhq1r8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>مجمع تداوي الطبي أبها</t>
+          <t>مركز صحي الخزان</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1485,35 +1529,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>سلطان، مطار، مدينة سلطان، طريق الملك فهد، جوار، 6HPM+CXG حي البديع، أبها 62217، المملكة العربية السعودية</t>
+          <t>King Fahad Rd, الخزان، رياض الخبراء 54662، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>+966920006449</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>+966163340820</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>http://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%82%D8%B7%D9%8A%D9%81+%D8%A7%D9%84%D8%A3%D9%88%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e35ff75d1ea9be7:0x4d7746990cfc96d6!8m2!3d26.5603859!4d50.002609!16s%2Fg%2F11dym3ybt_!19sChIJ55vq0XX_NT4R1pb8DJlGd00?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%A7%D8%B4%D8%B1%D9%81%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581eebbf6a5dac9:0xf53d72c141e17261!8m2!3d26.09916!4d44.00577!16s%2Fg%2F11g72n2grs!19sChIJydql9rvugRURYXLhQcFyPfU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>مركز صحي القطيف الأول</t>
+          <t>مركز صحي الاشرفية</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1523,22 +1571,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>173</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Unnamed Road, القطيف‎ 32637، المملكة العربية السعودية</t>
+          <t>الاشرفية، Unnamed Road, 56438, عنيزة 56438، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>+966138554327</t>
+          <t>+966163642755</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1550,12 +1598,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%82%D9%88%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15bd9a0bdfa91f0f:0xb3b6e0f6d7ac88ac!8m2!3d24.5508511!4d39.7499299!16s%2Fg%2F11c7070kfl!19sChIJDx-p3wuavRURrIis1_bgtrM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%AE%D9%8A%D8%A8%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15a327c0bbd46e47:0xed0461eca48ae247!8m2!3d25.66144!4d39.2955!16s%2Fg%2F11c43q5pjq!19sChIJR27Uu8AnoxURR-KKpOxhBO0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>مركز صحي العاقول</t>
+          <t>مركز صحي خيبر</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1565,22 +1613,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>340, 42254, المدينة المنورة المملكة العربية السعودية</t>
+          <t>Unnamed Road, 43489, خيبر المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>+966148651584</t>
+          <t>+966148821233</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1592,12 +1640,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A8%D9%86%D9%8A+%D8%B3%D9%84%D9%85%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbf28e12729c7:0x96c3503c326e8f72!8m2!3d24.4789024!4d39.5771303!16s%2Fg%2F11c37h0zfm!19sChIJxykn4Si_vRURco9uMjxQw5Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Al+Mahragan+Medical+Center/data=!4m7!3m6!1s0x15a9ada1d59a74a5:0xdfea83bdbebe41d5!8m2!3d28.3887869!4d36.5635533!16s%2Fg%2F11g6xk6wms!19sChIJpXSa1aGtqRUR1UG-vr2D6t8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>مركز صحي بني سلمة</t>
+          <t>Al Mahragan Medical Center</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1605,24 +1653,16 @@
           <t>المركز الطبي العام</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>القبلتين، المدينة المنورة 42351، المملكة العربية السعودية</t>
+          <t>4553 عيسى بن اياد، المهرجان، تبوك 47913، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>+966148697585</t>
+          <t>+966596438139</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1634,12 +1674,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D8%B1%D9%83%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e37ec862e1dd4ed:0xc52c3e74cf0829ab!8m2!3d25.39646!4d49.72906!16s%2Fg%2F11c7058jp4!19sChIJ7dQdLobsNz4RqykIz3Q-LMU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D8%A7%D9%84%D8%B5%D8%AF%D8%A7%D8%B9%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x159dc44db78e9c9b:0x9257b9aa278d60a5!8m2!3d26.824832!4d41.4933752!16s%2Fg%2F11b6tt3_0c!19sChIJm5yOt03EnRURpWCNJ6q5V5I?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>مركز صحي المركز</t>
+          <t>مركز الرعاية الصحية الأولية بالصداعية</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1649,22 +1689,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Markaz Road, Al Markaz المملكة العربية السعودية</t>
+          <t>8552, 57635, بدائع الصداعية المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>+966135394952</t>
+          <t>+966162634622</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1676,12 +1716,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D9%85%D8%B5%D8%AF%D9%87%E2%80%AD/data=!4m7!3m6!1s0x1586fade99aca911:0xa739704ade59db63!8m2!3d24.5329341!4d44.2817268!16s%2Fg%2F11c3x88xww!19sChIJEamsmd76hhURY9tZ3kpwOac?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B1%D9%88%D8%B4%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15f029709789dfd1:0xf015caeba91d2896!8m2!3d20.0023992!4d42.5963965!16s%2Fg%2F11c1njfksf!19sChIJ0d-Jl3Ap8BURligdqevKFfA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>مركز الرعاية الصحية الأولية بمصده</t>
+          <t>مركز صحي الروشن</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1691,22 +1731,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6953, King Saud Ibn Abdul Aziz Road, الدوادمي المملكة العربية السعودية</t>
+          <t>Unnamed Road, النخيل، بيشة 67716، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>+966116432707</t>
+          <t>+966176232413</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1718,12 +1758,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%86%D8%AF%D9%89%E2%80%AD/data=!4m7!3m6!1s0x3e49e3250326f767:0x2d516b8f08266acc!8m2!3d26.3714727!4d50.0667635!16s%2Fg%2F11g7nqkj33!19sChIJZ_cmAyXjST4RzGomCI9rUS0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%88%D8%B3%D9%8A%D8%B7%D9%89%E2%80%AD/data=!4m7!3m6!1s0x157f58cb51d1e989:0x21302c181c10a396!8m2!3d26.33048!4d44.01951!16s%2Fg%2F1hd_hjkkb!19sChIJienRUctYfxURlqMQHBgsMCE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>مركز صحي الندى</t>
+          <t>مركز صحي الوسيطى</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1733,22 +1773,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3252 شارع محمد العثيمين، الندى، الدمام 32271، المملكة العربية السعودية</t>
+          <t>Unnamed Road، بريدة 52348، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>+966138113363</t>
+          <t>+966163695448</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1760,12 +1800,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%B9%D8%A8%D8%A7%D9%84%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15e4c034041814b9:0x8f0767f70cb3ba32!8m2!3d19.9735543!4d42.599773!16s%2Fg%2F11g7nn7w0k!19sChIJuRQYBDTA5BURMrqzDPdnB48?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581e14e60370139:0x56f2e04eedade74f!8m2!3d26.2324489!4d44.0315589!16s%2Fg%2F11rvt5f94!19sChIJOQE3YE7hgRURT-et7U7g8lY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>مركز صحي عباله</t>
+          <t>مركز الرعاية الصحية الأولية</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1775,22 +1815,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>15, 62763, عباله - Aseer Province المملكة العربية السعودية</t>
+          <t>Unnamed Road, حي المروة، بريدة 52321، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>+966172920015</t>
+          <t>+966163220214</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1802,12 +1842,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D9%86%D8%B4%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ac55794b5a2f:0xd20b5ff9c41f0e6!8m2!3d28.38135!4d36.56585!16s%2Fg%2F11c7070k9z!19sChIJL1pLeVWsqRUR5vBBnP-1IA0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%86%D8%B5%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15bdbeebf8105aa9:0xd3176eeb8347d3c2!8m2!3d24.4918492!4d39.5954032!16s%2Fg%2F11b76c8d0n!19sChIJqVoQ-Ou-vRURwtNHg-tuF9M?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>مركز صحي المنشية</t>
+          <t>مركز صحي النصر</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1822,17 +1862,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>8325 محمد الغريض، 4086، المنشية القديمة، تبوك 47914، المملكة العربية السعودية</t>
+          <t>8754 مالك بن البدن، 3374، الراية، المدينة المنورة 42312، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>+966144226444</t>
+          <t>+966555362440</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1844,12 +1884,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f06d30d85ba63:0x75d31e2b59d02303!8m2!3d24.7040411!4d46.7804743!16s%2Fg%2F11clzrbr41!19sChIJY7qFDdMGLz4RAyPQWSse03U?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%B3%D9%84%D9%8A%D9%85%D8%A7%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ad73c0823d2b:0x522a7a35524d1c01!8m2!3d28.4052768!4d36.5731353!16s%2Fg%2F11cp5fbmrw!19sChIJKz2CwHOtqRURARxNUjV6KlI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>مجمع الريان الطبي</t>
+          <t>مستوصف السليمانية تبوك</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1859,35 +1899,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>234</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>شارع الإمام أحمد بن حنبل، الريان، الرياض 14213، المملكة العربية السعودية</t>
+          <t>3464 ابار علي، السليمانية، 3464 Abar Ali, 47312 6900, تبوك 47312، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>+966920020098</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>+966144239504</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>http://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%AD%D9%85%D9%8A%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x151007b5dbd5848f:0xfa8e18706857f9e3!8m2!3d31.3369017!4d37.3349678!16s%2Fg%2F11cs3n2643!19sChIJj4TV27UHEBUR4_lXaHAYjvo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%81%D9%82%D8%A7%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x158687c426d25719:0xcbdce8d449ef2661!8m2!3d24.5525803!4d43.9295019!16s%2Fg%2F11g6xgd26s!19sChIJGVfSJsSHhhURYSbvSdTo3Ms?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>مركز صحي الحميدية</t>
+          <t>مركز صحي الفقارة</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1897,35 +1941,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>الخالدية، القريات 77451، المملكة العربية السعودية</t>
+          <t>5460, 17271, الفقارة المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>+966146424372</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>+966116331190</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>http://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/East+Al-Dawadmi+Healthcare+Center/data=!4m7!3m6!1s0x15871d6c00000001:0xac77222723584b3c!8m2!3d24.5231549!4d44.413457!16s%2Fg%2F11k5k9927g!19sChIJAQAAAGwdhxURPEtYIycid6w?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%A7%D8%B3%D9%83%D8%A7%D9%86+%D8%A8%D8%A8%D8%B1%D9%8A%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f576fd08e668f:0xb74871e35f742b86!8m2!3d26.3880868!4d43.9324918!16s%2Fg%2F11c702f36q!19sChIJj2aO0G9XfxURhit0X-NxSLc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>مركز الرعاية الصحية الأولية شرق الدوادمي</t>
+          <t>مركز صحي الاسكان ببريدة</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1935,22 +1983,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>653</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>8647 الأمير متعب بن عبدالعزيز، حي الملك فهد، الدوادمي 17452، المملكة العربية السعودية</t>
+          <t>8620 طريق عثمان بن عفان، حي الإسكان، بريدة 52386، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>+966116421496</t>
+          <t>+966163818355</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1962,12 +2010,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D8%AE%D8%A7%D9%84%D8%AF+%D8%A8%D8%A7%D9%84%D8%B1%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x1583ca9ba8cbb159:0x76c1181b96cf4943!8m2!3d25.8776704!4d43.4859617!16s%2Fg%2F11gz9y_r4!19sChIJWbHLqJvKgxURQ0nPlhsYwXY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A7%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e80a7b3b14f4b5:0x89d7a46ca2147cc0!8m2!3d20.1444!4d40.26105!16s%2Fg%2F11c532wwg5!19sChIJtfQUO3sK6BURwHwUomyk14k?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>مركز صحي الملك خالد بالرس</t>
+          <t>مركز الرعاية الصحية الاولية</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1977,7 +2025,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1987,12 +2035,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>شارع ربيعة السعدي ,حي الملك خالد، الملك خالد، الرس 58883، المملكة العربية السعودية</t>
+          <t>Corniche Road, 28434, الليث المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>+966163335223</t>
+          <t>+966539465134</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2004,12 +2052,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D8%A7%D9%84%D8%B9%D9%88%D8%A7%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c2058d008079fd:0xfebd0a485aede30f!8m2!3d21.3520127!4d39.875927!16s%2Fg%2F11cnbt2s0h!19sChIJ_XmAAI0FwhURD-PtWkgKvf4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D9%8F%D8%B9%D9%84%D9%85%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e3797210a3af831:0xd65fbb719b0b01d8!8m2!3d25.3688348!4d49.5651543!16s%2Fg%2F11cs017t0x!19sChIJMfg6CiGXNz4R2AELm3G7X9Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>مركز الرعاية الصحية الأولية بالعوالي</t>
+          <t>مركز صحي المُعلمين</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2019,22 +2067,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Unnamed Road, 24371, مكة المملكة العربية السعودية</t>
+          <t>5233, Al Amir Saud Ibn Jalawi, Al Hufuf and Al Mubarraz المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>+966125276036</t>
+          <t>+966135751816</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2046,12 +2094,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AC%D9%88%D9%87%D8%B1%D8%A9+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c163000bf2ec1b:0x4c268f9b72a90369!8m2!3d21.7883884!4d39.0953702!16s%2Fg%2F11lzfk0ddq!19sChIJG-zyCwBjwRURaQOpcpuPJkw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AF%D9%88%D8%A7%D8%A1+%D8%A7%D9%84%D8%AF%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x1579baecabd93c7b:0x3a8ffec5601974a2!8m2!3d27.4759562!4d42.9949939!16s%2Fg%2F11bzzqzmg2!19sChIJezzZq-y6eRURonQZYMX-jzo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>صيدلية الجوهرة الحديثة</t>
+          <t>صيدلية دواء الداء</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2061,35 +2109,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>حي، شارع ابو سعيد المكي، الصواري، جدة 23826، المملكة العربية السعودية</t>
+          <t>Unnamed Rd, الأجفر المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>+966556212790</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>+966500951441</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.snapchat.com/add/dwaa_eldaa</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AF%D9%8A%D9%85%D8%A9+%D8%A7%D9%84%D8%B2%D8%A7%D9%87%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c20588fd132191:0xfa2ff31facd94d58!8m2!3d21.383088!4d39.8175835!16s%2Fg%2F11ll9n27xk!19sChIJkSET_YgFwhURWE3ZrB_zL_o?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A3%D9%85%D9%88%D8%A7%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e48dcd657cbd79:0xc809f6f789a8b196!8m2!3d18.6689372!4d42.0627109!16s%2Fg%2F11vb77fk2c!19sChIJeb18Zc2N5BURlrGoiff2Ccg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>صيدلية ديمة الزاهر</t>
+          <t>صيدلية أمواج الطبية</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2099,22 +2151,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>9RM9+62P زهرة كدي، جعفر الهاشمي، الكعكية، مكة 24352، المملكة العربية السعودية</t>
+          <t>محايل عسير 63723، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>+966561180028</t>
+          <t>+966533192664</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2122,12 +2174,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AF%D9%88%D8%A7%D8%A1+%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85%D8%A9+3%E2%80%AD/data=!4m7!3m6!1s0x15fee9b6be19586d:0xcddb4150c604264c!8m2!3d17.5009528!4d44.1875251!16s%2Fg%2F11g690c_8f!19sChIJbVgZvrbp_hURTCYExlBB280?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%88%D8%B4%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f0500562c586f:0x4f89d39f47f9ded!8m2!3d24.5987339!4d46.6895711!16s%2Fg%2F11vwpcnmmf!19sChIJb1gsVgAFLz4R7Z1_9Dmd-AQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>صيدلية دواء السلامة 3</t>
+          <t>صيدلية اوشن</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2137,22 +2189,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>الحصين، نجران 55461، المملكة العربية السعودية</t>
+          <t>6320-6336 السويدي العام، سلطانة، الرياض 12777، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>+966511231231</t>
+          <t>+966582754679</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2160,12 +2212,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D9%86%D8%A7%D9%8A%D8%B1+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15c21b04a7b980a1:0xf0dcbdedca76f203!8m2!3d21.4042722!4d39.8041377!16s%2Fg%2F11t7xyh6tl!19sChIJoYC5pwQbwhURA_J2yu293PA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AA%D9%8A%D9%86+-+Tin+Pharmacy%E2%80%AD/data=!4m7!3m6!1s0x1581fdea7a37674d:0xf2c3b4649e127bf0!8m2!3d26.3385429!4d43.9370526!16s%2Fg%2F11lyp33svg!19sChIJTWc3eur9gRUR8HsSnmS0w_I?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>صيدلية مناير الدواء</t>
+          <t>صيدلية تين - Tin Pharmacy</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2175,39 +2227,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MCKD4523، الشيخ حسن المشاط، الخالدية، مكة 24232، المملكة العربية السعودية</t>
+          <t>طريق السلام، حي الصفاء، بريدة 52367، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>+966543499890</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>http://www.enmaa.com.sa/</t>
-        </is>
-      </c>
+          <t>+966559662900</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%82%D8%B7%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D8%B4%D9%81%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2fabea337dc819:0xb29a91142320be30!8m2!3d24.804508!4d46.9021599!16s%2Fg%2F11y4tl9b12!19sChIJGch9M-qrLz4RML4gIxSRmrI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1+%D8%A7%D9%84%D9%86%D8%A7%D8%AC%D8%AD-%D8%A7%D9%84%D8%B2%D9%87%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157644241903cb55:0x2308e756696c3d0c!8m2!3d27.5602419!4d41.7069611!16s%2Fg%2F11ggs84w8m!19sChIJVcsDGSREdhURDD1saVbnCCM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>صيدلية قطرات الشفاء الطبية</t>
+          <t>صيدلية الدواء الناجح-الزهرة</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2217,22 +2265,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>الصلاح، حي الندوة، الرياض 14817، المملكة العربية السعودية</t>
+          <t>HP64+3QW فاطمة, الزهراء، حائل 55481، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>+966535078809</t>
+          <t>+966553861700</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2240,12 +2288,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B1%D8%A7%D8%B2%D9%8A+%D8%A7%D9%84%D8%AE%D8%A8%D8%B1%D8%A7%D8%A1+1+Alrazi+Pharmacy+Alkhabra%E2%80%AD/data=!4m7!3m6!1s0x15823b424204af01:0xa0ce418029d45f7b!8m2!3d26.067991!4d43.6195103!16s%2Fg%2F11c2mcr7cj!19sChIJAa8EQkI7ghURe1_UKYBBzqA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D9%85%D9%84+%D8%A7%D9%84%D8%AB%D8%A7%D9%86%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x156467001188d7d5:0xb8dc5a0e16cb68c3!8m2!3d29.6387109!4d43.5142484!16s%2Fg%2F11vrfqqqsy!19sChIJ1deIEQBnZBURw2jLFg5a3Lg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>صيدلية الرازي الخبراء 1 Alrazi Pharmacy Alkhabra</t>
+          <t>صيدلية الشامل الثاني البيطرية</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2255,39 +2303,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>طريق الملك فهد، الياسمين، الخبراء 52717، المملكة العربية السعودية</t>
+          <t>JGQ7+FMQ، المدينة، رفحاء 76321، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>+966554634999</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>http://razi.sa/</t>
-        </is>
-      </c>
+          <t>+966504644006</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%84%D9%85%D8%B3%D8%A7%D8%AA+%D8%A7%D9%84%D8%AE%D9%84%D9%8A%D8%AC+5%E2%80%AD/data=!4m7!3m6!1s0x3e2f19ce4e37a61f:0xe92351f5d8646a48!8m2!3d24.5484672!4d46.5215099!16s%2Fg%2F11qp2mss44!19sChIJH6Y3Ts4ZLz4RSGpk2PVRI-k?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A3%D8%B3%D8%AA%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e35ff42bd93a629:0x296d1bae99932dc5!8m2!3d26.5131219!4d49.9777079!16s%2Fg%2F11qbdtxk2_!19sChIJKaaTvUL_NT4RxS2Tma4bbSk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>صيدلية امواج الخليج ٤ _ حى الغروب</t>
+          <t>صيدلية أستر</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2297,22 +2341,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>91</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>إبراهيم بن نعيم، طويق، الرياض 14931، المملكة العربية السعودية</t>
+          <t>2333 شارع زين العابدين، الراية، عنك 32467، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>+966553079476</t>
+          <t>+966541184515</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2320,12 +2364,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%81%D9%8A%D8%B5%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c3da05cbce7395:0xcadaeae693ee10b2!8m2!3d21.6206386!4d39.1479402!16s%2Fg%2F1hdz7vf2p!19sChIJlXPOywXawxURshDuk-bq2so?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%BA%D8%AF%D8%A7%D9%81+(ghodaf+pharmacy)%E2%80%AD/data=!4m7!3m6!1s0x3e2f05b5d00a34a1:0x9a671b0a1954ea6b!8m2!3d24.6767441!4d46.7455716!16s%2Fg%2F11ry3hnb7r!19sChIJoTQK0LUFLz4Ra-pUGQobZ5o?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>صيدلية الفيصل</t>
+          <t>Shams Pharmacy | صيدلية شمس</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2335,35 +2379,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Thirty Street، النعيم، شارع النعيم، حي، جدة المملكة العربية السعودية</t>
+          <t>HH54+XQ9، طويق، الرياض 14927، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>+966126120999</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>+966599521241</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>http://shamspharmacy.com/</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%88%D8%B4%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f0500562c586f:0x4f89d39f47f9ded!8m2!3d24.5987339!4d46.6895711!16s%2Fg%2F11vwpcnmmf!19sChIJb1gsVgAFLz4R7Z1_9Dmd-AQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%81%D8%A7%D8%B7%D9%85%D8%A9+%D8%A7%D9%84%D9%85%D9%84%D8%A7%D8%AD%E2%80%AD/data=!4m7!3m6!1s0x1583cbe124255601:0x619f57eb6a232efd!8m2!3d25.8858671!4d43.4907726!16s%2Fg%2F11sqr39xy9!19sChIJAVYlJOHLgxUR_S4jautXn2E?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>صيدلية اوشن</t>
+          <t>صيدلية فاطمة الملاح</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2373,22 +2421,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6320-6336 السويدي العام، سلطانة، الرياض 12777، المملكة العربية السعودية</t>
+          <t>VFPR+88R، شارع ابن سينا، الملك فيصل، الرس 58891، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>+966582754679</t>
+          <t>+966539324448</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2396,12 +2444,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AF%D9%84%D8%AA%D8%A7+%D8%AC%D9%85%D9%84%D8%A9+%D8%A7%D9%84%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f2dcf609572ab:0xa588181340e3d677!8m2!3d24.4715481!4d46.2695693!16s%2Fg%2F11lc_vp5jg!19sChIJq3KVYM8tLz4Rd9bjQBMYiKU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87+%D8%A7%D9%84%D8%B6%D9%8A%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15f92da13eea47b5:0xaee2ca5d59c27b89!8m2!3d17.8420615!4d44.2787327!16s%2Fg%2F11h89682jy!19sChIJtUfqPqEt-RURiXvCWV3K4q4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>دلتا جملة الصيدليات</t>
+          <t>صيدلية بيطريه الضيقة</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2409,24 +2457,16 @@
           <t>صيدلية</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>حي الورود, OMDC3818، 3818 طريق الملك عبد العزيز، 6038, المزاحمية 19652، المملكة العربية السعودية</t>
+          <t>1215 المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>+966552479613</t>
+          <t>+966534266931</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -2434,12 +2474,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%86%D8%A8%D9%8A%D9%84+1%E2%80%AD/data=!4m7!3m6!1s0x3e379646c4805d0b:0x49fcf745603609f8!8m2!3d25.4134066!4d49.5830181!16s%2Fg%2F1pv60fdp0!19sChIJC12AxEaWNz4R-Ak2YEX3_Ek?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A2%D8%AF%D9%85+5+-+%D8%B4%D8%A8%D8%B1%D8%A7+-+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x3e2f0ff111cacc05:0x97d85e3adc296081!8m2!3d24.5883837!4d46.6833593!16s%2Fg%2F11_s4fc6g!19sChIJBczKEfEPLz4RgWAp3Dpe2Jc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>صيدلية نبيل 1</t>
+          <t>صيدلية آدم 5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2449,35 +2489,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>حي السياسب، المبرز 36342، المملكة العربية السعودية</t>
+          <t>ال عباد، شبرا، الرياض 12793، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>+966570110638</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>+966538800637</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://adamonline.com/</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D8%B4%D8%B1%D8%A7%D9%82%D8%A9+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%AA%D9%8A%D8%B3%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c3cf2b3c777dfb:0xfb64122f09b15be2!8m2!3d21.5472942!4d39.2912203!16s%2Fg%2F11g_tgq2p1!19sChIJ-313PCvPwxUR4luxCS8SZPs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%82%D9%85%D8%A9+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e27ce6fe9c368a9:0x9812c990b3f8bae1!8m2!3d23.5427066!4d45.5149734!16s%2Fg%2F11bx0j2kds!19sChIJqWjD6W_OJz4R4br4s5DJEpg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>صيدلية اشراقة فرع التيسير</t>
+          <t>صيدلية قمة الدواء</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2487,22 +2531,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>G7WR+WF9، Unnamed Road، مريخ، جدة 22425، المملكة العربية السعودية</t>
+          <t>GGV7+3XQ، طريق الملك عبدالله، حي الملك فيصل، الرين 19599، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>+966122889634</t>
+          <t>+966116591151</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2510,12 +2554,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AF%D8%A7%D9%86%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f03e0a7f0b8cf:0xec410872a8f7077a!8m2!3d24.72299!4d46.674019!16s%2Fg%2F11sv062s5h!19sChIJz7jwp-ADLz4Regf3qHIIQew?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%A8%D9%84%D8%B3%D9%85+%D8%A7%D9%84%D8%B3%D8%B9%D8%A7%D8%AF%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2f23b23dbddb39:0x6f65cc9591e24d03!8m2!3d24.5486313!4d46.5034709!16s%2Fg%2F11h0t8knjt!19sChIJOdu9PbIjLz4RA03ikZXMZW8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>صيدلية دانة الصحة</t>
+          <t>صيدليه بلسم السعاده</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2525,22 +2569,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PMFF+5J8، الورود، الرياض 12251، المملكة العربية السعودية</t>
+          <t>6550، الرياض 14931، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>+966547573721</t>
+          <t>+966118106744</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2548,12 +2592,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A8%D9%84%D8%B3%D9%85+%D8%A7%D9%84%D8%B7%D8%B1%D9%81+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e37eda3cc2a9a65:0xf286dd580f7d260f!8m2!3d25.3552577!4d49.7366524!16s%2Fg%2F11k45cbjnl!19sChIJZZoqzKPtNz4RDyZ9D1jdhvI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A+1+RIYADH+PHARMACY%E2%80%AD/data=!4m7!3m6!1s0x3e2f0fb3cf3a7ca7:0xd262703b3bdad85!8m2!3d24.5277385!4d46.6829224!16s%2Fg%2F11vf8vw4fw!19sChIJp3w6z7MPLz4Rha29swMnJg0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>صيدلية بلسم الطرف الطبية</t>
+          <t>صيدلية الرياض الأولي 1 RIYADH PHARMACY</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2563,22 +2607,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>شارع الستين، الطرف السعدون 31982، المملكة العربية السعودية</t>
+          <t>شارع القادسية، بدر، الرياض 11418، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>+966580042442</t>
+          <t>+966537176137</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2586,12 +2630,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D9%88%D8%B5%D9%81%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15943c6e82371877:0x5ac1cf9dfdad768f!8m2!3d23.5032371!4d40.89095!16s%2Fg%2F11bxfzbklm!19sChIJdxg3gm48lBURj3at_Z3PwVo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D9%86+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB%D8%A9+2%E2%80%AD/data=!4m7!3m6!1s0x15c203ff9a555f19:0xf6202889d2df636f!8m2!3d21.4583347!4d39.8465636!16s%2Fg%2F11f611lqfv!19sChIJGV9Vmv8DwhURb2Pf0okoIPY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>صيدلية علاج الوصفة الطبية</t>
+          <t>صيدلية الريان الحديثة 2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2601,22 +2645,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>GV3R+79W، محافظة مهد الذهب 44411، المملكة العربية السعودية</t>
+          <t>FR5W+7J6، شارع الحج، وادي جليل، 3136, مكة 24238 3136، مكة 24238، مكة 24224، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>+966148681899</t>
+          <t>+966544431819</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2624,12 +2668,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/SAFE+PHARMACY+WAZARAT/data=!4m7!3m6!1s0x3e2f04632452710d:0x14ba7723b518b891!8m2!3d24.6713909!4d46.7120553!16s%2Fg%2F11f03mhz0y!19sChIJDXFSJGMELz4RkbgYtSN3uhQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%86%D8%AD%D8%A7%D8%B3+%D9%A2%D9%A1%E2%80%AD/data=!4m7!3m6!1s0x15b90f4d2556f8ef:0x40d04afea19853f!8m2!3d24.112236!4d38.0638177!16s%2Fg%2F11fz9y4t9f!19sChIJ7_hWJU0PuRURP4UZ6q8EDQQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SAFE PHARMACY WAZARAT</t>
+          <t>صيدلية النحاس ٢١</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2639,35 +2683,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6733 الشيخ عبدالرحمن بن حسن، 3273، الوزارات، الرياض 12626، المملكة العربية السعودية</t>
+          <t>2185 طريق الملك عبدالله بن عبدالعزيز - شمال، العصيلي، ينبع 46428، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>+966532980149</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>+966143570023</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://alnahhas.com/ar/</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B2%D8%A7%D8%A6%D8%AF+%D8%A7%D8%AB%D9%86%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f1fd470616b8b:0x7f210f918f707ee1!8m2!3d24.4892628!4d46.6239419!16s%2Fg%2F11pf6ckncm!19sChIJi2thcNQfLz4R4X5wj5EPIX8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AA%D9%85%D8%B1%D8%A9+%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15100700605f79cd:0x962216865ca6a52a!8m2!3d31.3340096!4d37.3543475!16s%2Fg%2F11lz8zl0mz!19sChIJzXlfYAAHEBURKqWmXIYWIpY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>صيدلية زائد اثنين 17</t>
+          <t>صيدلية تمرة الشمال</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2677,22 +2725,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ديراب، الرياض 14972، المملكة العربية السعودية</t>
+          <t>علي بن ابي طالب، العزيزية، القريات 77453، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>+966594293747</t>
+          <t>+966534894807</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2700,12 +2748,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AC%D8%B1%D9%8A%D8%B1+%D8%B7%D9%8A%D8%A8%D8%A9+%D8%AC%D9%85%D9%84%D8%A9+%D8%A7%D9%84%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15bdb9001d255ccb:0x13c5215545c9545b!8m2!3d24.4909759!4d39.523188!16s%2Fg%2F11x1nbgvf4!19sChIJy1wlHQC5vRURW1TJRVUhxRM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D9%85%D9%84%D9%83%D8%A9+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15e98eaf8a8c9b0d:0x74dab668e2b0834c!8m2!3d21.2641399!4d40.3990478!16s%2Fg%2F11fy4gpmsj!19sChIJDZuMiq-O6RURTIOw4mi22nQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>صيدلية جرير طيبة جملة الصيدليات</t>
+          <t>صيدلية مملكة الدواء</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2715,22 +2763,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DMMA6316، 5747 صرمة بن مالك، حي طيبة، 6316، المدينة المنورة 42356، المملكة العربية السعودية</t>
+          <t>9041 المثناة، السلامة، 4822، الطائف 26511، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>+966543692500</t>
+          <t>+966127321666</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2738,12 +2786,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D9%86%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f08c228cc2a03:0xd0aa97be772f91ba!8m2!3d24.5998334!4d46.7652086!16s%2Fg%2F11b6z6r_kd!19sChIJAyrMKMIILz4RupEvd76XqtA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B1%D9%81%D9%8A%D9%82%E2%80%AD/data=!4m7!3m6!1s0x3e2540006f02085f:0x2e15da26c7b0387c!8m2!3d23.9904185!4d47.1378882!16s%2Fg%2F11b71cdj58!19sChIJXwgCbwBAJT4RfDiwxybaFS4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>صيدلية العناية الدوائية</t>
+          <t>صيدلية الرفيق</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2753,22 +2801,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>النماص، العزيزية، الرياض 14511، المملكة العربية السعودية</t>
+          <t>X4RQ+556، طريق الملك عبدالله، الصحنة، الدلم 16323، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>+966114029082</t>
+          <t>+966115411442</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2776,12 +2824,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B4%D8%B1%D9%8A%D9%81+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1607f500170becb7:0xc3cb5307e15e5296!8m2!3d16.9699681!4d42.8262398!16s%2Fg%2F11vy24ldg4!19sChIJt-wLFwD1BxYRllJe4QdTy8M?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B1%D9%88%D8%B2+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f030b1408cfa1:0xfb2931d8dc6d0620!8m2!3d24.6917979!4d46.7071114!16s%2Fg%2F11nx6715t_!19sChIJoc8IFAsDLz4RIAZt3NgxKfs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>صيدلية الشريف الطبية</t>
+          <t>صيدلية روز المدينة الطبية</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2791,22 +2839,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>6451 شارع الحسن بن الهيثم، حي النسيم، GNMB2923، 2923، أبو عريش 84715، المملكة العربية السعودية</t>
+          <t>MPR4+PR9، شارع ابي بكر الرازي، السليمانية، الرياض 11564، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>+966548631700</t>
+          <t>+966536677731</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2814,12 +2862,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%AA%D9%85%D8%A7%D9%85+%D8%A7%D9%84%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%89%E2%80%AD/data=!4m7!3m6!1s0x3e2f096ba886c1e9:0x499419ddf3773c31!8m2!3d24.5825292!4d46.7804552!16s%2Fg%2F11vj2l74n9!19sChIJ6cGGqGsJLz4RMTx3890ZlEk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%AF.%D9%86%D8%A8%D9%8A%D9%84+%D8%A7%D9%84%D9%85%D8%B9%D9%8A%D9%82%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c205fab6d3be6b:0xb9c7c6ca4c69c783!8m2!3d21.3498654!4d39.8897505!16s%2Fg%2F11hbfkdb41!19sChIJa77TtvoFwhURg8dpTMrGx7k?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>مجمع عيادات تمام العلاج الطبى</t>
+          <t>د.نبيل المعيقلي</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2829,39 +2877,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>HQMJ+25J حي، طريق العزيزية الفرعي، العزيزية، الرياض 14514، المملكة العربية السعودية</t>
+          <t>القلاع، مكة 24372، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>+966505440476</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>https://ar.strikingly.com/s/sites/31700080/edit/design/</t>
-        </is>
-      </c>
+          <t>+966555513805</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1%D8%A9+%D9%86%D9%87%D9%84%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D8%B0%D9%84%D9%89+-+%D8%B7%D8%A8%D9%8A%D8%A8%D8%A9+%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%D9%88%D8%A7%D9%84%D9%84%D9%8A%D8%B2%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c3d13f3c329505:0xbf4e178be76c87dd!8m2!3d21.5801838!4d39.2085851!16s%2Fg%2F11ptykgmbv!19sChIJBZUyPD_RwxUR3Yds54sXTr8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B5%D9%81%D8%A7+%D8%A7%D9%84%D9%85%D8%A7%D8%B3%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A7%D8%A6%D9%81%E2%80%AD/data=!4m7!3m6!1s0x15e98933b0e29b1f:0xa9098a614b5353e1!8m2!3d21.2804017!4d40.4433961!16s%2Fg%2F11m5p0fwpc!19sChIJH5visDOJ6RUR4VNTS2GKCak?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>دكتورة نهلة الشاذلى - طبيبة الجلدية والتجميل والليزر</t>
+          <t>عيادات صفا الماسي الطبية الطائف</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2869,33 +2913,41 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>H6J5+3CG، طريق الامير متعب بن عبدالعزيز، الصفا، جدة 23454، المملكة العربية السعودية</t>
+          <t>سعدون بن سعد سعدون النفيعي، الطائف 26523، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>+966566150847</t>
+          <t>+966557000918</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://instagram.com/dr.nahlaelshazly</t>
+          <t>https://safaalmassiclinic.com/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1%D8%A9+%D8%B1%D8%A7%D9%85%D9%8A%D9%87+%D8%A8%D8%B5%D9%85%D8%AC%D9%8A+-+%D8%B7%D8%A8%D9%8A%D8%A8%D8%A9+%D8%AC%D9%84%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x4a11bdf4ee99bdbd:0xad17a449bf63d9f1!8m2!3d24.222142!4d45.0740834!16s%2Fg%2F11vk37cg2g!19sChIJvb2Z7vS9EUoR8dljv0mkF60?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%AF.+%D8%AE%D8%A7%D9%84%D8%AF+%D8%B4%D9%86%D8%A7%D9%88%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bdbfa2d221edd9:0xa6aded8f5ea34f69!8m2!3d24.4293448!4d39.6267637!16s%2Fg%2F11g8xchydl!19sChIJ2e0h0qK_vRURaU-jXo_traY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>دكتورة راميه بصمجي - طبيبة جلدية</t>
+          <t>عيادة د. خالد شناوي</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2905,35 +2957,35 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>CJHG+PPJ، الجمعة، المدينة المنورة 42316، المملكة العربية السعودية</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>+966590385500</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/drramiabasmaji/</t>
-        </is>
-      </c>
+          <t>+966558279777</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A8+%D8%A7%D9%84%D8%B4%D8%B9%D8%A8%D9%8A+%D8%A7%D8%AD%D9%85%D8%AF+%D8%AD%D9%84%D9%88%D8%A7%D9%86%D9%8A+%D8%A7%D8%A8%D9%88+%D9%87%D8%A7%D8%B4%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15b90922b9901005:0xcdc6bbfaece02532!8m2!3d24.1304668!4d37.9934236!16s%2Fg%2F11fm9nzwrn!19sChIJBRCQuSIJuRURMiXg7Pq7xs0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%B9%D8%AB%D9%85%D8%A7%D9%86+%D8%B9%D8%B2%D9%8A%D8%B2%D8%A9+%D8%AC%D8%B1%D8%A7%D8%AD%D8%A9+%D9%83%D9%86%D8%AF%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15c3cf4bd0cdf3ef:0xbd37dbc9b3dce085!8m2!3d21.5307649!4d39.178086!16s%2Fg%2F11f61ypmhq!19sChIJ7_PN0EvPwxURheDcs8nbN70?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>الطبيب الشعبي احمد حلواني ابو هاشم</t>
+          <t>عيادة الدكتور عثمان عزيزة جراحة كندا</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2943,22 +2995,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>7643، ينبع 46513 4712، 46513، المملكة العربية السعودية</t>
+          <t>G5JH+864، الحمراء، جدة 23324، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>+966507000385</t>
+          <t>+966126671444</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -2966,12 +3018,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D9%84%D9%85+%D8%AD%D8%A7%D9%85%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e2f092499488379:0x7f3c402d93dec79f!8m2!3d24.5766293!4d46.7620201!16s%2Fg%2F11gf9fqxnq!19sChIJeYNImSQJLz4Rn8feky1APH8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1%D8%A9+%D8%B3%D9%86%D8%A7%D8%A1+%D8%AE%D9%8A%D8%B1%D8%A8%D9%83%E2%80%AD/data=!4m7!3m6!1s0x3e2efd4ff5105de3:0xc10a35118ac4525f!8m2!3d24.7865156!4d46.6820085!16s%2Fg%2F11lcgl3wpc!19sChIJ410Q9U_9Lj4RX1LEihE1CsE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>مسلم حامد</t>
+          <t>دكتورة سناء خيربك</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2981,22 +3033,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>HQG6+MR2، رقم 78، العزيزية، الرياض 14515، المملكة العربية السعودية</t>
+          <t>طريق ابي بكر الصديق، الوادي، الرياض 13313، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>+966541011173</t>
+          <t>+966543889352</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -3004,12 +3056,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A2%D9%81%D8%A7%D9%82+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3fcc1c3ed0935b15:0x96437763716b81ee!8m2!3d28.4229511!4d48.4958088!16s%2Fg%2F11dfthpv85!19sChIJFVuT0D4czD8R7oFrcWN3Q5Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%85%D8%B1+%D9%87%D9%8A%D8%AB%D9%85+%D8%B9%D9%81%D9%8A%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bdbffae6952399:0x2c49878ad0e722dc!8m2!3d24.4740406!4d39.5949297!16s%2Fg%2F11h1yg2nht!19sChIJmSOV5vq_vRUR3CLn0IqHSSw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>مجمع آفاق الطبية</t>
+          <t>عمر هيثم عفيفي</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3019,22 +3071,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>6771 شارع الامير نايف بن عبدالعزيز، 4017، حي المحمدية، الخفجي 39254، المملكة العربية السعودية</t>
+          <t>6759 يوسف الهمذانى،، 6759، السيح، 3343، المدينة المنورة 42312، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>+966137670766</t>
+          <t>+966568025043</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -3042,12 +3094,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%B2%D9%84+%D8%A7%D9%85+%D8%B3%D8%B9%D8%AF+%D8%A7%D9%84%D8%B3%D8%AD%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2545545beaae3f:0xe7e7eaac95c9a4bd!8m2!3d24.1340929!4d47.2862875!16s%2Fg%2F11hzblq9m1!19sChIJP67qW1RFJT4RvaTJlazq5-c?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%AB%D9%86%D8%A7%D8%A6%D9%8A%D8%A9+%D8%A7%D9%84%D9%83%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2ee2a43cd658cf:0x3348a1eb4cf9db1!8m2!3d24.7433333!4d46.6568424!16s%2Fg%2F11d_9g96wm!19sChIJz1jWPKTiLj4RsZ3PtB6KNAM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>منزل ام سعد السحيم</t>
+          <t>مركز ثنائية الكون</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3057,22 +3109,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2414، 8251، الخالدية، 2414، الخالدية، الخرج 16274 8251، الخرج 16274، المملكة العربية السعودية</t>
+          <t>7719 King Fahd Branch Rd, King Fahd, Riyadh 12262 2995 طريق الملك فهد الفرعي، 2995، الملك فهد، الرياض 12262، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>+966552404933</t>
+          <t>+966559909514</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -3080,12 +3132,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%85%D8%AD%D9%85%D8%AF+%D9%83%D8%B1%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f031f32e7e623:0x2ce3dec7001f80d3!8m2!3d24.6998499!4d46.7049639!16s%2Fg%2F11h3dq5_r8!19sChIJI-bnMh8DLz4R04AfAMfe4yw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B4%D8%A8%D9%83%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f034bc5910275:0x50ade2367b1ab2ec!8m2!3d24.684003!4d46.674561!16s%2Fg%2F11ggsr995h!19sChIJdQKRxUsDLz4R7LIaezbirVA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>عيادات الدكتور محمد كردي</t>
+          <t>مجمع الشبكية الطبي</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3095,35 +3147,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MPX3+WXP، السليمانية، Musad Bin Jalawi،، الرياض 12244، المملكة العربية السعودية</t>
+          <t>7408 3995 طريق الأمير سلطان بن عبدالعزيز، المعذر الشمالي، الرياض 12311، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>+966920012823</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+          <t>+966920004040</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://retina.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A8%D8%AA%D8%A7%D8%B9+%D8%A7%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49e9fb8008f8a1:0x949beaacb8d99532!8m2!3d26.2866681!4d50.2123836!16s%2Fg%2F11ffw4v2vy!19sChIJofgIgPvpST4RMpXZuKzqm5Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AC%D9%85%D8%A7%D9%84+%D8%A7%D9%84%D8%B5%D8%AD%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49e816a7423afd:0x78a0ed50fb4cd379!8m2!3d26.2842653!4d50.1996575!16s%2Fg%2F11c1lh_v0p!19sChIJ_TpCpxboST4RedNM-1DtoHg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>بتاع النظارات</t>
+          <t>صيدلية جمال الصحة</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3133,22 +3189,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>76P6+MX6، حي الخبر الشمالية، الخبر 34428، المملكة العربية السعودية</t>
+          <t>75MX+PV3، مدينة العمال، الخبر 34443، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>+966541066855</t>
+          <t>+966138898420</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -3156,12 +3212,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D9%84%D8%AC+%D8%BA%D8%A7%D8%B2%D9%8A+%D8%A7%D9%84%D8%B4%D8%A7%D9%85%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bd916b7de5ddd5:0xbcaf4e83ae3d0e84!8m2!3d24.5363223!4d39.7697263!16s%2Fg%2F11h3_xmgkv!19sChIJ1d3lfWuRvRURhA49roNOr7w?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D8%B2%D9%84%D9%8A%D8%A9+%D9%88+%D9%81%D9%86%D8%AF%D9%82%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c21b45ed3b52ad:0xd6605c6f70d6ebaa!8m2!3d21.38074!4d39.7768293!16s%2Fg%2F11h6w17brs!19sChIJrVI77UUbwhURquvWcG9cYNY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>المعالج غازي الشاماني</t>
+          <t>الرعاية المنزلية و فندقية</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3169,24 +3225,16 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>وادي البطان، المدينة المنورة 42245، المملكة العربية السعودية</t>
+          <t>9508، الملك فهد، مكة 24353، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>+966555315830</t>
+          <t>+966500767171</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -3194,12 +3242,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B7%D8%A8%D9%8A%D8%A8+%D8%B4%D8%B9%D8%A8%D9%8A+%D9%84%D9%84%D8%B9%D8%B6%D9%84%D8%A7%D8%AA+%D8%A7%D8%A8%D9%88+%D8%B3%D8%A7%D9%85%D9%8A+%D8%A7%D9%84%D8%B9%D9%85%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x16079691a7756635:0xf94d9f4d0a5c7881!8m2!3d16.7089309!4d42.954528!16s%2Fg%2F11f3151jy2!19sChIJNWZ1p5GWBxYRgXhcCk2fTfk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D8%A8%D9%88%D9%85%D8%AD%D9%85%D8%AF+%D8%A7%D9%84%D9%81%D8%A7%D9%8A%D8%B2%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D9%84%D8%AC+%D8%A7%D9%84%D8%B4%D8%B9%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1581bb805450f713:0x84b582666a5ad67f!8m2!3d25.8444147!4d44.2110078!16s%2Fg%2F11gtyc6mnx!19sChIJE_dQVIC7gRURf9ZaamaCtYQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>طبيب شعبي للعضلات ابو سامي العمدة</t>
+          <t>ابومحمد الفايزالمعالج الشعبي</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3207,16 +3255,24 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PX53+HRC، المنزم،، أحد المسارحة المملكة العربية السعودية</t>
+          <t>R6V6+QC6، الصفراء، المذنب 56526، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>+966537328298</t>
+          <t>+966559922599</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -3224,12 +3280,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B5%D9%81%D8%A7+%D9%88%D8%A7%D9%84%D9%85%D8%B1%D9%88%D8%A9+%D9%84%D9%84%D8%AD%D8%AC%D8%A7%D9%85%D8%A9+%D9%88%D8%A7%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A8%D8%AF%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15a6d7e82f4eb087:0x566844a8eec90483!8m2!3d27.6113754!4d38.5553961!16s%2Fg%2F11fkvm2fqn!19sChIJh7BOL-jXphURgwTJ7qhEaFY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/JAMAAN+ALQARNI/data=!4m7!3m6!1s0x15c233578a96111b:0x2dbd093b8d83cd14!8m2!3d21.4715531!4d39.3218537!16s%2Fg%2F11fcqjywsy!19sChIJGxGWilczwhURFM2DjTsJvS0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>مركز الصفا والمروة للحجامة والطب البديل</t>
+          <t>JAMAAN ALQARNI</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3237,24 +3293,16 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>الامير سلطان بن عبدالعزيز، تيماء 45911، المملكة العربية السعودية</t>
+          <t>F8CC+JPH ملعب الإمارات، جدة _ حي المنارات_ خلف، جدة المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>+966506484074</t>
+          <t>+966555598617</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3262,12 +3310,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AF%D8%A7%D8%B1+%D9%84%D9%84%D8%B1%D9%82%D9%8A%D9%87+%D8%A7%D9%84%D8%B4%D8%B1%D8%B9%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c232d321ff9c41:0xab045db5eec99064!8m2!3d21.4677483!4d39.3218881!16s%2Fg%2F11gg67jbkj!19sChIJQZz_IdMywhURZJDJ7rVdBKs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B9%D8%A8%D9%88%D8%B1+-+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%B9%D8%B1%D9%8A%D8%AC%D8%A7%D8%A1+%D8%A7%D9%84%D9%88%D8%B3%D8%B7%D9%89%E2%80%AD/data=!4m7!3m6!1s0x3e2f1b00377a919f:0xce2e4899ce337759!8m2!3d24.6028333!4d46.6294167!16s%2Fg%2F11xmcq2h1v!19sChIJn5F6NwAbLz4RWXczzplILs4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>الدار للرقيه الشرعيه</t>
+          <t>مركز عبور - فرع العريجاء الوسطى</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3277,35 +3325,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>F88C+VW4 قاعه ريتال، كيلو ١٤ الشمالي شرق، العين العزيزية، جدة 22373، المملكة العربية السعودية</t>
+          <t>7599 حي، العريجاء الوسطى، RIUE3460، 3460 الأمير مساعد بن عبدالرحمن بن فيصل، الرياض 12971، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>+966508070760</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>+966920003452</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://oboor.com.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%81%D9%88%D8%B2+%D9%84%D8%AA%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x1607f5af4356a24d:0xa507e8d6b6fc066e!8m2!3d16.9585593!4d42.835622!16s%2Fg%2F11g2xlk5sv!19sChIJTaJWQ6_1BxYRbgb8ttboB6U?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%81%D8%B1%D9%88%D8%A7%D9%86+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+1%E2%80%AD/data=!4m7!3m6!1s0x3e49fd760a68f607:0xae9d08a578e3c7db!8m2!3d26.4104746!4d50.0340969!16s%2Fg%2F11gf8hk6cm!19sChIJB_ZoCnb9ST4R28fjeKUIna4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>صالون فوز لتين</t>
+          <t>الفروان للبصريات 1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3315,22 +3367,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>XR5P+C6H, Unnamed Road, أبو عريش 84511، المملكة العربية السعودية</t>
+          <t>C26M+5JQ، شارع أبو بكر الصديق، أحد، الدمام 32264، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>+966506697958</t>
+          <t>+966138222077</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3338,12 +3390,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Zain+Cheef/data=!4m7!3m6!1s0x15bdbf3c97eeaeb3:0x19033b5e9caeef61!8m2!3d24.4734858!4d39.6255417!16s%2Fg%2F11h92ym125!19sChIJs67ulzy_vRURYe-unF47Axk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D8%B6%D9%8A%D8%A7%D8%A1+%D8%A7%D9%84%D8%B3%D8%A7%D8%B7%D8%B9%E2%80%AD/data=!4m7!3m6!1s0x3e37969b0f835f6f:0xd162e55529f843ee!8m2!3d25.3914465!4d49.6025473!16s%2Fg%2F11fxvcxys9!19sChIJb1-DD5uWNz4R7kP4KVXlYtE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Zain Cheef</t>
+          <t>نظارات الضياء الساطع</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3353,39 +3405,35 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4471 Hamnah Bint Jahsh, بني معاوية، 6531, المدينة المنورة 42313، المملكة العربية السعودية</t>
+          <t>9JR3+H2F، الفاضلية، الهفوف‎ 36364، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>+966577946143</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>http://www.madinah.com/</t>
-        </is>
-      </c>
+          <t>+966135829401</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D9%84%D8%AC%D9%87+%D8%A7%D9%85+%D9%85%D9%86%D9%8A%D8%B1%D9%87%E2%80%AD/data=!4m7!3m6!1s0x1583b59612850a0b:0x3d6466bd3909c3a4!8m2!3d25.8829207!4d43.4639576!16s%2Fg%2F11g4jbhn6l!19sChIJCwqFEpa1gxURpMMJOb1mZD0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Dr.+Medhat+Hagras/data=!4m7!3m6!1s0x8ca9021aa7e62407:0x310e7b472e4614b8!8m2!3d24.222142!4d45.0740834!16s%2Fg%2F11mcz6csmr!19sChIJByTmpxoCqYwRuBRGLkd7DjE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>المعالجه ام منيره</t>
+          <t>Dr. Medhat Hagras</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3400,34 +3448,30 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>VFM7+5H8، الرس 58877، المملكة العربية السعودية</t>
-        </is>
-      </c>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>+966500316190</t>
+          <t>+966553064364</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/ammunirah/</t>
+          <t>https://www.medhat-hagras.com/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D9%85%D9%86%D8%B7%D9%82%D8%A9+%D8%A7%D9%84%D8%AE%D9%81%D9%8A%D9%81%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1580b67595e1b47f:0x9183caf359ae9e62!8m2!3d24.9114203!4d44.7181702!16s%2Fg%2F11csb55smp!19sChIJf7ThlXW2gBURYp6uWfPKg5E?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B7%D8%A8+%D8%A7%D9%84%D8%B9%D9%8A%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fec3dd41d01fdd:0xff8c9c66df2da1a5!8m2!3d17.568544!4d44.2265797!16s%2Fg%2F11fnsjmwbj!19sChIJ3R_QQd3D_hURpaEt32acjP8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>مستوصف منطقة الخفيفية</t>
+          <t>مركز طب العيون</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3437,22 +3481,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>WP69+H77، الخفيفة 17857، المملكة العربية السعودية</t>
+          <t>H69G+CJ8، الفهد،، نجران 66252، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>+966116462468</t>
+          <t>+966550935638</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -3460,12 +3504,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1%D8%A9+%D9%87%D9%86%D8%A7%D8%A1+%D8%A5%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15bdbf9468bf0217:0x6bc2f2ac03a2167f!8m2!3d24.4467!4d39.6225642!16s%2Fg%2F11h41nnd20!19sChIJFwK_aJS_vRURfxaiA6zywms?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%81%D9%88%D8%B2+%D9%84%D8%AA%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x1607f5af4356a24d:0xa507e8d6b6fc066e!8m2!3d16.9585593!4d42.835622!16s%2Fg%2F11g2xlk5sv!19sChIJTaJWQ6_1BxYRbgb8ttboB6U?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>عيادة الدكتورة هناء إبراهيم لطب الأسنان</t>
+          <t>صالون فوز لتين</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3475,22 +3519,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Unnamed Road, الجمعة، 42316، المملكة العربية السعودية</t>
+          <t>XR5P+C6H, Unnamed Road, أبو عريش 84511، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>+966567508541</t>
+          <t>+966506697958</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -3498,12 +3542,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/mazin+optical/data=!4m7!3m6!1s0x1572bb0066eb2153:0x255586cfc2ffcea0!8m2!3d29.9724765!4d40.2023788!16s%2Fg%2F11h3bh8ccq!19sChIJUyHrZgC7chURoM7_ws-GVSU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%81%D8%AC%D8%B1+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+-+%D8%A7%D9%84%D8%A7%D9%85%D9%8A%D8%B1+%D9%85%D8%B3%D8%A7%D8%B9%D8%AF+%D8%A8%D9%86+%D8%B9%D8%A8%D8%AF+%D8%A7%D9%84%D8%B1%D8%AD%D9%85%D9%86+-+%D8%A7%D9%84%D8%B9%D8%B1%D9%8A%D8%AC%D8%A7%D8%A1+%D8%A7%D9%84%D8%A7%D9%88%D8%B3%D8%B7%E2%80%AD/data=!4m7!3m6!1s0x3e2f1a46ace2f3ef:0xc9a065da7cefc873!8m2!3d24.5950625!4d46.6169375!16s%2Fg%2F11f54j4g50!19sChIJ7_PirEYaLz4Rc8jvfNploMk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>mazin optical</t>
+          <t>الفجر للبصريات - الامير مساعد بن عبد الرحمن - العريجاء الاوسط</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3513,22 +3557,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>8940-8820 طريق الملك عبدالعزيز، 3353، سكاكا 72341، المملكة العربية السعودية</t>
+          <t>العريجاء الغربية، الرياض 12975، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>+966506991434</t>
+          <t>+966114360603</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3536,12 +3580,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Alam+riyadha/data=!4m7!3m6!1s0x1581ef10a5154dc1:0x88614056e468e8bc!8m2!3d26.0915912!4d43.992163!16s%2Fg%2F11fncr4xpc!19sChIJwU0VpRDvgRURvOho5FZAYYg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1%D8%A9+%D8%B3%D9%85%D8%A7%D8%AD+%D8%A8%D9%86+%D8%A7%D8%B3%D9%85%D8%A7%D8%B9%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e49e9025fda9fbb:0xb8ed3e7a234154d3!8m2!3d26.3151003!4d50.2225833!16s%2Fg%2F11wx77zhy7!19sChIJu5_aXwLpST4R01RBI3o-7bg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Alam riyadha</t>
+          <t>عيادة الدكتورة سماح بن اسماعيل</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3551,22 +3595,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>3XRR+JVM، شيخة، عنيزة 56461، المملكة العربية السعودية</t>
+          <t>building khozama first floor, Street amir turki, اليرموك، الخبر 31952، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>+966509432099</t>
+          <t>+966591578828</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3574,12 +3618,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D9%85%D9%86%D9%8A%D8%B1%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e4a01d0d9306ba7:0x7b9ad288efb89ca5!8m2!3d26.5798279!4d50.0242294!16s%2Fg%2F11gw2qcl_s!19sChIJp2sw2dABSj4RpZy474jSmns?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e37968d32c6bc7f:0x9bfbc31ab2c629ab!8m2!3d25.3908788!4d49.5891792!16s%2Fg%2F12m9g6yy7!19sChIJf7zGMo2WNz4RqynGshrD-5s?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>مستوصف المنيره</t>
+          <t>عيادة شركة الكهرباء</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3589,35 +3633,39 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>شارع ٩، الواحة، تاروت 32626، المملكة العربية السعودية</t>
+          <t>9HRQ+9M3، الفاضلية، الهفوف‎ 36361، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>+966138231483</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>+966133334050</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://ramclinics.net/</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%28%D9%85%D8%AC%D9%85%D8%B9+%D9%84%D9%8A%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%29+-+%D8%AD%D9%89+%D9%82%D8%B1%D8%B7%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2efe9cf9ad8ae7:0x5a902bc942f917dc!8m2!3d24.8213333!4d46.7507423!16s%2Fg%2F11c1r6wvdz!19sChIJ54qt-Zz-Lj4R3Bf5QskrkFo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%AA%D8%A8%D9%88%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15a9ada11cdcb891:0x760df54e124e8601!8m2!3d28.401357!4d36.5632322!16s%2Fg%2F11c1nzdkbb!19sChIJkbjcHKGtqRURAYZOEk71DXY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>(مجمع لين الطبي) - حى قرطبة</t>
+          <t>مستوصف تبوك</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3627,39 +3675,35 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.451</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>حي، ابن الحسين ابن علي، قرطبة، شارع الحسن، الرياض 12455، المملكة العربية السعودية</t>
+          <t>7066 جده، 4540، المهرجان، تبوك 47913، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>+966920019100</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>http://www.leenclinic.com/</t>
-        </is>
-      </c>
+          <t>+966593345491</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%B4%D9%87%D8%A7%D8%AF+%D8%A8%D8%A7%D8%AC%D8%A7%D8%A8%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15a327a307baa803:0x11b580dec1d02fd2!8m2!3d25.674228!4d39.296693!16s%2Fg%2F11c2m_r2q4!19sChIJA6i6B6MnoxUR0i_Qwd6AtRE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B7%D8%A7%D9%84%D8%A8+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%AC%D8%A7%D9%85%D8%B9%D8%A9+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x15c3cdd103bfc997:0xb78ebaf53e6c9895!8m2!3d21.489278!4d39.244929!16s%2Fg%2F11dxck6xlx!19sChIJl8m_A9HNwxURlZhsPvW6jrc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>مجمع عيادات الدكتور شهاد باجابر الطبي</t>
+          <t>مركز الطالب الطبي جامعة الملك عبدالعزيز</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3669,39 +3713,35 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>الخالدية، 15 - صيدلية علاج طيبة، طريق الملك عبدالله،، خيبر 43489، المملكة العربية السعودية</t>
+          <t>F6QV+PX7، جامعة الملك عبدالعزيز، جدة 22254، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>+966148822226</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/shehad_clinic?igsh=MTFteXc1emZucHNi</t>
-        </is>
-      </c>
+          <t>+966126952000</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D8%AF%D9%88%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+Adore+clinic%E2%80%AD/data=!4m7!3m6!1s0x3e2efde5d8c2442b:0x9c7199b753c22cdc!8m2!3d24.7578579!4d46.6741329!16s%2Fg%2F11yd_x0m94!19sChIJK0TC2OX9Lj4R3CzCU7eZcZw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%AE%D9%88%D9%8A%D9%84%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e35ffa3ea4fb9e3:0x46b0131ee77c2308!8m2!3d26.5496!4d49.99426!16s%2Fg%2F1hd_tchyw!19sChIJ47lP6qP_NT4RCCN85x4TsEY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>عيادات ادور الطبية Adore clinic</t>
+          <t>مركز صحي الخويلدية</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3711,39 +3751,39 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>309</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>حى، طريق الملك عبدالعزيز، المروج، الرياض 12282، المملكة العربية السعودية</t>
+          <t>Unnamed Road, الزمرد، القطيف‎ 32653، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>+966112033777</t>
+          <t>+966138542163</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/adore_clinic?igsh=MTd4anpjbmowbHRmeA==</t>
+          <t>http://www.moh.gov.sa/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%A8%D9%87%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e37bf2fbbcc070b:0x76ff1c01347e3ea5!8m2!3d25.5151805!4d49.6182386!16s%2Fg%2F11t0kvx835!19sChIJCwfMuy-_Nz4RpT5-NAEc_3Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Al-Sulaimaniah+Health+Care/data=!4m7!3m6!1s0x3e2f39623ff0cde3:0x1fd01c13263630be!8m2!3d24.4212!4d46.4141!16s%2Fg%2F11jk37wr_2!19sChIJ483wP2I5Lz4RvjA2JhMc0B8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>مجمع البهاء الطبي</t>
+          <t>Al-Sulaimaniah Health Care</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3751,41 +3791,29 @@
           <t>عيادة طبية</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>GJ89+787، الاحساء - حي الصفا شارع الصفاء العام بالقرب من جبل الشعبة العام ( كانزان) 36332، المملكة العربية السعودية</t>
+          <t>6982 Jaafar bin Abi Talib، Sulaymaniyah، الرياض 19636، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>+966535022050</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>https://gloryclinics.sa/</t>
-        </is>
-      </c>
+          <t>+966114657650</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B3%D9%8A%D9%85%D8%A7%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2efce4b0852873:0x8d3dad4a33fbc101!8m2!3d24.7967229!4d46.6989971!16s%2Fg%2F11bxflm_rg!19sChIJcyiFsOT8Lj4RAcH7M0qtPY0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B1%D9%8A%D9%88%D9%84%D8%A7+%D9%83%D9%84%D9%8A%D9%86%D9%83+Riola+Clinic%E2%80%AD/data=!4m7!3m6!1s0x3e2efd88ffe419d1:0xe70f4f19db9cae47!8m2!3d24.7848326!4d46.7054078!16s%2Fg%2F11s5hln2r4!19sChIJ0Rnk_4j9Lj4RR66c2xlPD-c?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>مركز سيماي الطبي</t>
+          <t>ريولا كلينك Riola Clinic</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3795,39 +3823,35 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>619</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>طريق عثمان بن عفان الفرعي، الفلاح، الرياض 13314، المملكة العربية السعودية</t>
+          <t>الازدهار، الرياض 12487، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>+966112005333</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>https://wa.me/966550292664</t>
-        </is>
-      </c>
+          <t>+966507401411</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B3%D9%85%D8%A7%D9%8A%D8%A7+Samaya+Clinics%E2%80%AD/data=!4m7!3m6!1s0x15e355a1c23f9a8f:0x712beed7cf8f3995!8m2!3d18.2317042!4d42.5102674!16s%2Fg%2F11fmfz4_k9!19sChIJj5o_wqFV4xURlTmPz9fuK3E?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Diaverum+Dammam+Clnic/data=!4m7!3m6!1s0x3e49fd19a5a06e67:0xf03ca542c6638b42!8m2!3d26.4007333!4d50.0514743!16s%2Fg%2F11gzq4nqd!19sChIJZ26gpRn9ST4RQotjxkKlPPA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>عيادات سمايا Samaya Clinics</t>
+          <t>Diaverum Dammam Clnic</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3837,39 +3861,39 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالعزيز، شمسان، أبها 62521، المملكة العربية السعودية</t>
+          <t>2881 King Fahd Ibn Abdul Aziz Rd, 8021، الفيصلية، الدمام 32272، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>+966920034064</t>
+          <t>+966555421481</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://samayaclinics11.com/</t>
+          <t>http://www.diaverum.com/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A3%D9%88%D8%B2%D9%88%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+-+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D9%81%D9%8A%D8%B5%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49e3167fcda9c7:0xa0aa6afaf5983b8f!8m2!3d26.3663062!4d50.0483501!16s%2Fg%2F11t1jzs9xk!19sChIJx6nNfxbjST4RjzuY9fpqqqA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B1%D9%88%D9%8A%D8%A7%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f031e3cdcc763:0x74496cd25d0394a8!8m2!3d24.7498187!4d46.7442945!16s%2Fg%2F11rss3_6jj!19sChIJY8fcPB4DLz4RqJQDXdJsSXQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>عيادات أوزون الطبية - فرع الفيصلية</t>
+          <t>عيادات رويال الطبية</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3879,39 +3903,35 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>618</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>x, شارع عمرو بن زهير, حي المنار, الدمام 32275، المملكة العربية السعودية</t>
+          <t>حي، الطريق الدائري الشرقي، القدس، الرياض 13214، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>+966556250999</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>https://ozoneclinic-sa.com/</t>
-        </is>
-      </c>
+          <t>+966535409389</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D8%A7%D8%AC%D9%8A+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f096a95a3a9f7:0x231f6d56c5d9f4a9!8m2!3d24.566772!4d46.7681108!16s%2Fg%2F11cs2qhnm6!19sChIJ96mjlWoJLz4RqfTZxVZtHyM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A3%D9%86%D9%88%D8%A7%D8%B1+%D8%A7%D9%84%D8%B9%D9%86%D8%AF%D9%84%D9%8A%D8%A8+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f08e8cecda481:0x3351687b885f1f1b!8m2!3d24.5992495!4d46.7717205!16s%2Fg%2F11cn068dtq!19sChIJgaTNzugILz4RGx9fiHtoUTM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>مجمع عاجي لطب الاسنان</t>
+          <t>مجمع عيادات أنوار العندليب الطبية</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3921,35 +3941,39 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>حي، 6589 طريق عرفات، العزيزية، الرياض 14514، المملكة العربية السعودية</t>
+          <t>7341 طريق العزيزية الفرعي، العزيزية، الرياض 14511، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>+966509793189</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+          <t>+966112130036</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>http://alfalahh.com/</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D9%81%D9%86+%D8%A7%D9%84%D8%AB%D8%A7%D9%85%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+Art+No.+8+Vet+Clinic%E2%80%AD/data=!4m7!3m6!1s0x3e49c31f10844b3f:0x39e99d913f0cdb2c!8m2!3d26.2165538!4d50.1926657!16s%2Fg%2F11tjsf0q88!19sChIJP0uEEB_DST4RLNsMP5Gd6Tk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B1%D9%88%D9%8A%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2f036ad49eda3d:0xa319b409fcd8b5d4!8m2!3d24.7576148!4d46.7177125!16s%2Fg%2F11k6t9y9fq!19sChIJPdqe1GoDLz4R1LXY_Am0GaM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>عيادة الفن الثامن البيطرية Art No. 8 Vet Clinic</t>
+          <t>عيادات رويال الطبية</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3959,35 +3983,39 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>662</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>طريق الملك خالد، الخزامى، الخبر 34718، المملكة العربية السعودية</t>
+          <t>7492 طريق عثمان بن عفان، النزهة، الرياض 12472، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>+966581622405</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+          <t>+966557555844</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://almeswak.com/</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%A7%D9%84%D9%85%D8%A7%D8%B3+%D9%83%D9%84%D9%8A%D9%86%D9%83+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3fd73f8932b47b2d:0xc7830c0447466e2!8m2!3d28.3998237!4d45.9590324!16s%2Fg%2F11vj19fd5q!19sChIJLXu0Mok_1z8R4mZ0RMAweAw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%85%D9%8A%D8%AF%D8%A7%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5%E2%80%AD/data=!4m7!3m6!1s0x15e9890d9244e975:0xf5b499d870551916!8m2!3d21.2911829!4d40.4329048!16s%2Fg%2F11h_lg1y61!19sChIJdelEkg2J6RURFhlVcNiZtPU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>مجمع الالماس كلينك الطبي</t>
+          <t>مجمع الميدان الطبي المتخصص</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3997,39 +4025,39 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>طريق الامير سلطان بن عبدالعزيز، الفيصلية، حفر الباطن 39951، المملكة العربية السعودية</t>
+          <t>شارع جبل أبهر، حي الجفيجف، الطائف 26523، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>+966539560078</t>
+          <t>+966127342774</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://rekaz.io/alalmas/products</t>
+          <t>https://goo.gl/maps/7gowVxjxVECjWNE8A</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AE%D8%A7%D9%84%D8%AF+%D8%A8%D9%83%D8%B1+%D8%A7%D9%84%D8%A8%D9%83%D8%B1%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3d1a396ea0223:0xbc161dbc3c5762e1!8m2!3d21.5648814!4d39.2176592!16s%2Fg%2F11c5435lv7!19sChIJIwLqlqPRwxUR4WJXPLwdFrw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A7%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D8%A7%D9%84%D8%A8%D8%A7%D8%AD%D8%A9+3%E2%80%AD/data=!4m7!3m6!1s0x15ef48799ab87a05:0x6ffea1296dfb4ea9!8m2!3d20.0876811!4d41.436918!16s%2Fg%2F11c6004m6y!19sChIJBXq4mnlI7xURqU77bSmh_m8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>مجمع خالد بكر البكري الطبي</t>
+          <t>مركز الرعاية الصحية الاولية بالباحة 3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4039,22 +4067,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>شارع النادي الأهلي، حي الرحاب، 3101 الامير محمد بن عبدالعزيز- الواجهة الشمالية لمقر, جدة المملكة العربية السعودية</t>
+          <t>4806، الازهر، الباحة 65733، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>+966126754555</t>
+          <t>+966177241080</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -4062,12 +4090,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%87%D8%B4%D8%A7%D9%85+%D8%AC%D9%86%D9%8A%D8%AF%D9%8A+%D8%B9%D9%8A%D8%A7%D8%AF%D9%87+%D8%A7%D9%84%D8%A7%D9%86%D9%81+%D9%88+%D8%A7%D9%84%D8%A7%D8%B0%D9%86+%D9%88+%D8%A7%D9%84%D8%AD%D9%86%D8%AC%D8%B1%D8%A9+-+%D8%AC%D8%B1%D8%A7%D8%AD%D8%A7%D8%AA+%D8%A7%D9%84%D8%B4%D8%AE%D9%8A%D8%B1+-+%D8%AC%D8%B1%D8%A7%D8%AD%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D9%86%D8%A7%D8%B8%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e49e5e95f64fe75:0xa92aa45368d554f6!8m2!3d26.3889647!4d50.1046663!16s%2Fg%2F11m5f6psmn!19sChIJdf5kX-nlST4R9lTVaFOkKqk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D8%A6%D9%84%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2ee2c9aacbbe13:0x5485f6c4e1ded4b9!8m2!3d24.7615299!4d46.6632728!16s%2Fg%2F11cspx03xj!19sChIJE77LqsniLj4RudTe4cT2hVQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>دكتور هشام جنيدي عياده الانف و الاذن و الحنجرة - جراحات الشخير - جراحات المناظير</t>
+          <t>مجمع ابتسامة العائلة الطبي</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4077,39 +4105,39 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>626</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>شارع عثمان بن عفان، النزهة، الدمام 32251، المملكة العربية السعودية</t>
+          <t>تمير، شارع تمير، المروج،،، المروج، الرياض 12284،، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>+966560533284</t>
+          <t>+966114569729</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://linktr.ee/drhishament</t>
+          <t>https://familysmileclinicsa.com/booking/index.html#!/goog</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/We+Care+Hospital+-+OPD+Clinics/data=!4m7!3m6!1s0x3e49fd87715632b5:0x5f31c1733fae60e3!8m2!3d26.4244902!4d50.087786!16s%2Fg%2F11kpp097qq!19sChIJtTJWcYf9ST4R42CuP3PBMV8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AD%D8%AC%D8%A7%D9%85%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2efd22ac54d96b:0xb41c034dc333b18f!8m2!3d24.7781747!4d46.689404!16s%2Fg%2F11dxn03qkg!19sChIJa9lUrCL9Lj4Rj7Ezw00DHLQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>We Care Hospital - OPD Clinics</t>
+          <t>عيادات الحجامة</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4119,22 +4147,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>C3FQ+Q4V، شارع عثمان بن عفان، البادية، الدمام 32243، المملكة العربية السعودية</t>
+          <t>2305 Northern Ring Branch Rd At Taawun Riyadh 12477 7875 الطريق الدائري الشمالي الفرعي، 7875، التعاون، الرياض 12477، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>+966560318178</t>
+          <t>+966555928950</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -4142,12 +4170,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Al-Kowarah+General+Hospital%E2%80%8B/data=!4m7!3m6!1s0x15e68fd55cd84039:0x273ec91aa4e4d852!8m2!3d19.1337305!4d41.0808139!16s%2Fg%2F11jlzgdbqg!19sChIJOUDYXNWP5hURUtjkpBrJPic?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%87%D8%B4%D8%A7%D9%85+%D8%AC%D9%86%D9%8A%D8%AF%D9%8A+%D8%B9%D9%8A%D8%A7%D8%AF%D9%87+%D8%A7%D9%84%D8%A7%D9%86%D9%81+%D9%88+%D8%A7%D9%84%D8%A7%D8%B0%D9%86+%D9%88+%D8%A7%D9%84%D8%AD%D9%86%D8%AC%D8%B1%D8%A9+-+%D8%AC%D8%B1%D8%A7%D8%AD%D8%A7%D8%AA+%D8%A7%D9%84%D8%B4%D8%AE%D9%8A%D8%B1+-+%D8%AC%D8%B1%D8%A7%D8%AD%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D9%86%D8%A7%D8%B8%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e49e5e95f64fe75:0xa92aa45368d554f6!8m2!3d26.3889647!4d50.1046663!16s%2Fg%2F11m5f6psmn!19sChIJdf5kX-nlST4R9lTVaFOkKqk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Al-Khasrah General Hospital</t>
+          <t>دكتور هشام جنيدي عياده الانف و الاذن و الحنجرة - جراحات الشخير - جراحات المناظير</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4155,29 +4183,41 @@
           <t>عيادة طبية</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>43MJ+F8W، طريق الملك فيصل بن عبدالعزيز، الملك عبدالعزيز، القنفذة 28821، المملكة العربية السعودية</t>
+          <t>شارع عثمان بن عفان، النزهة، الدمام 32251، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>+966116561698</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
+          <t>+966560533284</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://linktr.ee/drhishament</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B1%D9%8A%D9%86%D9%8A%D9%88+%7C+Renew+Clinics%E2%80%AD/data=!4m7!3m6!1s0x15c3dbdd7c36b3f3:0x68ac86bbb3fb7fe4!8m2!3d21.6120796!4d39.119742!16s%2Fg%2F11r27979yv!19sChIJ87M2fN3bwxUR5H_7s7uGrGg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%85%D9%8A%D8%B1%D8%A7%D8%AF+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2faa11f36c1f71:0x5b527554eb3f900d!8m2!3d24.7396552!4d46.8360927!16s%2Fg%2F1ptxpqps6!19sChIJcR9s8xGqLz4RDZA_61R1Uls?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>عيادات رينيو | Renew Clinics</t>
+          <t>مجمع ميراد الطبي</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4187,39 +4227,35 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>8399 طريق الملك عبدالعزيز الفرعي، النهضة، جدة 23523، المملكة العربية السعودية</t>
+          <t>النسيم الشرقي، الرياض 14243، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>+966920005132</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>http://renew-clinics.com/</t>
-        </is>
-      </c>
+          <t>+966112328426</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AF%D8%A7%D9%81%D9%8A%D8%AA%D8%A7+%E2%80%93+%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%B4%D8%B1%D9%82+%D8%AC%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3cdf1dca8890d:0x1bea33173570e89f!8m2!3d21.510611!4d39.251523!16s%2Fg%2F11c1rgpyr5!19sChIJDYmo3PHNwxURn-hwNRcz6hs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D9%88%D8%B9%D8%AF+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f02c1cbdd3291:0x6e8ab465adb8fda!8m2!3d24.7275777!4d46.6888794!16s%2Fg%2F11c3v303hr!19sChIJkTLdy8ECLz4R2o_bWkar6AY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>دافيتا – مستشفى شرق جدة</t>
+          <t>مجمع عيادات الموعد الطبي</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4229,35 +4265,39 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>513</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالله،،، السليمانية، جدة 22253، المملكة العربية السعودية</t>
+          <t>الشيخ عبدالله العنقري، الورود، الرياض 12254، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>+966126075559</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
+          <t>+966112053221</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/almawedmedical/</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%84%D8%A4%D9%84%D8%A4%D8%A9+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c205ef6f317369:0x3ce4d97b604ebaf8!8m2!3d21.3899053!4d39.8461237!16s%2Fg%2F11g3_7nwcb!19sChIJaXMxb-8FwhUR-LpOYHvZ5Dw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/My+Doctor+-+%D8%B7%D8%A8%D9%8A%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x9c8a34cdee811bb:0xee696cc7f1739d2f!8m2!3d21.8004968!4d39.1433665!16s%2Fg%2F11vxyd3hg5!19sChIJuxHo3kyjyAkRL51z8cdsae4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>مركز اللؤلؤة لطب الاسنان</t>
+          <t>My Doctor - طبيبي</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4272,30 +4312,34 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>4150 كدي،, 6671، كدي، 6671, مكة 24234، المملكة العربية السعودية</t>
+          <t>حي, 3495 شارع ثابت بن معاذ الأنصاري، طيبة، جدة 23831، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>+966596581794</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
+          <t>+966561333303</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://mydoctor.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B5%D9%81%D8%A7+%D8%A3%D8%A8%D9%87%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e3546531f10a59:0x50a1252c5f717655!8m2!3d18.220581!4d42.5037502!16s%2Fg%2F11bzt0r01t!19sChIJWQrxMWVU4xURVXZxXywloVA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%B1%D8%A7%D8%B2%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1ce44dcf87eb:0x597707d9f44b4528!8m2!3d24.6893665!4d46.6448029!16s%2Fg%2F1jgm0y7xv!19sChIJ64fPTeQcLz4RKEVL9NkHd1k?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>مجمع صفا أبها الطبي</t>
+          <t>مستوصف الرازي</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4305,22 +4349,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3753 8317 الفاروق، 3753، النصب، أبها 62521، المملكة العربية السعودية</t>
+          <t>الامير نواف بن عبدالعزيز، أم الحمام الغربي، الرياض 12327، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>+966172296363</t>
+          <t>+966114824370</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -4328,12 +4372,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%87%D8%AC%D8%B1%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3ccf2b49e95e9:0xe0444ad290f58264!8m2!3d21.4501926!4d39.2885379!16s%2Fg%2F1ptyxg5h2!19sChIJ6ZWetPLMwxURZIL1kNJKROA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%A7%D9%84%D9%8A%D9%81+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x1576479718f0ecaf:0xedbf763d96f92eca!8m2!3d27.5113928!4d41.6903542!16s%2Fg%2F11lh58lzw5!19sChIJr-zwGJdHdhURyi75lj12v-0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>مجمع مركز الهجرة الطبي</t>
+          <t>عيادة هاى فيت البيطرية (صيدلية الاليف سابقا)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4343,39 +4387,35 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>334</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>kilo 11 Old Makkah Road Al Muntazahat District، جدة 21481، المملكة العربية السعودية</t>
+          <t>معاذ بن جبل -رضي الله عنه-، المحطة، حائل 55421، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>+966503370606</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>http://www.myhmc.org/</t>
-        </is>
-      </c>
+          <t>+966561904914</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%A8%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D8%B3%D8%B9%D9%88%D8%AF+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%B4%D9%85%D9%8A%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f051835f6e9f1:0x3d9bf0df438edb53!8m2!3d24.6277431!4d46.6919642!16s%2Fg%2F11cs16rzjm!19sChIJ8en2NRgFLz4RU9uOQ9_wmz0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Dr.mohammed+alrafee+Dental+clinic/data=!4m7!3m6!1s0x3e2ee352c96a132b:0x69a6e7adfa99c9c7!8m2!3d24.8107494!4d46.670171!16s%2Fg%2F11c2pv4wc5!19sChIJKxNqyVLjLj4Rx8mZ-q3npmk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>مركز طب الأسنان بمجمع الملك سعود الطبي مستشفى الشميسي</t>
+          <t>Dr.mohammed alrafee Dental clinic</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4385,22 +4425,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>7636 شارع الإمام عبدالعزيز بن محمد بن سعود الفرعي، عليشة، الرياض 12746، المملكة العربية السعودية</t>
+          <t>RM6C+73V، النرجس، الرياض 13322، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>+966114351466</t>
+          <t>+966112223555</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -4408,12 +4448,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/CosmaDent+Specialty+Center+%D9%85%D8%AC%D9%85%D8%B9+%D9%83%D9%88%D8%B2%D9%85%D8%A7+%D8%AF%D9%86%D8%AA+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5%E2%80%AD/data=!4m7!3m6!1s0x15bd95c90f3f7857:0x993ef73d11a2e66!8m2!3d24.4691709!4d39.6637138!16s%2Fg%2F11s8k8dz7n!19sChIJV3g_D8mVvRURZi4a0XPvkwk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%A5%D8%A8%D8%AF%D8%A7%D8%B9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5%E2%80%AD/data=!4m7!3m6!1s0x3e49fd1d3c834b97:0x853456c11631d0ef!8m2!3d26.408721!4d50.05804!16s%2Fg%2F1ptz9kygx!19sChIJl0uDPB39ST4R79AxFsFWNIU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CosmaDent Specialty Center مجمع كوزما دنت الطبي المتخصص</t>
+          <t>مجمع الإبداع الطبي المتخصص</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4423,39 +4463,39 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1.093</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>FM97+MGM, 7975 King Abdullah Rd, 7975, الفرعي2235, المدينة المنورة 42363، المملكة العربية السعودية</t>
+          <t>حي، شارع عمر بن الخطاب، أحد، الدمام 32263، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>+966568016665</t>
+          <t>+966920012148</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://cosmadent-clinic.com/</t>
+          <t>http://cmsc.com.sa/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2ee3db34799721:0xd00a51d89aec7007!8m2!3d24.7998508!4d46.6271228!16s%2Fg%2F11fhn67xhy!19sChIJIZd5NNvjLj4RB3DsmthRCtA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D9%85%D8%AC%D9%85%D8%B9+%D8%A5%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D9%8A%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5%E2%80%8E%E2%80%AD/data=!4m7!3m6!1s0x15e98eb4f9b8a691:0x7b071f3204f7bb9f!8m2!3d21.2691299!4d40.4077266!16s%2Fg%2F11cmj22yb5!19sChIJkaa4-bSO6RURn7v3BDIfB3s?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>عياده</t>
+          <t>المنير الطبي المتخصص</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4465,22 +4505,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>7513 الحميدات، الملقا الرياض 4249 13521 الرياض مخرج 4 حى المملكة العربية السعودية</t>
+          <t>5714 إبراهيم الخليل، 5714, 9602, الطائف 26511، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>+966555035981</t>
+          <t>+966556622723</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4488,12 +4528,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1%D8%A9+%D8%A5%D9%8A%D9%85%D8%A7%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5%E2%80%AD/data=!4m7!3m6!1s0x15e98ecadab4f8bb:0x8bbc130f433ced87!8m2!3d21.2694163!4d40.4129457!16s%2Fg%2F11c2kjj2tr!19sChIJu_i02sqO6RURh-08Qw8TvIs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86,%D8%A7%D9%84%D9%86%D8%AE%D9%8A%D9%84%28%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85%D9%8A%29%E2%80%AD/data=!4m7!3m6!1s0x3e2ee324d5864a5f:0x12e9ae898d9435b7!8m2!3d24.743794!4d46.6530008!16s%2Fg%2F11q45nxp5q!19sChIJX0qG1STjLj4RtzWUjYmu6RI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>مجمع الدكتورة إيمان الطبي المتخصص</t>
+          <t>المهيدب لطب الأسنان,النخيل(العالمي)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4503,39 +4543,39 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>417</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>8979 حفر الباطن، حي الشرقية، الطائف 26513، المملكة العربية السعودية</t>
+          <t>طريق الإمام سعود بن عبدالعزيز بن محمد، النخيل، الرياض 12381، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>+966127363120</t>
+          <t>+966568302957</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://wa.me/message/VTMHMIVIYOF3F1</t>
+          <t>https://www.almuhaidibdental.com/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A2%D8%B3%D9%80%D9%80%D9%80%D9%80%D9%80%D9%80%D8%B1+%D9%84%D8%B7%D8%A8+%D9%88%D8%AA%D9%82%D9%88%D9%8A%D9%85+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2ee4726eb0abb5:0x8f997f9b77589a0b!8m2!3d24.8694924!4d46.6207947!16s%2Fg%2F12q4twk52!19sChIJtauwbnLkLj4RC5pYd5t_mY8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Mayo+Dental+Clinic/data=!4m7!3m6!1s0x3e35a0841072fbb1:0x76f60a383eec30ae!8m2!3d27.0195542!4d49.6434879!16s%2Fg%2F11crzf48c5!19sChIJsftyEISgNT4RrjDsPjgK9nY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>عيادات آســــــر لطب وتقويم الأسنان</t>
+          <t>Mayo Dental Clinic</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4545,35 +4585,39 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3064 Prince Khalid Bin Bandar Bin Abdulaziz Rd, العارض، الرياض 13338، المملكة العربية السعودية</t>
+          <t>3107 الملك فيصل الشمالي، الجبيل البلد، الجبيل 35514، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>+966595431835</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr"/>
+          <t>+966133611399</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>http://mayodentalcenter.com/</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D8%A9+%D8%A7%D9%84%D9%86%D8%AC%D9%88%D9%85+%7C+%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D9%88%D8%AC%D9%84%D8%AF%D9%8A%D8%A9+-+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%A7%D9%85%D9%8A%D8%B1+%D8%B3%D9%84%D8%B7%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3da13e7dbdc23:0x8f796005e4e9f57c!8m2!3d21.6149036!4d39.1400076!16s%2Fg%2F11bz7y8p10!19sChIJI9zb5xPawxURfPXp5AVgeY8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%B5%D8%A8%D9%8A%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fd51bb28f62fe7:0x4c03d83dbe59e95f!8m2!3d17.1537235!4d42.6450917!16s%2Fg%2F11mpchycm_!19sChIJ5y_2KLtR_RURX-lZvj3YA0w?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>عيادات ابتسامة النجوم | أسنان وجلدية - فرع الامير سلطان</t>
+          <t>صفوة المهيدب لطب الأسنان صبيا</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4583,39 +4627,39 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4.293</t>
+          <t>579</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>النعيم، طريق الامير سلطان 8363 , البناية كاملة حي، جدة المملكة العربية السعودية</t>
+          <t>٦٥٢١ طريق الملك عبد العزيز - حي المجد وحدة رقم ١٢، صبيا 85534، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>+966122251888</t>
+          <t>+966503222984</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://starssmile.com/</t>
+          <t>https://forms.gle/59fq32kBjgNzhRfq7</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D9%8A%D8%B1%D9%85%D9%88%D9%83+VIP%E2%80%AD/data=!4m7!3m6!1s0x3e2effbe8b1ea2f3:0xfd5f118e34794601!8m2!3d24.8082788!4d46.8009108!16s%2Fg%2F11snwgvzzc!19sChIJ86Iei77_Lj4RAUZ5NI4RX_0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B1%D9%8A%D8%AD%D8%A7%D9%86%D8%A9+.+Rihana+Clinic%E2%80%AD/data=!4m7!3m6!1s0x3e2f1d792c3b59b1:0xd165602399078041!8m2!3d24.7008701!4d46.667607!16s%2Fg%2F11y5y_ks34!19sChIJsVk7LHkdLz4RQYAHmSNgZdE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>صفوة المهيدب لطب الأسنان اليرموك VIP</t>
+          <t>عيادات ريحانة . Rihana Clinic</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4625,39 +4669,39 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>311</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>حي، اليرموك، شارع النجاح بجوار محل مئة ورده، الرياض 13251، المملكة العربية السعودية</t>
+          <t>شارع التخصصي، العليا، الرياض 12333، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>+966539666479</t>
+          <t>+966547628070</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://forms.gle/LjUTE8v1vhNpdJR99</t>
+          <t>https://rihanaclinic.com/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AF%D9%84%D8%AA%D8%A7+%D8%AF%D9%86%D8%AA+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+-+Delta+Dent%E2%80%AD/data=!4m7!3m6!1s0x1607fd6d304d2393:0xad232456e5de99c5!8m2!3d16.9151515!4d42.5579357!16s%2Fg%2F11t6099wm4!19sChIJkyNNMG39BxYRxZne5VYkI60?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+,+%D8%A7%D9%84%D8%B3%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2fa96597e4f79b:0xd27139a5a6715f4c!8m2!3d24.6877981!4d46.8478757!16s%2Fg%2F11h_73xp34!19sChIJm_fkl2WpLz4RTF9xpqU5cdI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>دلتا دنت لطب الأسنان - Delta Dent</t>
+          <t>المهيدب لطب الأسنان , السلي</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4672,34 +4716,34 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>497</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>WH85+352، شارع الأمير سطام بن عبد العزيز، الشاطئ، جازان 82727، المملكة العربية السعودية</t>
+          <t>5140 طريق ابو عبيدة عامر بن الجراح، السعادة، الرياض 14258، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>+966558884240</t>
+          <t>+966555870999</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://deltadent.co/</t>
+          <t>https://almuhaidibdental.com/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D8%AF+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15943c729b4347bd:0xbba7a957e2a3a8e2!8m2!3d23.5010625!4d40.8875625!16s%2Fg%2F11bxfydq_l!19sChIJvUdDm3I8lBUR4qij4lepp7s?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A+%D9%84%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3d751429162d1:0x289af2074ce29b0e!8m2!3d21.6304943!4d39.1608099!16s%2Fg%2F11f3jmw5xd!19sChIJ0WKRQlHXwxURDpviTAfymig?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>مجمع ابتسامة المهد الطبي</t>
+          <t>المستشفى التخصصي للاسنان</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4709,22 +4753,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>محافظة مهد الذهب 44446، المملكة العربية السعودية</t>
+          <t>J5J6+58V، النزهة، جدة 23532، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>+966547161173</t>
+          <t>+966126074181</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -4732,12 +4776,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+-+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%A8%D8%AF%D9%8A%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f113a8ff65707:0xd7734dbe6f033ed5!8m2!3d24.5695022!4d46.6186788!16s%2Fg%2F11h0zc_vj6!19sChIJB1f2jzoRLz4R1T4Db75Nc9c?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AE%D8%B2%D8%A7%D9%86+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f04e4a0fd4101:0xcca19f399e7e61ec!8m2!3d24.6433169!4d46.6987171!16s%2Fg%2F11cn5phd_b!19sChIJAUH9oOQELz4R7GF-njmfocw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>المهيدب لطب الأسنان - فرع البديعة</t>
+          <t>مجمع عيادات الخزان الحديث لطب الأسنان</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4747,39 +4791,35 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>الطريق الدائري الغربي، السويدي الغربي، الرياض 12993، المملكة العربية السعودية</t>
+          <t>4359 شارع عمرو بن العاص، الوشام، الرياض 12741، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>+966555228988</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>https://docs.google.com/forms/d/e/1FAIpQLSeY24WtbDkYbyQq-pZJMU-m44Mihl0BkWOGlMLaOwFDEoJ1jw/viewform</t>
-        </is>
-      </c>
+          <t>+966114040446</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%8A%D8%A7%D8%B1+%D8%A7%D9%84%D8%B3%D8%A7%D8%A8%D8%B9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%28%D8%AC%D9%84%D8%AF%D9%8A%D9%87+%D9%88%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%D9%88%D9%84%D9%8A%D8%B2%D8%B1-+%D8%A7%D8%B3%D9%86%D8%A7%D9%86+-+%D8%B9%D9%84%D8%A7%D8%AC+%D8%B7%D8%A8%D9%8A%D8%B9%D9%8A+-+%D8%AA%D8%BA%D8%B0%D9%8A%D8%A9+%D8%B9%D9%84%D8%A7%D8%AC%D9%8A%D8%A9%29%E2%80%AD/data=!4m7!3m6!1s0x1607fd5face0268f:0x7df385fa1b87d793!8m2!3d16.9294863!4d42.5533607!16s%2Fg%2F11hcz0n_73!19sChIJjybgrF_9BxYRk9eHG_qF830?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%85%D8%AD%D9%85%D8%AF+%D9%86%D9%85%D8%B1+%D8%A7%D9%84+%D9%86%D9%85%D8%B1+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e4a0100797ba8f1:0x169fb50570f247ea!8m2!3d26.5625557!4d50.0447228!16s%2Fg%2F11wj6fqfq4!19sChIJ8ah7eQABSj4R6kfycAW1nxY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>مجمع ايار السابع الطبي (جلديه وتجميل وليزر- اسنان - علاج طبيعي - تغذية علاجية)</t>
+          <t>عيادة الدكتور محمد نمر ال نمر لطب الأسنان</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4789,39 +4829,39 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>شارع الأمير محمد بن عبد العزيز، الشاطئ، جازان 82811، المملكة العربية السعودية</t>
+          <t>بن عبد المطلب, شارع حمزة, القطيف‎ المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>+966173255552</t>
+          <t>+966554497573</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://heylink.me/ayar7.a/</t>
+          <t>https://www.instagram.com/dr.mohammed505?igsh=Z2RsYmVpcG1yNXZu&amp;utm_source=qr</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B9%D8%A7%D8%AC%D9%8A+%D9%84%D8%B7%D8%A8+%D9%88%D8%AA%D9%82%D9%88%D9%8A%D9%85+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f1e6e1ba18f25:0x310ffef65fe4156d!8m2!3d24.6869361!4d46.5834153!16s%2Fg%2F11c1t53992!19sChIJJY-hG24eLz4RbRXkX_b-DzE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%87%D8%AA%D8%A7%D9%86+%D8%A8%D8%B5%D8%B1%D9%8A+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e3649fe6a2798e3:0xb73ce660e83594f2!8m2!3d25.9259887!4d49.6572387!16s%2Fg%2F11g_x68lvk!19sChIJ45gnav5JNj4R8pQ16GDmPLc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>مجمع عيادات عاجي لطب وتقويم الأسنان</t>
+          <t>عيادات الدكتور هتان بصري لطب الأسنان</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4831,35 +4871,39 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2083 7994 شارع إمارة عرقة، عرقة، الرياض 12534، المملكة العربية السعودية</t>
+          <t>شارع الامير نايف، المطار، بقيق 33261، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>+966509793571</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr"/>
+          <t>+966135663222</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://instagram.com/drhattanbasri</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%A8%D9%84%D8%A7%D9%84+%D9%85%D8%AD%D9%85%D9%88%D8%AF+%D9%84%D8%B7%D8%A8+%D9%88%D8%AC%D8%B1%D8%A7%D8%AD%D8%A9+%D9%88+%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2effe82dee739b:0xd516edd89a97b20b!8m2!3d24.8046168!4d46.7522581!16s%2Fg%2F11mqw5x4kd!19sChIJm3PuLej_Lj4RC7KXmtjtFtU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Dr+Praveen+BS+%28Consultant+Orthodontist,+Senior+registrar%29+Riyadh+%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%A8%D8%B1%D8%A7%D9%81%D9%8A%D9%86+%28%D8%A7%D8%AE%D8%B5%D8%A7%D8%A6%D9%8A+%D8%A7%D9%88%D9%84+%D8%AA%D9%82%D9%88%D9%8A%D9%85+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%29+%D8%A8%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x3e2fabc5b371643d:0xd32fbbe107496ba4!8m2!3d24.7544622!4d46.8319998!16s%2Fg%2F11q7_62gyk!19sChIJPWRxs8WrLz4RpGtJB-G7L9M?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>عيادة الدكتور بلال محمود لطب وجراحة و تجميل الأسنان</t>
+          <t>Dr Praveen BS (Consultant Orthodontist, Senior registrar) Riyadh دكتور برافين (اخصائي اول تقويم الاسنان) بالرياض</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4869,22 +4913,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>طريق الدمام الفرعي، غرناطة، الرياض 13242، المملكة العربية السعودية</t>
+          <t>8021 Abu Al Aswad Al Dulay street, الرياض 11741، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>+966507265541</t>
+          <t>+966537285584</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -4892,12 +4936,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85+%D8%AD%D9%8A+%D8%A7%D8%AD%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e49fd19b565b23b:0x6f3854ff1d00a27f!8m2!3d26.41662!4d50.051418!16s%2Fg%2F11fkdfbr0p!19sChIJO7JltRn9ST4Rf6IAHf9UOG8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%AC%D8%B1%D9%8A%D9%86+%D8%AF%D9%86%D8%AA+%D9%84%D8%B7%D8%A8+%D9%88%D8%B2%D8%B1%D8%A7%D8%B9%D8%A9+%D9%88%D8%AA%D9%82%D9%88%D9%8A%D9%85+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3d18e9141e78d:0x45440dc3afacaacd!8m2!3d21.5520078!4d39.1548848!16s%2Fg%2F11r90kg0ws!19sChIJjedBkY7RwxURzaqsr8MNREU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>صفوة المهيدب لطب الاسنان الدمام حي احد</t>
+          <t>عيادات جرين دنت لطب وزراعة وتقويم الأسنان</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4907,39 +4951,39 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>676</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>شارع عمر بن الخطاب، أحد، 8108 شارع عمر بن الخطاب، أحد، الدمام 32263، حي، الدمام المملكة العربية السعودية</t>
+          <t>الدور الثاني فوق قلوريا كافية, حائل، آخر, جدة 23432، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>+966502493222</t>
+          <t>+966544407607</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://forms.gle/59fq32kBjgNzhRfq7</t>
+          <t>http://www.greendent.com.sa/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AF%D8%A7%D9%81+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2eff7d68e9feef:0x351d9b190085c3b9!8m2!3d24.8037575!4d46.7950184!16s%2Fg%2F11rk8zzp_0!19sChIJ7_7paH3_Lj4RucOFABmbHTU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A8%D9%84%D9%82%D9%8A%D8%B3+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1a184f582dff:0xa3682f93f540d51a!8m2!3d24.582761!4d46.6015295!16s%2Fg%2F11bzrfgzl7!19sChIJ_y1YTxgaLz4RGtVA9ZMvaKM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>داف لطب الأسنان</t>
+          <t>مجمع عيادات بلقيس الطبي</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4949,39 +4993,39 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>طريق الإمام عبدالله بن سعود بن عبدالعزيز، اليرموك، RFYC3922، 3922 طريق الامام عبدالله بن سعود بن عبدالعزيز الفرعى، الرياض 13251، المملكة العربية السعودية</t>
+          <t>6665 الطريق الدائري الغربي الفرعي، العريجاء الغربية, 6589، الرياض 12978، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>+966533949000</t>
+          <t>+966590870820</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://dafdental.sa/</t>
+          <t>http://www.facebook.com/BalqeesDentalClinics</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%85%D9%85%D9%84%D9%83%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3fcc1e9d0af959cb:0x377725dc6f3e0559!8m2!3d28.4192361!4d48.4773706!16s%2Fg%2F11cmdsbxv5!19sChIJy1n5Cp0ezD8RWQU-b9wldzc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D8%AC%D8%AF%D8%A9+%D8%A7%D9%84%D8%B3%D8%A7%D9%85%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c3d13a9a7de13f:0xa0d479f04dfc40fc!8m2!3d21.5927105!4d39.2373107!16s%2Fg%2F11rsg4_905!19sChIJP-F9mjrRwxUR_ED8TfB51KA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>مجمع عيادات مملكة الطب</t>
+          <t>صفوة المهيدب لطب الاسنان جدة السامر</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4991,35 +5035,39 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>522</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>CF9G+MW، حي الحمراء، الخفجي 39254، المملكة العربية السعودية</t>
+          <t>شارع الأجواد, حي السامر، جدة 23462، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>+966137674545</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
+          <t>+966536003812</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://forms.gle/59fq32kBjgNzhRfq7</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%86%D9%88%D9%81%D8%A7+%D9%88%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85%D9%8A+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f101bad319315:0x402ea57e9152243d!8m2!3d24.5746175!4d46.6632479!16s%2Fg%2F11c1s1q9c0!19sChIJFZMxrRsQLz4RPSRSkX6lLkA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D8%A8%D8%AF+%D8%A7%D9%84%D9%83%D8%B1%D9%8A%D9%85+%D8%B4%D9%83%D8%B1%D9%8A+%D9%84%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fb5754c8555549:0x52ee1e7ae1c657dd!8m2!3d18.3024135!4d42.7033352!16s%2Fg%2F11bw2fk7rc!19sChIJSVVVyFRX-xUR3VfG4Xoe7lI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>نوفا والعالمي لطب الأسنان</t>
+          <t>عبد الكريم شكري للأسنان</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5034,34 +5082,34 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>564</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>طريق الرياض، السويدي، عائشة بنت ابي بكر، الرياض المملكة العربية السعودية</t>
+          <t>6129 طريق الملك فهد، 3778 طريق صلاح الدين ، عتود الضيافة خميس مشيط 62456، خميس مشيط 62431، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>+966580120954</t>
+          <t>+966920013053</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://forms.gle/sy3LrG7Av6Loapug9</t>
+          <t>https://sites.google.com/view/dr-abdelkarem/%D8%A7%D9%84%D8%B5%D9%81%D8%AD%D8%A9-%D8%A7%D9%84%D8%B1%D8%A6%D9%8A%D8%B3%D9%8A%D8%A9</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86,%D8%A7%D9%84%D8%B3%D8%AA%D9%8A%D9%86%28%D8%A7%D9%84%D8%A3%D8%AD%D8%B3%D8%A7%D8%A1%29%E2%80%AD/data=!4m7!3m6!1s0x3e3791a6673afbe9:0x732cc2231efb0672!8m2!3d25.3631176!4d49.6043682!16s%2Fg%2F11nmqmfjb5!19sChIJ6fs6Z6aRNz4Rcgb7HiPCLHM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/DentoPlast+Center+Group+Complex/data=!4m7!3m6!1s0x3e2f1ed07a79649b:0x68bf5ff44c2921f8!8m2!3d24.6369594!4d46.5625963!16s%2Fg%2F11f3jv1jc9!19sChIJm2R5etAeLz4R-CEpTPRfv2g?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>المهيدب لطب الأسنان,الستين(الأحساء)</t>
+          <t>DentoPlast Center Group Complex</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5071,39 +5119,35 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>9J64+F6G، عين موسى، الهفوف‎ 36364، المملكة العربية السعودية</t>
+          <t>JHP7+Q2Q، ظهرة لبن، Unnamed Road، الرياض 13784، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>+966536726661</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>https://www.almuhaidibdental.com/</t>
-        </is>
-      </c>
+          <t>+966137234848</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Cosmetic+Touch+-+%D8%A7%D9%84%D9%84%D9%85%D8%B3%D8%A9+%D8%A7%D9%84%D8%AA%D8%AC%D9%85%D9%8A%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3db1a3f3765a5:0xdd5dc05d97cb31e6!8m2!3d21.6132064!4d39.1531438!16s%2Fg%2F11vl43mtzj!19sChIJpWU3PxrbwxUR5jHLl13AXd0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A8%D8%AA%D9%8A%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+5%E2%80%AD/data=!4m7!3m6!1s0x15b0a71ed0e27df3:0xc180b4712f208699!8m2!3d25.0387122!4d37.2592521!16s%2Fg%2F11hbt0b_by!19sChIJ833i0B6nsBURmYYgL3G0gME?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>اللمسة التجميلية</t>
+          <t>مجمع بتيل الطبية 5</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5113,39 +5157,35 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Cross M. Road, Heraa, السلامة، جدة 23525، المملكة العربية السعودية</t>
+          <t>الامير فهد بن سلطان، ابو شجرة،، ابو شجرة، املج 48311، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>+966555806856</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>https://cosmetictouch.net/</t>
-        </is>
-      </c>
+          <t>+966545288317</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86,+%D8%A7%D9%84%D8%B4%D9%81%D8%A7+%28+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85%D9%8A%29%E2%80%AD/data=!4m7!3m6!1s0x3e2f0faf861c2b85:0x5b6a40e25cfe6c9f!8m2!3d24.5682851!4d46.7013586!16s%2Fg%2F11px56bwpx!19sChIJhSschq8PLz4Rn2z-XOJAals?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D9%81%D8%B1%D8%B9+%D9%85%D8%AD%D8%A7%D9%81%D8%B8%D8%A9+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%AF%D9%85%D9%8A+%D8%A7%D9%84%D8%B1%D8%A6%D9%8A%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1586fdd45015d871:0x87432f2792f2b428!8m2!3d24.5079267!4d44.3966917!16s%2Fg%2F11nfvtr1m5!19sChIJcdgVUNT9hhURKLTykicvQ4c?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>المهيدب لطب الأسنان, الشفا ( العالمي)</t>
+          <t>المهيدب لطب الأسنان (الدوادمي)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5155,22 +5195,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>327</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>HP92+7J، الترمذي، الشفا، الرياض 14713، المملكة العربية السعودية</t>
+          <t>طريق الملك عبد العزيز، الدوادمي 17441، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>+966555041173</t>
+          <t>+966554433216</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5182,12 +5222,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%D8%A8%D8%B5%D8%A7%D8%A6%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2ee5174e271e3b:0x9ba45782a842eec5!8m2!3d24.8588082!4d46.6468513!16s%2Fg%2F11f4_l5k0l!19sChIJOx4nThflLj4Rxe5CqIJXpJs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AE%D8%A7%D8%B5+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15fed943c63c4d95:0x48490147075875a!8m2!3d17.5693785!4d44.3368146!16s%2Fg%2F11cn9jfy_s!19sChIJlU08xkPZ_hURWod1cBSQhAQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>بصريات بصائر</t>
+          <t>الخاص للبصريات</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5197,22 +5237,22 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2209 طريق ابي بكر الصديق، النرجس، الرياض 13333، المملكة العربية السعودية</t>
+          <t>H89P+QP4، الملك سلمان بن عبدالعزيز، منطقة, نجران المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>+966539460803</t>
+          <t>+966175292442</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -5220,12 +5260,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Alaohz+Optics/data=!4m7!3m6!1s0x3e2f0e4514570d39:0x119dc79fbb5e2b1a!8m2!3d24.5512423!4d46.6980092!16s%2Fg%2F11c55rjdf4!19sChIJOQ1XFEUOLz4RGiteu5_HnRE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%BA%D8%B1%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49fd930353695b:0xf6b42bf7d07042eb!8m2!3d26.3917405!4d50.0377152!16s%2Fg%2F11rn422rzt!19sChIJW2lTA5P9ST4R60Jw0PcrtPY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Alaohz Optics</t>
+          <t>المغربي</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5235,39 +5275,39 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>7348 طريق ابن تيمية، الشفا، الرياض 14713، المملكة العربية السعودية</t>
+          <t>النخيل مول, المنار، الدمام 32274، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>+966112840940</t>
+          <t>+966532305098</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>http://www.facebook.com/Alaohz.Optics</t>
+          <t>https://www.magrabi.com/sa-ar/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Nooran+Opticals/data=!4m7!3m6!1s0x3e2f05ae73f212c7:0xcdba9b1ef10b4402!8m2!3d24.6400423!4d46.7173929!16s%2Fg%2F11dzdtvyt0!19sChIJxxLyc64FLz4RAkQL8R6bus0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%82%D9%85%D8%A9+%D8%A7%D9%84%D8%A5%D8%A8%D8%B5%D8%A7%D8%B1+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2effb0227564d7:0x87c15b0cb46e737e!8m2!3d24.8038305!4d46.7951361!16s%2Fg%2F11h152ykf8!19sChIJ12R1IrD_Lj4RfnNutAxbwYc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nooran Opticals</t>
+          <t>قمة الإبصار للبصريات فرع اليرموك</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5277,22 +5317,22 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>7880 البطحاء الفرعي، الفوطة، الرياض 12632، المملكة العربية السعودية</t>
+          <t>اليرموك، الرياض 13251، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>+966542802737</t>
+          <t>+966551142487</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -5300,12 +5340,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D9%88%D9%86+%D8%A7%D9%84%D9%85%D9%87%D8%A7+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c3d0afb8bed705:0xa1ac25712d0b40bb!8m2!3d21.6157587!4d39.1635041!16s%2Fg%2F11ghlwjsrv!19sChIJBde-uK_QwxURu0ALLXElrKE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D8%A7%D9%83%D8%B2+%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+2010%E2%80%AD/data=!4m7!3m6!1s0x3e2ee375397abead:0x7c5ee193e6438a16!8m2!3d24.7873984!4d46.6334253!16s%2Fg%2F11fzwwyhds!19sChIJrb56OXXjLj4RFopD5pPhXnw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>عيون المها للنظارات</t>
+          <t>مراكز بصريات 2010</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5315,22 +5355,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>بجوار الهدف للرياضة، شارع حراء، النزهة، جدة 23532، المملكة العربية السعودية</t>
+          <t>طريق الملك فهد، العقيق، الرياض 13515، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>+966559111446</t>
+          <t>+966566093444</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -5338,12 +5378,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A8%D9%87%D8%AC%D8%A9+%D8%A7%D9%84%D8%B9%D9%8A%D9%88%D9%86+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D8%A8%D8%AF%D9%8A%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f1a8c9f155539:0xe5c6a7b42f09c1f1!8m2!3d24.5960463!4d46.636998!16s%2Fg%2F11dxflz3jl!19sChIJOVUVn4waLz4R8cEJL7SnxuU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B1%D9%88%D8%A7%D8%A6%D8%B9+%D8%A7%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c3d1d2d4252cef:0xea03f9101d91d82a!8m2!3d21.5430262!4d39.196456!16s%2Fg%2F11g6zwnbsb!19sChIJ7ywl1NLRwxURKtiRHRD5A-o?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>بهجة العيون للبصريات البديعة</t>
+          <t>روائع البصريات</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5353,22 +5393,22 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>3271 طريق المدينة المنورة، ظهرة البديعة، الرياض 12981، المملكة العربية السعودية</t>
+          <t>7491 المكرونة، حي مشرفة، جدة 23336 4389 المكرونة، 4389، حي مشرفة، جدة 23336، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>+966565966551</t>
+          <t>+966126730163</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -5376,7 +5416,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f01461d5ac31d:0x139f85d8676c5f0b!8m2!3d24.7669029!4d46.7582855!16s%2Fg%2F11g1ysgz34!19sChIJHcNaHUYBLz4RC19sZ9iFnxM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15bdbeecb36246a9:0x1ca1ba20978fd149!8m2!3d24.4965!4d39.595779!16s%2Fg%2F11fz9z3mmg!19sChIJqUZis-y-vRURSdGPlyC6oRw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5391,22 +5431,22 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>117</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Dis، QQ85+J4 Al Quds, Riyadh Saudi Arabia Okbah Ben Nafea Road, King Abdullah Road Al QODES، الرياض المملكة العربية السعودية</t>
+          <t>Al Noor Mall, Shop 84, Ground Floor, King Abdullah Branch Rd Al Oyoun District, El Garef، Al Munwarah المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>+966112782661</t>
+          <t>+966148494301</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5418,12 +5458,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e98eb85d2a2a79:0xcde271dd8e01fde8!8m2!3d21.2591139!4d40.4094777!16s%2Fg%2F11cmg5blpd!19sChIJeSoqXbiO6RUR6P0Bjt1x4s0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D9%86%D8%B8%D8%B1%D8%A9+%D8%B1%D9%87%D9%8A%D9%81+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f02d07f11c9d7:0xc99f6afaf2c4b510!8m2!3d24.715305!4d46.6801115!16s%2Fg%2F11b5y_l6c6!19sChIJ18kRf9ACLz4RELXE8vpqn8k?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>مغربي للبصريات</t>
+          <t>محل نظرة رهيف للنظارات</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5433,39 +5473,35 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>شهار، District، Shehar Street، الطائف المملكة العربية السعودية</t>
+          <t>طريق العروبة، العليا، الرياض 12244، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>+966127422232</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>https://www.magrabi.com/sa-ar/</t>
-        </is>
-      </c>
+          <t>+966114648597</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%81%D8%A7%D9%8A%D9%81+%D8%B3%D9%8A%D8%B2%D9%88%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2efd26abe43fa9:0xb335af5c054c0711!8m2!3d24.7811659!4d46.6849831!16s%2Fg%2F11c6dx2c6l!19sChIJqT_kqyb9Lj4REQdMBVyvNbM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%81%D8%B1%D9%88%D8%A7%D9%86+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49fd760af39a23:0xced6bed12de63359!8m2!3d26.4027387!4d50.0386882!16s%2Fg%2F11b8_qvl3j!19sChIJI5rzCnb9ST4RWTPmLdG-1s4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>فايف سيزون للنظارات</t>
+          <t>الفروان للبصريات</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5475,39 +5511,35 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>طريق ابي بكر الصديق، الوادي، الرياض 13313، المملكة العربية السعودية</t>
+          <t>C23Q+3FW، شارع أبو بكر الصديق، أحد، الدمام 32264، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>+966550099110</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>https://fiveseasonoptical.com/</t>
-        </is>
-      </c>
+          <t>+966138177576</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%D8%B1%D9%88%D8%B9%D8%A9+%D8%A7%D9%84%D8%B9%D9%8A%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e225311797dc417:0x943ea4eb04fc36a8!8m2!3d22.294024!4d46.7232567!16s%2Fg%2F11crvxdm51!19sChIJF8R9eRFTIj4RqDb8BOukPpQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f1d08d10dc7a1:0x45b739a8158a7f97!8m2!3d24.6901377!4d46.633659!16s%2Fg%2F11vkddqpwr!19sChIJoccN0QgdLz4Rl3-KFag5t0U?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>بصريات روعة العيون</t>
+          <t>مغربي للبصريات</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5517,35 +5549,39 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>King Abdullah، الصالحية، ليلى 16731، المملكة العربية السعودية</t>
+          <t>LAYSEN VALLEY, طريق الملك خالد، أم الحمام الغربي، الرياض 12329، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>+966116825590</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr"/>
+          <t>+966558561689</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>https://www.magrabi.com/sa-en/</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Fonon+Talia+optics/data=!4m7!3m6!1s0x15c3d16827bb3247:0x570999d7cf8aafbb!8m2!3d21.5786341!4d39.2113895!16s%2Fg%2F11gydnlmf6!19sChIJRzK7J2jRwxURu6-Kz9eZCVc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B2%D9%8A%D8%A7%D8%B1+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%B5%D9%81%D8%B1%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x157f5940cae0348f:0xe6d2184b71b2ba5f!8m2!3d26.3692067!4d43.9594046!16s%2Fg%2F11h42690mg!19sChIJjzTgykBZfxURX7qycUsY0uY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>فنون تاليا للنظارات</t>
+          <t>زيار للنظارات فرع الصفراء</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5555,35 +5591,39 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>H6H6+FH4، عبدالعزيز بن ابراهيم، الصفا، جدة 23454، المملكة العربية السعودية</t>
+          <t>8329، حي الصفراء،، بريدة 52382، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>+966126282020</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr"/>
+          <t>+966555164651</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>http://www.ziar.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D8%AF%D8%B3%D8%A9+%D9%88%D9%86%D8%B8%D8%A7%D8%B1%D8%A9+%7C+Lens+%26+Glasses%E2%80%AD/data=!4m7!3m6!1s0x15c3cf3a111fcfd9:0xcdf9e9bbc213fb1d!8m2!3d21.512553!4d39.1731312!16s%2Fg%2F11h037r7ps!19sChIJ2c8fETrPwxURHfsTwrvp-c0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c3da87ff67e103:0x9809d905fba94f58!8m2!3d21.5895276!4d39.1441586!16s%2Fg%2F11c1qbsnrs!19sChIJA-Fn_4fawxURWE-p-wXZCZg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>عدسة ونظارة | Lens &amp; Glasses</t>
+          <t>مغربي للبصريات</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5593,35 +5633,39 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>254</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>4137, 6716 Hail, AR Ruwais District, Jeddah 23213 4137, جدة 23213، المملكة العربية السعودية</t>
+          <t>H4QV+RQ، السلامة، Salama Center, 11 Prince Sultan St، جدة المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>+966543830002</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr"/>
+          <t>+966126165655</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>https://www.magrabi.com/sa-ar/</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A3%D8%A8%D8%A7%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+ABAN+OPTCALS%E2%80%AD/data=!4m7!3m6!1s0x15bdbefc2bd0e131:0x8dfa2f4ba5eb2b12!8m2!3d24.4555096!4d39.6186414!16s%2Fg%2F11f2b6kgx8!19sChIJMeHQK_y-vRUREivrpUsv-o0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%81%D8%A7%D9%8A%D9%81+%D8%B3%D9%8A%D8%B2%D9%88%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2ee5c0b6cabb39:0x72c16b065b70ab4a!8m2!3d24.811994!4d46.6274694!16s%2Fg%2F11gnsb2qjn!19sChIJObvKtsDlLj4RSqtwWwZrwXI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>أبان للنظارات ABAN OPTCALS</t>
+          <t>فايف سيزون للنظارات</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5631,39 +5675,39 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>407</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Herfy Restuarant, Opp. Said, Qurban Rd, المدينة المنورة 42416، المملكة العربية السعودية</t>
+          <t>طريق أنس ابن مالك، الصحافة، الرياض 13321، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>+966507379193</t>
+          <t>+966550088118</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>http://www.abanopticals.com/</t>
+          <t>https://fiveseasonoptical.com/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D8%AD%D8%AC%D8%A7%D8%B2+%D8%B3%D9%84%D8%B7%D8%A7%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbee4ca337099:0xb4739a12a3bd82b6!8m2!3d24.4816563!4d39.5999569!16s%2Fg%2F1yfp49pg1!19sChIJmXAzyuS-vRURtoK9oxKac7Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A8%D8%AF%D8%B1+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%7C+AlBadr+Optical%E2%80%AD/data=!4m7!3m6!1s0x15c21b6ed0eca521:0x4d6cca254e774727!8m2!3d21.435032!4d39.7903203!16s%2Fg%2F11g8nyy3r1!19sChIJIaXs0G4bwhURJ0d3TiXKbE0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>نظارات الحجاز سلطانة</t>
+          <t>البدر للبصريات</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5673,35 +5717,39 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>FHJX+MX8، طريق سلطانة، الراية، المدينة المنورة 42312، المملكة العربية السعودية</t>
+          <t>قصر الضيافة 7393 النزهة مكة 24221 2116، مكة 24221، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>+966593786786</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr"/>
+          <t>+966125302044</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>http://www.albadr-optical.com/</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AD%D8%B3%D8%A7%D9%85+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+HUSSAM+OPTICS%E2%80%AD/data=!4m7!3m6!1s0x15c3cf01db6d1235:0x307751d5bc132f10!8m2!3d21.530743!4d39.1781282!16s%2Fg%2F11h4y5hm67!19sChIJNRJt2wHPwxUREC8TvNVRdzA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%86%D8%A7%D9%8A%D8%A9+%D8%AE%D8%A7%D8%B5%D8%A9+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c3d3df030a6e29:0xb529b4aeb42ba769!8m2!3d21.5798564!4d39.2399366!16s%2Fg%2F11c0rvvyt4!19sChIJKW4KA9_TwxURaacrtK60KbU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>حسام للنظارات HUSSAM OPTICS</t>
+          <t>عناية خاصة للبصريات</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5711,39 +5759,35 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Al Nakheel Center, وزاره الداخليه، الحمراء،، الحمراء، جدة 23324،، المملكة العربية السعودية</t>
+          <t>السامر، حي السامر، 3184 7327, جدة 23464، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>+966126657287</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>http://hussamltd.com/</t>
-        </is>
-      </c>
+          <t>+966556696960</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A8%D8%A7%D8%AF%D8%BA%D9%8A%D8%B4+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+Badgaish+Eyecare%E2%80%AD/data=!4m7!3m6!1s0x3e49e82590db563d:0x47d43196438d53a0!8m2!3d26.2806487!4d50.213226!16s%2Fg%2F11c67x2g3_!19sChIJPVbbkCXoST4RoFONQ5Yx1Ec?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D9%8A%D8%B3%D8%A7%D9%86+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%D8%AD%D9%8A+%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2%D9%8A%D8%A9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x3e2f09a87dd8f7f5:0x72ba364a2041edf7!8m2!3d24.5716002!4d46.770201!16s%2Fg%2F11tk95vq1x!19sChIJ9ffYfagJLz4R9-1BIEo2unI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>بادغيش للنظارات Badgaish Eyecare</t>
+          <t>ميسان للبصريات حي العزيزية الرياض</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5753,22 +5797,22 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>شارع الملك خالد، حي الخبر الشمالية، الخبر 34429، المملكة العربية السعودية</t>
+          <t>محمد رشيد رضا، حي العزيزية، الرياض 14514، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>+966138655209</t>
+          <t>+966570205870</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -5776,12 +5820,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AD%D8%B3%D8%A7%D9%85+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+HUSSAM+OPTICS%E2%80%AD/data=!4m7!3m6!1s0x15c3d19649b69ba3:0x90d177845dd9e8a1!8m2!3d21.5588303!4d39.1708111!16s%2Fg%2F11j0byyv4t!19sChIJo5u2SZbRwxURoejZXYR30ZA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%B4%D8%A7%D9%81+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2efd86a6c8a359:0x675c00292306e096!8m2!3d24.7663087!4d46.7133012!16s%2Fg%2F11c5rppw1l!19sChIJWaPIpob9Lj4RluAGIykAXGc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>حسام للنظارات HUSSAM OPTICS</t>
+          <t>منشاف للبصريات</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5791,39 +5835,39 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>سوق جدة الدولي، النعيم، جدة 23526، المملكة العربية السعودية</t>
+          <t>8442 طريق عثمان بن عفان، النزهة، 3866، الرياض 12474، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>+966126600148</t>
+          <t>+966582674526</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>http://hussamltd.com/</t>
+          <t>http://menshafgroup.com/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AD%D8%AC%D8%A7%D8%B2+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c205bcb9eedbbb:0xd5aecbc346b0b734!8m2!3d21.3680265!4d39.8369557!16s%2Fg%2F11hynyg7bp!19sChIJu9vuubwFwhURNLewRsPLrtU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%D8%A2%D9%8A%D9%83%D9%88%D9%86%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15c3d1b435e0193b:0x51222d28e3796d!8m2!3d21.5590266!4d39.2128668!16s%2Fg%2F11f733hxky!19sChIJOxngNbTRwxURbXnjKC0iUQA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>الحجاز للهدايا</t>
+          <t>بصريات آيكونك</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5833,22 +5877,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>3537، بطحاء قريش، مكة 24361 9347،، مكة 24361، المملكة العربية السعودية</t>
+          <t>H657+J49، شارع الأربعين، العزيزية،، العزيزية، جدة 23342، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>+966125333355</t>
+          <t>+966540473935</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
@@ -5856,12 +5900,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D9%86%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581eda431dbdf71:0x62f73bed410f1dc1!8m2!3d26.0733957!4d44.0134664!16s%2Fg%2F11hzkfmtnf!19sChIJcd_bMaTtgRURwR0PQe0792I?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%84%D8%A4%D9%84%D8%A4%D8%A9+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x157f59bfe23c615b:0xfe99c80de873dc2f!8m2!3d26.364764!4d43.9552923!16s%2Fg%2F11pf87s8cs!19sChIJW2E84r9ZfxURL9xz6A3Imf4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>العناية البصرية</t>
+          <t>لؤلؤة للبصريات</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5871,39 +5915,35 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>222</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>4588, Al Wusta District، عنيزة 56466، المملكة العربية السعودية</t>
+          <t>شارع المشاغل، الصفراء، بريدة 52382، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>+966566696151</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>https://opticalcare.net/</t>
-        </is>
-      </c>
+          <t>+966568079697</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B1%D9%88%D8%B9%D8%A9+%D8%A7%D9%84%D9%85%D8%AC%D8%AF+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f01d942ed70c1:0x8f06ef2288a7df18!8m2!3d24.7742072!4d46.8187863!16s%2Fg%2F11s14l5vlv!19sChIJwXDtQtkBLz4RGN-niCLvBo8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D8%A4%D9%8A%D8%A7+%D8%A7%D9%84%D9%85%D8%AB%D8%A7%D9%84%D9%8A%D8%A9+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c20441c90e4755:0xc57b839c342d67b6!8m2!3d21.4030395!4d39.8764822!16s%2Fg%2F11hcr_mbys!19sChIJVUcOyUEEwhURtmctNJyDe8U?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>روعة المجد للبصريات</t>
+          <t>الرؤية المثالية للبصريات</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5913,39 +5953,35 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>بن عبد العزيز، الرياض حى النهضة شارع الامير بندر بن عبد العزيز الرياض حي النهضة شارع الامير بندر، الرياض 13222، المملكة العربية السعودية</t>
+          <t>بجوار فاين لوك, 3773 طریق المسجد الحرام، المرسلات، مكة 24242، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>+966566282068</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?q=%D8%B1%D9%88%D8%B9%D8%A9+%D8%A7%D9%84%D9%85%D8%AC%D8%AF+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA&amp;stick=H4sIAAAAAAAA_-NgU1I1qDBONUozMEyxNDFKTTE3SDa0MqiwSDMwS00zMrKwSDRPSTO0WMSqcmPjzY4bO2-sVLix_GbLzdYba26sVwAyWm6suLEVKNd1Y_mNVQD8FM9RUAAAAA&amp;hl=ar&amp;mat=CeEzl4hJtSlxElMBezTaAf16j2aAfUaQFTr3AnDMFc8cxALtLh_25YTklRTS8hxsKXj8mliB63_Dk1XDiMpnfh7-z6lg8kqZqSk0ZRAfM6CWIq2B2X1iCSVYhhiJIw&amp;authuser=0#mpd=~8154247927759844321/editprofile/info/addres</t>
-        </is>
-      </c>
+          <t>+966125298264</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A7%D9%86%D8%B5%D8%A7%D8%B1%D9%8A+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15b91b5db5cbc8d7:0xcb147a062e5cac90!8m2!3d24.0341391!4d38.19322!16s%2Fg%2F11fkp5ch9p!19sChIJ18jLtV0buRURkKxcLgZ6FMs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D8%AF%D8%B3%D8%A9+%D8%B1%D8%A4%D9%89+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c201656a5a66c5:0x23892e4c7bdc661a!8m2!3d21.4612114!4d39.9476646!16s%2Fg%2F11vc008y69!19sChIJxWZaamUBwhURGmbce0wuiSM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>الانصاري للبصريات</t>
+          <t>عدسة رؤى للنظارات</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5955,22 +5991,22 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>الدانة مول، العزيزية، ينبع 46435، المملكة العربية السعودية</t>
+          <t>المهندس عمر قاضي، حي السلام، مكة 24269، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>+966055803120</t>
+          <t>+966125310268</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
@@ -5978,37 +6014,37 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D9%85%D8%AC%D9%87%D8%B1+%D9%84%D9%84%D8%AA%D8%AD%D8%A7%D9%84%D9%8A%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbb4dc47f2de3:0x50221285a798d660!8m2!3d24.440186!4d39.6368706!16s%2Fg%2F11t_xls_2w!19sChIJ4y1_xE27vRURYNaYp4USIlA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B1%D8%AD%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15c3d100059ba529:0x476899037c0dcc64!8m2!3d21.549388!4d39.2264455!16s%2Fg%2F11wc9npbwz!19sChIJKaWbBQDRwxURZMwNfAOZaEc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>مختبر المجهر للتحاليل الطبية</t>
+          <t>مركز صحي الرحاب</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>الشريبات، المدينة المنورة 42318، المملكة العربية السعودية</t>
+          <t>الرحاب، حي, JCRA4525, 4525 البحرين، 7601، جدة 23344، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>+966545047145</t>
+          <t>+966515273041</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -6016,211 +6052,243 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A5%D8%A8%D8%B1%D9%8A%D8%B2+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+-+Ebreez+Medical+Laboratories%E2%80%AD/data=!4m7!3m6!1s0x15c211007c9632cb:0x1de715d65d53733d!8m2!3d21.3598581!4d39.78768!16s%2Fg%2F11wxgwznw4!19sChIJyzKWfAARwhURPXNTXdYV5x0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D8%AF%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2f0e690b9e89f5:0x70c2600a9eae4955!8m2!3d24.539566!4d46.6960506!16s%2Fg%2F11cmtbv8_4!19sChIJ9YmeC2kOLz4RVUmungpgwnA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>مختبر إبريز الطبي - Ebreez Medical Laboratories</t>
+          <t>مركز الرعاية الصحية الأولية بدر</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>مختبر</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+          <t>مركز طبي</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ولي العهد، مكة 24353، المملكة العربية السعودية</t>
+          <t>7185 2774 Al Khaleel Bin Ahmad, بدر، الرياض 14724، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>+966540368152</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr"/>
+          <t>+966118371637</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>http://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D9%85%D8%AA%D9%85%D9%8A%D8%B2+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15ea2f692a2adcb1:0x930e4e7c8971c41a!8m2!3d21.4129547!4d40.4764066!16s%2Fg%2F11v3z3bycv!19sChIJsdwqKmkv6hURGsRxiXxODpM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%86%D9%88%D8%B1+%D8%B3%D9%8A%D9%86%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+Nur+Sinai+Polyclinic%E2%80%AD/data=!4m7!3m6!1s0x15e98ecd8044baf3:0xe2194815a0363859!8m2!3d21.2649157!4d40.4212637!16s%2Fg%2F11c1pttght!19sChIJ87pEgM2O6RURWTg2oBVIGeI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>مختبر المتميز البيطري</t>
+          <t>مجمع نور سيناء الطبي Nur Sinai Polyclinic</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>497</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>حي العارمية 2، الطائف 26569، المملكة العربية السعودية</t>
+          <t>8484 مصر، الشهداء الجنوبية، الطائف 26513، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>+966507628656</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr"/>
+          <t>+966127455140</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>https://wsend.co/966553601964</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D9%85%D8%AD%D9%88%D8%B1+%D9%86%D8%AC%D8%B1%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fedb00548e14a5:0x64b21a6ac546cf80!8m2!3d17.5651454!4d44.3195712!16s%2Fg%2F11y3bxf02v!19sChIJpRSOVADb_hURgM9GxWoasmQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%AE%D9%84%D9%88%D8%AF+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c21cb463e8fbc3:0xfcb74554c2b55b2a!8m2!3d21.4568223!4d39.8140632!16s%2Fg%2F12hnkwwph!19sChIJw_voY7QcwhURKlu1wlRFt_w?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>مختبر المحور نجران</t>
+          <t>مستوصف الخلود الطبي</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>مختبر</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+          <t>مركز طبي</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>4.854</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>H889+3R4، نجران 66243، المملكة العربية السعودية</t>
+          <t>شارع الحج، العتيبية، مكة 24237، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>+966535080461</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr"/>
+          <t>+966125459407</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>https://alkholood.com/</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/The+stability+laboratory/data=!4m7!3m6!1s0x3e2f090038e94f11:0x5cc6109a87406d22!8m2!3d24.5564047!4d46.7748271!16s%2Fg%2F11ydc_vf0j!19sChIJEU_pOAAJLz4RIm1Ah5oQxlw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%A7%D8%A6%D8%AF+%D9%84%D9%84%D8%AD%D8%AC%D8%A7%D9%85%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c2016bd6c9491f:0x1b8a840b4d461a16!8m2!3d21.4722855!4d39.9184549!16s%2Fg%2F11hkkgm_z_!19sChIJH0nJ1msBwhURFhpGTQuEihs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>The stability laboratory</t>
+          <t>مركز الرائد للحجامة</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>مختبر</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+          <t>مركز طبي</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1.795</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>حي الدار البيضاء, RMDA3705، 3705 روض الجوار، 7517, الرياض 14519، المملكة العربية السعودية</t>
+          <t>الخضراء، الشرائع، مكة المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>+966555060389</t>
+          <t>+966570002525</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>http://www.thestability.com/</t>
+          <t>https://alraidcupping.com/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Geo+Dynamics+Arabia/data=!4m7!3m6!1s0x15ac31f881a087eb:0x45072c98d93853a5!8m2!3d27.3875746!4d35.6551314!16s%2Fg%2F11t8m2xxhx!19sChIJ64eggfgxrBURpVM42ZgsB0U?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%B7%D9%8A%D8%A8%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e49e2c357f60371:0xdb91803af184f03e!8m2!3d26.3622633!4d50.0488517!16s%2Fg%2F11cr_106hp!19sChIJcQP2V8PiST4RPvCE8TqAkds?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Geo Dynamics Arabia</t>
+          <t>مركز صحي طيبه</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>320</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ضبا‎ 49514، المملكة العربية السعودية</t>
+          <t>طيبة، الدمام 32275، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>+966595833955</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>http://www.gda.com.sa/</t>
-        </is>
-      </c>
+          <t>+966138407071</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A3%D9%8A%D8%A8%D9%84%D8%B3+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D9%87+%D9%84%D9%84%D8%A7%D8%AE%D8%AA%D8%A8%D8%A7%D8%B1%D8%A7%D8%AA+-+%D8%B3%D9%81%D9%83%D9%88%28+%D9%81%D8%AD%D8%B5+%D8%A7%D9%84%D8%AA%D8%B1%D8%A8%D8%A9+%D9%88%D8%A7%D9%84%D8%AE%D8%B1%D8%B3%D8%A7%D9%86%D8%A9+%29%E2%80%AD/data=!4m7!3m6!1s0x15ef45418fce30f9:0x4c5efe69e44e20be!8m2!3d20.0158186!4d41.4645759!16s%2Fg%2F11x2j1k32x!19sChIJ-TDOj0FF7xURviBO5Gn-Xkw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D9%82%D9%88%D9%89+%D8%A7%D9%84%D8%A3%D9%85%D9%86+%D8%A8%D8%A7%D9%84%D9%86%D8%B3%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15e988ba39b7ddb7:0xde5b9b3d7a95915c!8m2!3d21.2685506!4d40.4578788!16s%2Fg%2F11c1nb6wxl!19sChIJt923ObqI6RURXJGVej2bW94?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>شركة أيبلس العربيه للاختبارات - سفكو( فحص التربة والخرسانة )</t>
+          <t>مركز صحي قوى الأمن بالنسيم</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>حى، طريق الأميرسلطان بن عبدالعزيز، الحاوية، شارع عبد الله، الباحة 65733، المملكة العربية السعودية</t>
+          <t>النسيم، الطائف 26524، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>+966592665127</t>
+          <t>+966127458092</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -6228,285 +6296,277 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D9%88%D9%85%D9%83%D8%AA%D8%A8+%D8%AF%D8%A7%D8%A6%D8%B1%D8%A9+%D8%A7%D9%84%D8%A3%D8%B1%D9%83%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f013b9930bd53:0x1b687b87b6bb2f26!8m2!3d24.7278916!4d46.7653672!16s%2Fg%2F11y50h48_q!19sChIJU70wmTsBLz4RJi-7tod7aBs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%AA%D9%86%D8%A7%D8%B3%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f031c2b598f45:0xf0ddb82e9b19e56a!8m2!3d24.7109835!4d46.6950505!16s%2Fg%2F11bzt5jqqf!19sChIJRY9ZKxwDLz4RauUZmy643fA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>مختبر ومكتب دائرة الأركان</t>
+          <t>مركز الجلدية والتناسلية التخصصي</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>حفصة بنت عمر، الروضة، الرياض 13211، المملكة العربية السعودية</t>
+          <t>3999 شارع الامير ممدوح بن عبدالعزيز، السليمانية، الرياض 12242، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>+966505886318</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/CIRCLEOFCORNERS_RIYADH/</t>
-        </is>
-      </c>
+          <t>+966920008062</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D8%AC%D8%A7%D9%85%D8%B9%D8%A9+%D8%A7%D9%84%D9%85%D8%B1%D9%83%D8%B2%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2545e4de6616bf:0x5c2b879c12091722!8m2!3d24.1498298!4d47.2694834!16s%2Fg%2F11hz49sw2m!19sChIJvxZm3uRFJT4RIhcJEpyHK1w?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D8%B5%D8%A8%D9%8A%D8%A7+%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fd51ba3c30fec5:0x310b1bddd891353c!8m2!3d17.1625427!4d42.6573025!16s%2Fg%2F11c2plwkl4!19sChIJxf4wPLpR_RURPDWR2N0bCzE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>مختبر الجامعة المركزي</t>
+          <t>مركز الرعاية الصحية الأولية بصبيا الجديدة</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>الخرج السعودية- جامعة الامير سطام بن عبد العزيز - كلية العلوم والدراسات الانسانية (مبني رقم 7، الخرج المملكة العربية السعودية</t>
+          <t>3367 طريق الملك فهد، النزهة، صبيا 85534، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>+966115888079</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>https://csh.psau.edu.sa/ar/page/2021-03-01-2</t>
-        </is>
-      </c>
+          <t>+966173270037</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%84%D8%AA%D8%B1%D8%A8%D8%A9+%D9%88%D8%A7%D9%84%D8%A3%D8%B3%D8%A7%D8%B3%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D8%AD%D8%AF%D9%88%D8%AF%D8%A9+%28%D8%A7%D9%8A%D8%A8%D9%84%D8%B3+%D8%B3%D9%81%D9%83%D9%88+%29+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%AE%D8%A8%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e49e740e50dd7fb:0x9e6fb23abddde48a!8m2!3d26.3299856!4d50.1673056!16s%2Fg%2F11ww4r793x!19sChIJ-9cN5UDnST4RiuTdvTqyb54?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D9%86%D9%88%D8%B9%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85+-+%D9%81%D8%B1%D8%B9+%D8%A3%D8%A8%D8%AD%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c1631d303b781d:0x33988b57c61a3ecc!8m2!3d21.7795025!4d39.1001901!16s%2Fg%2F11hdrwmy86!19sChIJHXg7MB1jwRURzD4axleLmDM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>شركة التربة والأساسات المحدودة (ايبلس سفكو ) فرع الخبر</t>
+          <t>مجمع الطب النوعي العام - فرع أبحر</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>646</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>بن عبد العزيز، طريق الأمير سلطان، الخبر المملكة العربية السعودية</t>
+          <t>الأمير عبدالمجيد، الشراع، جدة 23816، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>+966553872212</t>
+          <t>+966920013201</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.applus.com/</t>
+          <t>https://forms.gle/Zfx7CGBivP4HSJvv6</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/NAS+LAB+%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D9%86%D8%A7%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x15c3d1ad7be58f2f:0x317e5510d67c350b!8m2!3d21.5575514!4d39.1775287!16s%2Fg%2F11lkrpvkk6!19sChIJL4_le63RwxURCzV81hBVfjE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Masat+Alsafwa+-%D9%85%D8%A7%D8%B3%D9%87+%D8%A7%D9%84%D8%B5%D9%81%D9%88%D9%87+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%28%D9%81%D8%B1%D8%B9+%D9%85%D8%AD%D8%A7%D9%8A%D9%84+%D8%B9%D8%B3%D9%8A%D8%B1%29%E2%80%AD/data=!4m7!3m6!1s0x15e4857e878c13a7:0xb52047c81abe4efd!8m2!3d18.5379957!4d42.0585565!16s%2Fg%2F11vl62t_h3!19sChIJpxOMh36F5BUR_U6-GshHILU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NAS LAB مختبر ناس</t>
+          <t>Masat Alsafwa -ماسه الصفوه لطب الاسنان (فرع محايل عسير)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>105</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Tahlia برج مرمر, الفيصلية، جدة 23441، المملكة العربية السعودية</t>
+          <t>G3Q5+6FH، طريق الملك فيصل، النزهة، محايل عسير 63411، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>+966920019404</t>
+          <t>+966538112251</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://linktr.ee/naslabs</t>
+          <t>https://docs.google.com/forms/d/e/1FAIpQLSe6F6KNf-ud4L8A2Q3bCwwVaK8JxWZ9TuUdOwBTF2r6wLzkDg/viewform</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Arab+Company+for+Laboratories+and+Soil+%28ACES%29+%E2%80%93+Jubail/data=!4m7!3m6!1s0x3e350945c0360309:0xf405819529c48091!8m2!3d27.0693602!4d49.5503302!16s%2Fg%2F11fpkld20x!19sChIJCQM2wEUJNT4RkYDEKZWBBfQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%8E%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B2%D9%82%D8%B2%D9%88%D9%82+%D9%84%D9%84%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%B9%D9%8A+%D9%88%D8%A7%D9%84%D8%AA%D8%A3%D9%87%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e49e7005b343a31:0x1a6930c47a16dfe8!8m2!3d26.2942267!4d50.1744778!16s%2Fg%2F11ln5tqldl!19sChIJMTo0WwDnST4R6N8WesQwaRo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Arab Company for Laboratories and Soil (ACES) – Jubail</t>
+          <t>َمركز الزقزوق للعلاج الطبيعي والتأهيل</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>3HC2+528، المنطقة الصناعية المساندة الاولى، الجبيل 35717، المملكة العربية السعودية</t>
+          <t>EKJA2900، 6642 2(B) Street، العليا، 2900، الخبر 34448، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>+966133673330</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>http://www.aces-int.com/</t>
-        </is>
-      </c>
+          <t>+966566648549</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%B9%D8%A7%D8%B5+%D9%84%D9%84%D8%AA%D8%B1%D8%A8%D9%87+%D9%88%D8%A7%D9%84%D8%AE%D8%B1%D8%B3%D8%A7%D9%86%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2f11b73a884f51:0x95f5f7ac40390059!8m2!3d24.5341634!4d46.6568949!16s%2Fg%2F11rw79g_2x!19sChIJUU-IOrcRLz4RWQA5QKz39ZU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D8%A7%D9%83%D8%B2+%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%A5%D9%86%D8%B3%D8%A7%D9%86+%D9%84%D9%84%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%B9%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2545a8dd596c53:0xfaf96839ab96a846!8m2!3d24.1329047!4d47.2846266!16s%2Fg%2F11q1rf7vxk!19sChIJU2xZ3ahFJT4RRqiWqzlo-fo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>مختبر عاص للتربه والخرسانه</t>
+          <t>السعودي البريطاني لتأهيل | SBRC REHAB CENTER</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>طريق ديراب، مقابل بنده، الرياض المملكة العربية السعودية</t>
+          <t>شارع عبدالله السهمي، السفارات، الرياض 12511، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>+966530730087</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr"/>
+          <t>+966505395453</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>http://www.sbrc-rehb.com/</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1%D8%A7%D8%AA+%D8%B1%D8%A7%D8%B2%D9%83%D9%88%E2%80%AD/data=!4m7!3m6!1s0x1607fd52f7f4ed75:0x613a39a2fcefbd8b!8m2!3d16.9233944!4d42.5545337!16s%2Fg%2F11s3wjh9qg!19sChIJde3091L9BxYRi73v_KI5OmE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Mastery+clinics+-+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%85%D8%A7%D8%B3%D8%AA%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f03007c549eff:0xa947a9d0d05aa116!8m2!3d24.7451284!4d46.7238403!16s%2Fg%2F11w8074y3m!19sChIJ_55UfAADLz4RFqFa0NCpR6k?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>مختبرات رازكو</t>
+          <t>Mastery clinics - عيادات ماستري</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>236</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>3177 شارع الرياض، 6410، حي الشاطئ،، جازان 82812، المملكة العربية السعودية</t>
+          <t>Alakhdar Rd, حي الملك سلمان، الرياض 12443، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>+9668007550044</t>
+          <t>+966566627161</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -6514,491 +6574,475 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D9%85%D9%83%D9%8A%D8%A7%D9%84+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A+%D9%84%D9%81%D8%AD%D8%B5+%D8%A7%D9%84%D8%AA%D8%B1%D8%A8%D8%A9+%D9%88+%D8%A7%D9%84%D8%AE%D8%B1%D8%B3%D8%A7%D9%86%D8%A9+%D9%88+%D8%A7%D8%B9%D9%85%D8%A7%D9%84+%D8%A7%D9%84%D8%AC%D8%B3%D8%A7%D8%AA.+AlMekyal+AlSaudi+Lab%E2%80%AD/data=!4m7!3m6!1s0x3e49c30065c10ad5:0x448c5dd143b5d4a7!8m2!3d26.2445554!4d50.2006397!16s%2Fg%2F11vrhmll1c!19sChIJ1QrBZQDDST4Rp9S1Q9FdjEQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D9%85%D8%AC%D9%85%D8%B9+%D8%A5%D8%A8%D8%B5%D8%A7%D8%B1+%D8%A7%D9%84%D8%B9%D9%8A%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x1607f582d2deb435:0x878af02e74ab8fd3!8m2!3d16.9842729!4d42.8229526!16s%2Fg%2F11cltt5rgw!19sChIJNbTe0oL1BxYR04-rdC7wioc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>مختبر المكيال السعودي لفحص التربة و الخرسانة و اعمال الجسات. AlMekyal AlSaudi Lab</t>
+          <t>شركة مجمع إبصار العيون</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>110</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>شارع النجاح، ابن سينا، الخبر 34627، المملكة العربية السعودية</t>
+          <t>طريق الملك فهد، حي الزهور، أبو عريش 84415، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>+966536745839</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>https://www.almekyal.com/</t>
-        </is>
-      </c>
+          <t>+966550868108</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%B4%D8%B1%D9%83%D8%A9+%D8%AE%D8%A8%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%AA%D9%82%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2effc1a3226fff:0x1fb3f91d6ea02ba1!8m2!3d24.779864!4d46.7661205!16s%2Fg%2F11f76_68bz!19sChIJ_28io8H_Lj4RoSugbh35sx8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%A5%D8%B3%D9%83%D8%A7%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c3cfb656fdcf0b:0x672117235b4a8621!8m2!3d21.5153135!4d39.1886713!16s%2Fg%2F1jgm4l2m5!19sChIJC8_9VrbPwxURIYZKWyMXIWc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>مختبر شركة خبراء التقنية</t>
+          <t>مجمع الإسكان الطبي العام</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>346</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>7347، 3779 ال داود، الحمراء الرياض 13217 7347 13217، المملكة العربية السعودية</t>
+          <t>At Al Farsi Street, Alsharafia Area, جدة 23216، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>+966558766022</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>http://www.t-experts.com/</t>
-        </is>
-      </c>
+          <t>+966126516656</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/ADVANTAGE+CALIBRATION+AND+TESTING+SERVICES/data=!4m7!3m6!1s0x3e49fc3ff4bee8d9:0x6b70470d5d6d7ad1!8m2!3d26.4465003!4d50.079254!16s%2Fg%2F11f3vdp3rx!19sChIJ2ei-9D_8ST4R0XptXQ1HcGs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%AD%D9%8A%D8%A7%D8%AA%D9%8A+%D9%84%D9%84%D8%AA%D8%BA%D8%B0%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D9%84%D8%A7%D8%AC%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2ee2c7a5d0998b:0x22872c1eae4b0290!8m2!3d24.7591083!4d46.6588171!16s%2Fg%2F11b5pj3m3r!19sChIJi5nQpcfiLj4RkAJLrh4shyI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ADVANTAGE CALIBRATION AND TESTING SERVICES</t>
+          <t>مركز حياتي للتغذية العلاجية الطبية</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>C3WH+JP2، العنود، الدمام 32426، المملكة العربية السعودية</t>
+          <t>فهد بن معمر، المروج، الرياض 12283، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>+966138343543</t>
+          <t>+966582828150</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>http://tqm-advantage.com/</t>
+          <t>http://hayaticenter.com/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A3%D9%85%D8%A7%D9%86%D8%A9+%D9%85%D9%86%D8%B7%D9%82%D8%A9+%D8%A7%D9%84%D8%AC%D9%88%D9%81%E2%80%AD/data=!4m7!3m6!1s0x1572b96992ec8921:0xde54203ab1c0d7cb!8m2!3d29.9518687!4d40.2152131!16s%2Fg%2F11gmcc55p4!19sChIJIYnskmm5chURy9fAsTogVN4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AF%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49ffd4af0c3ae7:0xba536fbe0e1c23be!8m2!3d26.4878731!4d50.0501484!16s%2Fg%2F11rf8vs1_g!19sChIJ5zoMr9T_ST4RviMcDr5vU7o?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>مختبر أمانة منطقة الجوف</t>
+          <t>مجمع الدر الطبي التخصصي</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>384</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>X628+P3W، المحمدية د، سكاكا 72341، المملكة العربية السعودية</t>
+          <t>EMMB4146، طريق الخليج، الغدير، سيهات‎ 32451، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>+966509494145</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr"/>
+          <t>+966920013045</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>https://www.aldorrmed.com/</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Greenway/data=!4m7!3m6!1s0x3e49e854ab385d37:0xd560445978f985e1!8m2!3d26.312487!4d50.224395!16s%2Fg%2F1hm32967p!19sChIJN104q1ToST4R4YX5eFlEYNU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A8%D9%86%D9%8A+%D8%B9%D8%A7%D8%B5%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15e5f87174a46e81:0x7bebce73d2fa870!8m2!3d19.8152239!4d41.4084189!16s%2Fg%2F11b6rt7msk!19sChIJgW6kdHH45RURcKgvPee8vgc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Greenway</t>
+          <t>مركز صحي بني عاصم</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Prince Turkey Street, P.O Box 2164, الخبر المملكة العربية السعودية</t>
+          <t>بني عاصم ورحبة،, المخواة 65554، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>+966138953929</t>
+          <t>+966177283032</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>http://www.greenwaysa.com/</t>
+          <t>http://www.moh.gov.sa/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%B5%D8%B1%D8%AD+%D9%84%D9%84%D8%A7%D8%B3%D8%AA%D8%B4%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D9%81%D9%86%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D9%85%D8%AE%D8%AA%D8%A8%D8%B1%D8%A7%D8%AA+%28SRH%29+-+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x3e2f07d78e2cc26f:0x2cc21d7669aa9fd3!8m2!3d24.6568856!4d46.8108581!16s%2Fg%2F11w2gw9cr7!19sChIJb8IsjtcHLz4R05-qaXYdwiw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%BA%D8%B1%D9%86%D8%A7%D8%B7%D8%A9+%D9%84%D9%84%D8%AA%D8%BA%D8%B0%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e98ee9279cc63b:0xb50277dfc6eb8164!8m2!3d21.2451165!4d40.4179517!16s%2Fg%2F11cs0fggb6!19sChIJO8acJ-mO6RURZIHrxt93ArU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>شركة صرح للاستشارات الفنية والمختبرات (SRH) - فرع الرياض</t>
+          <t>مركز غرناطة للتغذية الطبي</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>حي، طريق هارون الرشيد، الجزيرة، الرياض 14261، المملكة العربية السعودية</t>
+          <t>2776، 8232 ابو طالب الطائف 26514 2776، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>+966115103314</t>
+          <t>+966127400099</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://srhlabsa.com/</t>
+          <t>https://ghornatacentre.com/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B9%D8%A8%D9%8A%D8%B1+%D8%A7%D9%84%D8%AA%D9%85%D9%8A%D8%B2+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f01b90b55b563:0x3135e34eab24371d!8m2!3d24.7572808!4d46.7742403!16s%2Fg%2F11bbrnvt87!19sChIJY7VVC7kBLz4RHTckq07jNTE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%A3%D9%85%D9%84+%D9%84%D9%84%D8%B5%D8%AD%D8%A9+%D8%A7%D9%84%D9%86%D9%81%D8%B3%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbffb3917dcf5:0x63c7eedd70e3471d!8m2!3d24.436857!4d39.6373975!16s%2Fg%2F11c74h_9xf!19sChIJ9dwXOfu_vRURHUfjcN3ux2M?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>مركز عبير التميز الطبي</t>
+          <t>مجمع الأمل للصحة النفسية</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>3523 ابي سعيد الخدري، الملك فيصل، الرياض 13215، المملكة العربية السعودية</t>
+          <t>العهن، المدينة المنورة 42318، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>+966112335788</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>http://www.abeergroup.com/</t>
-        </is>
-      </c>
+          <t>+966148619200</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%B3%D8%AA%D8%A7%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c3da12d4d7dc03:0x237e0a44ce5bd1b0!8m2!3d21.6103104!4d39.1415244!16s%2Fg%2F11clwcqgl8!19sChIJA9zX1BLawxURsNFbzkQKfiM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D8%B3%D9%83%D8%A7%D9%86+%D8%A7%D9%84%D8%AD%D8%B1%D8%B3+%D8%A7%D9%84%D9%88%D8%B7%D9%86%D9%8A+%D8%A8%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e49e51692937bad:0xe6ff56d84833334e!8m2!3d26.3649226!4d50.1656821!16s%2Fg%2F11fkxw8gs6!19sChIJrXuTkhblST4RTjMzSNhW_-Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>دكتور ستايل</t>
+          <t>مستوصف اسكان الحرس الوطني بالدمام</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>شارع الأمير سلطان، Jeddah، جدة 23525، المملكة العربية السعودية</t>
+          <t>3067، الحرس الوطني، الظهران 34232، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>+966920020566</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>https://drstyleclinic.com/</t>
-        </is>
-      </c>
+          <t>+966138532555</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B9%D9%85%D8%B1+%D8%A7%D9%84%D8%B9%D8%AC%D8%A7%D8%AC%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f05ad0dda4d97:0xc5a95886eed35e14!8m2!3d24.6763487!4d46.7282817!16s%2Fg%2F11byz6h6x_!19sChIJl03aDa0FLz4RFF7T7oZYqcU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B3%D9%86%D8%AF%D8%B3+%D8%B7%D9%8A%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bd97bce65e04a3:0x64b12d9d506b03d0!8m2!3d24.546118!4d39.6811567!16s%2Fg%2F11c2jst6yb!19sChIJowRe5ryXvRUR0ANrUJ0tsWQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>مجمع عيادات عمر العجاجي الطبي</t>
+          <t>مجمع عيادات سندس طيبة</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>60 street، الملز، الرياض 12831، المملكة العربية السعودية</t>
+          <t>7668 عمير بن سعد الأنصاري، المطار، المدينة المنورة 42341، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>+966114111739</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr"/>
+          <t>+966546263768</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>http://www.sondosclinics.com/</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B9%D8%A7%D8%AF%D9%84+%D9%83%D9%8A%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%28+%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D9%82%D8%A8%D9%84+%D8%B3%D8%A7%D8%A8%D9%82%D8%A7%D9%8B+%29%E2%80%AD/data=!4m7!3m6!1s0x157f58be26249b27:0x67c067e8a52f3663!8m2!3d26.3300483!4d44.0009704!16s%2Fg%2F1tjvt8kc!19sChIJJ5skJr5YfxURYzYvpehnwGc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%83%D9%86%D9%88%D8%B2+%D8%AA%D9%8A%D9%85%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15a6d647b8168e8d:0x1b5de858a3f13f87!8m2!3d27.6129987!4d38.5388854!16s%2Fg%2F11c1wrj643!19sChIJjY4WuEfWphURhz_xo1joXRs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>مركز عادل كير الطبي ( المستقبل سابقاً )</t>
+          <t>مجمع كنوز تيماء الطبي</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1.771</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>طريق الرياض القديم، حي الرفيعة، بريدة 52362، المملكة العربية السعودية</t>
+          <t>طريق الامير فهد بن سلطان، المنتزة، تيماء 45911، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>+966115200855</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>https://linktr.ee/Adelcare</t>
-        </is>
-      </c>
+          <t>+966502562453</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D9%88%D9%81%D8%AC%D8%A9%E2%80%AD/data=!4m5!3m4!1s0x15fe925a091fa519:0xa72e05b87319f648!8m2!3d17.43842!4d44.05248?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%B1%D9%87%D9%8A%D9%81+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f1ce785f7350d:0x40d28d1e9e7e240!8m2!3d24.6907563!4d46.6511025!16s%2Fg%2F11d_vwv2vz!19sChIJDTX3heccLz4RQOLn6dEoDQQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>مركز الرعاية الصحية الأولية بالموفجة نجران</t>
+          <t>مستوصف رهيف لطب الأسنان</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Unnamed Road 66298، المملكة العربية السعودية</t>
+          <t>MMR2+8C5، شارع أم الحمام، أم الحمام الشرقي، الرياض 12325، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>+966175490360</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>http://moh.gov.sa/</t>
-        </is>
-      </c>
+          <t>+966569498253</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15823d1b9972a9c3:0x1a2ddbbbf57770de!8m2!3d26.1272672!4d43.6113185!16s%2Fg%2F11fxzlpvyz!19sChIJw6lymRs9ghUR3nB39bvbLRo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Alwadea+General+Hospital/data=!4m7!3m6!1s0x3e078c8e29546705:0xecc684538191fe44!8m2!3d17.0553254!4d47.0944424!16s%2Fg%2F11c700l94h!19sChIJBWdUKY6MBz4RRP6RgVOExuw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>مركز صحي</t>
+          <t>Alwadea General Hospital</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>الامير نايف بن عبدالعزيز، القادسية، البكيرية 52735، المملكة العربية السعودية</t>
+          <t>Unnamed Road, الوديعة المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>+966163974926</t>
+          <t>+966175410243</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7010,117 +7054,121 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%AD%D9%8A%D8%A7%D8%A9+%D9%84%D9%84%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%B9%D9%8A+%D9%88%D8%A7%D9%84%D8%B9%D9%85%D9%88%D8%AF+%D8%A7%D9%84%D9%81%D9%82%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f013155fa602b:0xca6415d54793c841!8m2!3d24.7076902!4d46.7723035!16s%2Fg%2F11c5t0vpfb!19sChIJK2D6VTEBLz4RQciTR9UVZMo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D8%AE%D8%A7%D9%84%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15a9adca6ab47aa3:0x7387420ad5b4efbc!8m2!3d28.3948403!4d36.5431276!16s%2Fg%2F1hf0v0f7v!19sChIJo3q0asqtqRURvO-01QpCh3M?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>مركز الحياة التأهيلي للعلاج الطبيعي</t>
+          <t>مستشفى الملك خالد</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>684</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>بجوار محطه ساسكو، طريق مكة المكرمة الفرعي، الربوة، الرياض 12813، المملكة العربية السعودية</t>
+          <t>4935، النهضة، 8808, 4935، تبوك 47915، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>+966544889939</t>
+          <t>+966144220100</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://alhayah-spine.com/</t>
+          <t>http://www.moh.gov.sa/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D9%85%D8%AC%D9%85%D8%B9+%D8%A5%D8%A8%D8%B5%D8%A7%D8%B1+%D8%A7%D9%84%D8%B9%D9%8A%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x1607f582d2deb435:0x878af02e74ab8fd3!8m2!3d16.9842729!4d42.8229526!16s%2Fg%2F11cltt5rgw!19sChIJNbTe0oL1BxYR04-rdC7wioc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D8%AF%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%AA%D8%B9%D9%84%D9%8A%D9%85%D9%8A+%D9%84%D8%AC%D8%A7%D9%85%D8%B9%D8%A9+%D8%A7%D9%84%D8%A7%D9%85%D9%8A%D8%B1+%D8%B3%D8%B7%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e254f1a061beba5:0x1a439bcdfa08f54c!8m2!3d24.1544652!4d47.3219443!16s%2Fg%2F11c2y55f2d!19sChIJpesbBhpPJT4RTPUI-s2bQxo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>شركة مجمع إبصار العيون</t>
+          <t>ادارة المستشفى التعليمي لجامعة الامير سطام</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>طريق الملك فهد، حي الزهور، أبو عريش 84415، المملكة العربية السعودية</t>
+          <t>583C+QQP، الامير عبدلله، الريان، الخرج 16277، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>+966550868108</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr"/>
+          <t>+966115888888</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>http://www.psau.edu.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D9%82%D9%88%D9%89+%D8%A7%D9%84%D8%A3%D9%85%D9%86+%D8%A8%D8%A7%D9%84%D9%86%D8%B3%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15e988ba39b7ddb7:0xde5b9b3d7a95915c!8m2!3d21.2685506!4d40.4578788!16s%2Fg%2F11c1nb6wxl!19sChIJt923ObqI6RURXJGVej2bW94?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+-+%D8%A8%D8%B1%D8%AC+3%E2%80%AD/data=!4m7!3m6!1s0x3e2f030060137cf7:0x7949b0b57ae6ad2c!8m2!3d24.6809243!4d46.6871981!16s%2Fg%2F11vsyncy40!19sChIJ93wTYAADLz4RLK3merWwSXk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>مركز صحي قوى الأمن بالنسيم</t>
+          <t>مستشفى المركز التخصصي الطبي - برج 3</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>النسيم، الطائف 26524، المملكة العربية السعودية</t>
+          <t>4405 طريق الملك فهد، 4405، العليا, 6678، الرياض 4405، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>+966127458092</t>
+          <t>+966532324079</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
@@ -7128,159 +7176,155 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%28%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D8%B4%D8%B9%D9%87+%D8%A7%D9%84%D8%AE%D8%A8%D8%B1+%28%D8%A7%D9%84%D8%A7%D8%B3%D8%AA%D8%B4%D8%A7%D8%B1%D9%8A%D9%88%D9%86+%D9%84%D9%84%D8%A7%D8%B4%D8%B9%D9%87+%D8%A7%D9%84%D8%AA%D8%B4%D8%AE%D9%8A%D8%B5%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49c372c3aaf713:0xd535140b6ed384c9!8m2!3d26.2730015!4d50.2163166!16s%2Fg%2F11l36lyk54!19sChIJE_eqw3LDST4RyYTTbgsUNdU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+-+%D8%A7%D9%84%D8%B1%D9%88%D8%A7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f06d681743199:0x82ca2b4793ab979c!8m2!3d24.70113!4d46.7799998!16s%2Fg%2F1hc3j_yp6!19sChIJmTF0gdYGLz4RnJerk0cryoI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>(مركز اشعه الخبر (الاستشاريون للاشعه التشخيصية</t>
+          <t>مستشفى رعاية الطبية - الروابي</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>3.597</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>8852 Prince Turkey Rd, الخبر الجنوبية، 8522 طري الأمير تركي 34611، المملكة العربية السعودية</t>
+          <t>شارع الإمام أحمد بن حنبل، الروابي، شارع عنيزة تقاطع، الرياض المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>+966920051015</t>
+          <t>+966114378888</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.crc-scan.com/</t>
+          <t>https://care.med.sa/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D8%A9+%D8%B1%D9%87%D9%81+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c210745014a3ef:0xb85d92ffdb21f47c!8m2!3d21.3650067!4d39.7930588!16s%2Fg%2F11cs3x406r!19sChIJ76MUUHQQwhURfPQh2_-SXbg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%AF.+%D9%87%D8%A7%D9%84%D8%A9+%D8%B9%D9%8A%D8%B3%D9%89+%D8%A8%D9%86+%D9%84%D8%A7%D8%AF%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3cfe54dd287bd:0x65ae4729eb4080b!8m2!3d21.534557!4d39.1660271!16s%2Fg%2F11xynk14d!19sChIJvYfSTeXPwxURCwi0nnLkWgY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>مجمع ابتسامة رهف الطبي</t>
+          <t>مستشفى د. هالة عيسى بن لادن</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>1.559</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>9Q8R+8VG، 7919 معالي ابراهيم عبد الله العنقري، الشوقية، مكة 24353، المملكة العربية السعودية</t>
+          <t>حي، 7199 ابراهيم ادهم، الحمراء، جدة 23323، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>+966125307273</t>
+          <t>+966920003747</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/smilrahaf/</t>
+          <t>http://www.hembh.med.sa/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f101af62ce07d:0x6c0285b701549dee!8m2!3d24.575808!4d46.6627188!16s%2Fg%2F11c52b531v!19sChIJfeAs9hoQLz4R7p1UAbeFAmw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D9%85%D8%B7%D9%85%D8%A6%D9%86+%D9%84%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D8%B2%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f03fdc85a5bf5:0xf100bba98586a479!8m2!3d24.7049863!4d46.6773621!16s%2Fg%2F11vb8fz5m5!19sChIJ9VtayP0DLz4ReaSGham7APE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>مجمع العالمي الطبي</t>
+          <t>شركة مطمئن للخدمات الطبية المنزلية</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>6649 عائشة بنت أبي بكر، 2474، شبرا، الرياض 12795، المملكة العربية السعودية</t>
+          <t>شارع وادي الاوسط، العليا، الرياض 12214، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>+966114253001</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr"/>
+          <t>+966536810086</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://www.motmaen.med.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B4%D9%8A%D8%AE+%D9%81%D9%87%D8%AF+%D8%A7%D9%84%D8%B9%D9%88%D9%8A%D8%B6%D8%A9+%D9%84%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D9%82%D8%AF%D9%85+%D8%A7%D9%84%D8%B3%D9%83%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x157f585b5e21e997:0xf0ec741e864b71d1!8m2!3d26.3485044!4d43.9734586!16s%2Fg%2F11f53h77t9!19sChIJl-khXltYfxUR0XFLhh507PA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Know+How/data=!4m7!3m6!1s0x15c3cfb2fb8f9f19:0x9b01881145c60b49!8m2!3d21.4926002!4d39.2155132!16s%2Fg%2F11ld83l_tn!19sChIJGZ-P-7LPwxURSQvGRRGIAZs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>مركز الشيخ فهد العويضة لعلاج القدم السكري</t>
+          <t>Know How</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>مستشفى</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>النازية، بريدة 52366، المملكة العربية السعودية</t>
+          <t>الفيحاء, Al_fayhaa، جدة 21463، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>+966163697967</t>
+          <t>+966546464529</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -7288,101 +7332,93 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B1%D8%A4%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f07daa9007ebd:0x96c651d58a8fe8f9!8m2!3d24.697113!4d46.8060024!16s%2Fg%2F11r6tfb9y3!19sChIJvX4AqdoHLz4R-eiPitVRxpY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%8A%D9%82%D9%8A%D9%86+%D8%B7%D8%A7%D8%A8%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bdb8c7d3a9cd55:0xb3d315381880b25e!8m2!3d24.4708804!4d39.5583132!16s%2Fg%2F11bwp1mdgf!19sChIJVc2p08e4vRURXrKAGDgV07M?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>مجمع الرؤية الطبي</t>
+          <t>مجمع يقين طابة الطبي</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>108</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>7970 الإمام الشافعي, حي الروابي، الرياض 14216، المملكة العربية السعودية</t>
+          <t>FHC5+984، As Salam Branch Road, Al Jamawat، الجامعة، المدينة المنورة 42351، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>+966920029595</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>http://roayacl.com/</t>
-        </is>
-      </c>
+          <t>+966148316012</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%88%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%B4%D9%81%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%AD%D8%B2%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15bdbf005e7089c3:0x692c2fca5334dfa3!8m2!3d24.4614062!4d39.6396912!16s%2Fg%2F11wq0nyf3s!19sChIJw4lwXgC_vRURo980U8ovLGk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%81%D9%87%D8%AF+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1d9cd2c2b0d7:0x47c4e079355142b4!8m2!3d24.6363396!4d46.5481818!16s%2Fg%2F11hdjcp_8p!19sChIJ17DC0pwdLz4RtEJRNXngxEc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>مجمع واحة الشفاء الطبي العام فرع الحزام</t>
+          <t>مجمع الفهد الطبي</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>الاسكان، المدينة المنورة 42317، المملكة العربية السعودية</t>
+          <t>JGPX+G7M، ظهرة لبن، الرياض 13784، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>+966531393355</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>https://www.wahatclinics.com/</t>
-        </is>
-      </c>
+          <t>+966537358595</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D8%B2%D8%AF%D8%A7%D9%86+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3fd73f286212fca9:0xa79471942aad464!8m2!3d28.3962369!4d45.9637638!16s%2Fg%2F11qr175hcv!19sChIJqfwSYig_1z8RZNSqQhlHeQo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%85%D8%AA%D9%85%D9%8A%D8%B2+%D9%84%D9%84%D8%AD%D8%AC%D8%A7%D9%85%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e254fcba7b928ff:0xe3a1528935fc84ee!8m2!3d24.1483046!4d47.3214875!16s%2Fg%2F11rt_9yt5y!19sChIJ_yi5p8tPJT4R7oT8NYlSoeM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>عيادات ازدان التخصصية</t>
+          <t>مجمع المتميز للحجامة</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7392,307 +7428,299 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالعزيز، الفيصلية، حفر الباطن 39951، المملكة العربية السعودية</t>
+          <t>3701 شارع هارون الرشيد، الريان, 8867، الخرج 16277، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>+966552237744</t>
+          <t>+966115411223</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>http://ezdanresults.com/</t>
+          <t>https://motamyezhijama.com/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%8A%D9%86%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D9%84%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D9%88%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e37bdc94d92b355:0x82be5f1837f02d32!8m2!3d25.4471549!4d49.5688854!16s%2Fg%2F11tdc1m5k6!19sChIJVbOSTcm9Nz4RMi3wNxhfvoI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15fb5756a89e0637:0xb78d5a80eb4412b!8m2!3d18.3029328!4d42.7033866!16s%2Fg%2F11g8_021vg!19sChIJNwaeqFZX-xURK0G0DqjVeAs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>مجمع الينا الطبي للاسنان والجلدية</t>
+          <t>مركز طب الأسنان التخصصي</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2111 طريق الظهران، حي الفيصل، FMAC9025، 9025، المبرز 36342، المملكة العربية السعودية</t>
+          <t>9355 صلاح الدين، 2552، عتود، خميس مشيط 62431، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>+966545905222</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>http://wa.me/+966545905222</t>
-        </is>
-      </c>
+          <t>+966172351555</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%B3%D9%8A%D9%87%D8%A7%D8%AA+%D9%A2%E2%80%AD/data=!4m7!3m6!1s0x3e49fe465570c381:0x6fe4bbad77d9af30!8m2!3d26.4806992!4d50.0418864!16s%2Fg%2F12hm4fblh!19sChIJgcNwVUb-ST4RMK_Zd6275G8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%A3%D9%85%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D9%8A%D9%86%D8%A8%D8%B9%E2%80%AD/data=!4m7!3m6!1s0x15b91a35b2d1e191:0xa7d5efe9a5ec6681!8m2!3d24.0194904!4d38.2137081!16s%2Fg%2F11c46g0tf9!19sChIJkeHRsjUauRURgWbspenv1ac?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>مركز صحي سيهات ٢</t>
+          <t>مجمع الأمل الطبي ينبع</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>409</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>شارع عمر بن عبدالعزيز، النور، سيهات‎ 32452، المملكة العربية السعودية</t>
+          <t>الحزام، السميري، ينبع 46455، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>+966138561830</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr"/>
+          <t>+966143572923</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>http://www.al-amal.co/</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B1%D9%83%D9%86+%D8%A7%D9%84%D9%83%D8%B3%D8%A7%D8%A6%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%28+%D9%82%D8%B1%D8%B7%D8%A8%D8%A9%29+K%7CE%7CS%7CA%7CY%E2%80%AD/data=!4m7!3m6!1s0x3e2efd54c82d8973:0xaa9ca728b4f9f09d!8m2!3d24.8098617!4d46.7367432!16s%2Fg%2F11skhcjltb!19sChIJc4ktyFT9Lj4RnfD5tCinnKo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AA%D9%83%D8%A7%D9%81%D9%84+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3cf2db6bf9859:0xe09c56ee9922079!8m2!3d21.485811!4d39.1925048!16s%2Fg%2F11g1lnlzvg!19sChIJWZi_ti3PwxUReSCS6W7FCQ4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>مجمع ركن الكسائي الطبي( قرطبة) K|E|S|A|Y</t>
+          <t>التكافل الصحي</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>4.142</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>وادي الشوكه، قرطبة، الرياض 13245، المملكة العربية السعودية</t>
+          <t>3736 طريق مكة القديم، حي الصحيفة، جدة 22237 7026 المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>+966920010359</t>
+          <t>+966920004702</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://rb.gy/694a57</t>
+          <t>http://www.altakafulalsehi.com/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B2%D9%87%D8%B1%D8%A9+%D8%B3%D9%8A%D9%86%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15e98ec97be8ef1f:0xc874c25de824e8d9!8m2!3d21.2644112!4d40.4138971!16s%2Fg%2F1hf347xy2!19sChIJH-_oe8mO6RUR2egk6F3CdMg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A8%D9%84%D9%84%D8%B3%D9%85%D8%B1+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15e4c292dd5d77bd:0x141a4c6bb94b574e!8m2!3d18.7860266!4d42.2548737!16s%2Fg%2F11h07cx2r!19sChIJvXdd3ZLC5BURTldLuWtMGhQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>مجمع زهرة سيناء الطبي العام</t>
+          <t>مستشفى بللسمر العام</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>الشهداء الجنوبية، الطائف 26513، المملكة العربية السعودية</t>
+          <t>2737 عبدالله بن عباس، السلامة، ANWB8098، 8098، بللسمر 62736، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>+966533374889</t>
+          <t>+966172822995</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://zahrat-sina.com/</t>
+          <t>http://www.moh.gov.sa/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%86%D8%B3%D9%8A%D9%85+%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2fa9ed81338117:0x2d763b6c4105b98e!8m2!3d24.71819!4d46.84175!16s%2Fg%2F11c55v9gbn!19sChIJF4Ezge2pLz4RjrkFQWw7di0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D9%82%D9%86%D8%A7%D8%B5%E2%80%AD/data=!4m7!3m6!1s0x3e254eec6e7e8797:0x6a9040cc0466cd38!8m2!3d24.1634635!4d47.3477592!16s%2Fg%2F11ckqn4cqf!19sChIJl4d-buxOJT4ROM1mBMxAkGo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>مركز صحي النسيم الجنوبي</t>
+          <t>مستوصف القناص الخرج</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>4712 عبدالله الكوفي، النسيم الغربي، الرياض 14236، المملكة العربية السعودية</t>
+          <t>8482، شارع الإمام مسلم، 4959، النزهة، الخرج 16439، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>+966112318885</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>http://www.moh.gov.sa/</t>
-        </is>
-      </c>
+          <t>+966115475555</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A3%D8%A8%D9%88+%D8%B9%D8%B1%D9%8A%D8%B4+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x16078aa89f36ff23:0x3e58bb373f16d91c!8m2!3d16.9770664!4d42.8732559!16s%2Fg%2F1wb448h4!19sChIJI_82n6iKBxYRHNkWPze7WD4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B3%D9%87%D8%A7%D8%AC+%D8%B2%D9%8A%D8%AF+%D8%A7%D9%84%D8%A8%D9%82%D9%85%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2fab0055012763:0x99bd7261f6734780!8m2!3d24.805042!4d46.861295!16s%2Fg%2F11w40p3f26!19sChIJYycBVQCrLz4RgEdz9mFyvZk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>مستشفى أبو عريش العام</t>
+          <t>مجمع عيادات سهاج زيد البقمي الطبي</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>XVHF+M8V، XVHF+P9،، Prince Sultan Rd, Abu Arish 84421, أبو عريش 84214،، المملكة العربية السعودية</t>
+          <t>الجنادرية، حي, RTJC3594, 3594 شقراء، 7888، الرياض 13611، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>+966555630264</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>http://www.moh.gov.sa/</t>
-        </is>
-      </c>
+          <t>+966556195050</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%B5%D8%B9%D9%81%D8%A7%D9%86+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e282226a106f631:0x5b6fa8e4727cbca0!8m2!3d23.885942!4d45.079162!16s%2Fg%2F11f2w5l674!19sChIJMfYGoSYiKD4RoLx8cuSob1s?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B5%D8%AD%D8%A9+%D8%A7%D9%84%D9%81%D9%8A%D8%AD%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f077fae3ab3c3:0xeb562b26e7ed883c!8m2!3d24.6849165!4d46.823426!16s%2Fg%2F11bbrkjwh2!19sChIJw7M6rn8HLz4RPIjt5yYrVus?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>مستوصف صعفان الصحي</t>
+          <t>مجمع عيادات صحة الفيحاء الطبي</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>274</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>قاع صعفان، صنعاء المملكة العربية السعودية</t>
+          <t>البيان، السعادة، الرياض 14256، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>+966536321004</t>
+          <t>+966551535205</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -7700,37 +7728,37 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%A3%D9%85%D9%8A%D8%B1+%D8%B3%D9%84%D9%85%D8%A7%D9%86+%D8%A8%D9%86+%D9%85%D8%AD%D9%85%D8%AF+%D8%A8%D9%85%D8%AD%D8%A7%D9%81%D8%B8%D8%A9+%D8%A7%D9%84%D8%AF%D9%84%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e253f918f063edb:0x360e155c5e75001d!8m2!3d23.98624!4d47.16107!16s%2Fg%2F1hc25hf3k!19sChIJ2z4Gj5E_JT4RHQB1XlwVDjY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%AE%D8%A7%D9%84%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e68e35c1e38549:0xb0d812e64563cf6d!8m2!3d19.15248!4d41.07552!16s%2Fg%2F11bz___t10!19sChIJSYXjwTWO5hURbc9jReYS2LA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>مستشفى الأمير سلمان بن محمد بمحافظة الدلم</t>
+          <t>مركز صحي الخالدية</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>7876, Ad Dilam 16222 5024, الدلم المملكة العربية السعودية</t>
+          <t>شارع الرياض, 28821, القنفذة المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>+966115417018</t>
+          <t>+966177332668</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -7742,37 +7770,37 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AD%D8%AC%D8%A7%D9%85%D8%A9+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbf237bcf8e3b:0xc3233cc49725206f!8m2!3d24.4910041!4d39.6098576!16s%2Fg%2F11fmz_m_f7!19sChIJO47PeyO_vRURbyAll8Q8I8M?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AE%D8%A8%D8%B1%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x156c0fa6ca6a43a5:0x15dd9c44295e4cdc!8m2!3d30.9881175!4d41.04982!16s%2Fg%2F11qg39_20g!19sChIJpUNqyqYPbBUR3ExeKUSc3RU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>حجامة المدينة</t>
+          <t>مجمع الخبرة الطبي</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>247</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>8635 سيد الشهداء، مسجد الدرع، 2882 42313، المملكة العربية السعودية</t>
+          <t>7017 طريق الامير متعب بن عبدالعزيز، المنصورية، عرعر 73244 2278،، عرعر 73244، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>+966541219358</t>
+          <t>+966503308055</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -7780,121 +7808,117 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D8%B3%D8%B9%D9%88%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x1581ee8e396dd9dd:0x12fcef38dc226e3e!8m2!3d26.1045781!4d43.9921747!16s%2Fg%2F11h1p7m29!19sChIJ3dltOY7ugRURPm4i3Djv_BI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B1%D8%A7%D8%B2%D9%8A+%D9%8A%D9%86%D8%A8%D8%B9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+Alrazi+yanbu+medical+complex%E2%80%AD/data=!4m7!3m6!1s0x15b90556dffff9ed:0x2cb2234a1887943e!8m2!3d24.075416!4d38.1083482!16s%2Fg%2F11q8wmg4xn!19sChIJ7fn_31YFuRURPpSHGEojsiw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>مستشفى الملك سعود</t>
+          <t>مجمع الرازي ينبع الطبي Alrazi yanbu medical complex</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>242</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>الصالحية، عنيزة 56437، المملكة العربية السعودية</t>
+          <t>عبد الرحمن بن عوف, الربيع، ينبع 46436، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>+966163645000</t>
+          <t>+966143905000</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://king-saud-hospital-sahalat.website/sa</t>
+          <t>https://www.rymc.sa/</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%85%D8%B4%D9%87%D9%88%D8%B1+%D8%AE%D8%A8%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%B9%D9%8A%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2ee54f30dd96fb:0xaf057516c76101a3!8m2!3d24.8086649!4d46.6394729!16s%2Fg%2F11f66bm0gn!19sChIJ-5bdME_lLj4RowFhxxZ1Ba8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%A3%D9%87%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15ed2453ac2c21c1:0x37d04a606f0880b7!8m2!3d21.9112466!4d42.0314491!16s%2Fg%2F11cjhzwwkj!19sChIJwSEsrFMk7RURt4AIb2BK0Dc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>مركز مشهور خبراء العيون</t>
+          <t>مستوصف الأهلي</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>شارع الأمير ناصر بن سعود بن فرحان آل سعود، الصحافة، الرياض 13321، المملكة العربية السعودية</t>
+          <t>W26J+FHW، شارع الملك فهد، النزهة، الخرمة 29353، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>+966551000674</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>https://mshhor.sa/</t>
-        </is>
-      </c>
+          <t>+966128323346</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%86%D8%A8%D8%B6+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3fd72de2ff8ec49b:0x8dc204fcfa2a8876!8m2!3d28.3150178!4d46.1228509!16s%2Fg%2F11b67lr049!19sChIJm8SO_-It1z8Rdogq-vwEwo0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%B3%D8%A7%D8%AD%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e690280aebf40d:0xc940b702fcd37dcd!8m2!3d19.129243!4d41.0883822!16s%2Fg%2F1tf2p8v6!19sChIJDfTrCiiQ5hURzX3T_AK3QMk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>مجمع نبض الرعاية الطبي</t>
+          <t>مستوصف الساحل الطبي</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>King Abdullaziz Street، القيصومة 31922، المملكة العربية السعودية</t>
+          <t>43HQ+M9R, Unnamed Road, الشرقية، القنفذة 28822، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>+966137243444</t>
+          <t>+966177324933</t>
         </is>
       </c>
       <c r="H189" t="inlineStr"/>
@@ -7902,79 +7926,75 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%AD%D9%85%D8%A7%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f02d869c4767d:0x8f9bc33a9953b795!8m2!3d24.709898!4d46.681757!16s%2Fg%2F1tcxy8yb!19sChIJfXbEadgCLz4RlbdTmTrDm48?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B4%D9%88%D8%B1%D8%A7%D9%86+%D9%84%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdc050527dcc6d:0xbb85fb0f9a7a193d!8m2!3d24.3979419!4d39.6187612!16s%2Fg%2F11dxml_3lb!19sChIJbcx9UlDAvRURPRl6mg_7hbs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>مستشفى الحمادي</t>
+          <t>مركز شوران للرعاية الصحية الأولية</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>321</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>خالد بن يزيد بن معاوية، العليا، الرياض 12244، المملكة العربية السعودية</t>
+          <t>9065 شعبل بن أحمر التميمي، شوران، 2997 شعبل بن أحمر التميمي،، المدينة المنورة 42386، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>+966114622000</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>http://alhammadi.med.sa/</t>
-        </is>
-      </c>
+          <t>+966539680519</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D8%A7%D9%83%D8%B2+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A+%D8%A7%D9%84%D8%A3%D9%84%D9%85%D8%A7%D9%86%D9%8A+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A%D8%A9+-+%D8%A7%D8%A8%D9%87%D8%A7+%7C+Saudi+German+Specialized+Centers%E2%80%AD/data=!4m7!3m6!1s0x15e3554e2c056135:0x38db40e4cb66d6ba!8m2!3d18.2308439!4d42.5090275!16s%2Fg%2F11r7dwhpw0!19sChIJNWEFLE5V4xURutZmy-RA2zg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%AC%D9%85%D8%B9%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D9%81%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e35f9c737cd4bf5:0x6963650da853379a!8m2!3d26.6444812!4d49.9628166!16s%2Fg%2F1hf6n15rp!19sChIJ9UvNN8f5NT4RmjdTqA1lY2k?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>مراكز السعودي الألماني التخصصية - ابها | Saudi German Specialized Centers</t>
+          <t>مجمع عيادات جمعية الصفا الطبي</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>شارع إبراهيم الحديثي، شمسان، أبها 62521، المملكة العربية السعودية</t>
+          <t>JXV7+Q4W, Amr Bin Aouf, Street, صفوى 32827، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>+966920007997</t>
+          <t>+966136645252</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
@@ -7982,79 +8002,75 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AF%D9%81%D8%A3+%D8%A7%D9%84%D9%85%D9%85%D9%8A%D8%B2+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3d3dfe34682ef:0xfafce394a4cc89f3!8m2!3d21.5829389!4d39.2381785!16s%2Fg%2F11c54bcrbh!19sChIJ74JG49_TwxUR84nMpJTj_Po?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B1%D8%B9%D8%A7%D9%8A%D8%AA%D9%8A+%D8%AD%D9%8A+%D8%A7%D9%84%D8%AF%D8%B1%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15fb5bbbf870f2c5:0xa1600bdb4c2a25df!8m2!3d18.3029274!4d42.7317106!16s%2Fg%2F11hy_y3vws!19sChIJxfJw-Ltb-xUR3yUqTNsLYKE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>مجمع دفأ المميز الطبي</t>
+          <t>مجمع رعايتي حي الدرب</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>As Samir District 7659، جدة 23464، المملكة العربية السعودية</t>
+          <t>4160، 8309، العرق الجنوبي، 4160، خميس مشيط 62461، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>+966569300068</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>https://dafaa.sa/</t>
-        </is>
-      </c>
+          <t>+966533485188</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%88%D8%B7%D9%86%D9%8A+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB%E2%80%AD/data=!4m7!3m6!1s0x15fec25ff1075321:0xb80e85511ede38ee!8m2!3d17.5329832!4d44.21201!16s%2Fg%2F11c20fxt46!19sChIJIVMH8V_C_hUR7jjeHlGFDrg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B7%D9%88%D8%A7%D8%B1%D8%A6+%D8%B7%D8%A8+%D8%A7%D9%84%D9%87%D8%A7%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e4a01f41ef9502d:0xf05a98eb5337627!8m2!3d26.5840841!4d50.0832194!16s%2Fg%2F11fpqklwnd!19sChIJLVD5HvQBSj4RJ3YztY6pBQ8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>مستشفى الوطني الحديث</t>
+          <t>طوارئ طب الهادي</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>طريق الملك عبد العزيز، نجران 66262، المملكة العربية السعودية</t>
+          <t>5335, تاروت 32621، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>+966175234000</t>
+          <t>+966576754574</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
@@ -8062,79 +8078,79 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%BA%D8%AF+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1e950ed0bf81:0x8867b8e693a6d2d6!8m2!3d24.6533706!4d46.5761334!16s%2Fg%2F11c1s5w6b_!19sChIJgb_QDpUeLz4R1tKmk-a4Z4g?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B4%D8%B1%D9%83%D8%A9+%D8%A8%D9%84%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c200335a517ac3:0x6a1c52759013fe0c!8m2!3d21.4690483!4d39.9394457!16s%2Fg%2F11b6_091_f!19sChIJw3pRWjMAwhURDP4TkHVSHGo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>مجمع عيادات الغد المتخصصة الطبي</t>
+          <t>مجمع بلادي الطبي العام</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>1.875</t>
+          <t>219</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>3021 شارع الطائف، ظهرة لبن، الرياض 12564، المملكة العربية السعودية</t>
+          <t>المهندس عمر قاضي، الخضراء، مكة 24267، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>+966112155551</t>
+          <t>+966125305111</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://alghadmed.com/</t>
+          <t>https://linktr.ee/biladi_1990</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%86%D8%AE%D9%8A%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2fa85268e1186f:0xa38a5cc251d8956!8m2!3d24.6913362!4d46.8554593!16s%2Fg%2F11c1l5nwbp!19sChIJbxjhaFKoLz4RVokdJcylOAo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%A7%D9%86%D8%AF%D9%84%D8%B3+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f1a3f14308489:0x7551acaa854ce93f!8m2!3d24.6012797!4d46.6276824!16s%2Fg%2F11bzrhznvm!19sChIJiYQwFD8aLz4RP-lMhaqsUXU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>مجمع النخيل الطبي</t>
+          <t>مستوصف الاندلس لطب الاسنان</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>طريق ابو عبيدة عامر بن الجراح، السعادة، الرياض 14258، المملكة العربية السعودية</t>
+          <t>شارع شارع الأمير مساعد بن عبدالرحمن بن فيصل، العريجاء الوسطى، الرياض 12975، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>+966112705022</t>
+          <t>+966114301481</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
@@ -8142,109 +8158,109 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%85%D8%AF%D8%A7%D8%B1%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%28+Madari+Medical+center+%29%E2%80%AD/data=!4m7!3m6!1s0x3e379100025cb8f5:0xc5ac9cd4b772a65f!8m2!3d25.3560821!4d49.5799899!16s%2Fg%2F11y4r2rbtj!19sChIJ9bhcAgCRNz4RX6Zyt9ScrMU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AD%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D9%85%D8%AA%D8%B7%D9%88%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85+%D8%AD%D9%8A+%D8%A7%D9%84%D9%88%D8%B2%D9%8A%D8%B1%D9%8A%D8%A9+%28%D8%B7%D8%A8+%D9%86%D8%B3%D8%A7%D8%A1+%D9%88%D9%88%D9%84%D8%A7%D8%AF%D8%A9+-%D8%B7%D8%A8+%D8%A8%D8%A7%D8%B7%D9%86%D9%87+-%D8%B7%D8%A8+%D8%A7%D9%84%D8%B9%D8%B8%D8%A7%D9%85+-%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+-%D8%B7%D8%A8+%D8%B9%D8%A7%D9%85-+%D9%81%D8%AD%D8%B5+%D8%B9%D9%85%D8%A7%D9%84%D8%A9+-%D9%85%D8%AE%D8%AA%D8%A8%D8%B1%29%E2%80%AD/data=!4m7!3m6!1s0x15c3cc1260d48c6d:0xc07a7d51548943c4!8m2!3d21.4503544!4d39.2553739!16s%2Fg%2F11bzx71h5f!19sChIJbYzUYBLMwxURxEOJVFF9esA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>مركز مداري الطبي ( Madari Medical center )</t>
+          <t>مجمع الحنان المتطور الطبي العام حي الوزيرية (طب نساء وولادة -طب باطنه -طب العظام -طب الاسنان -طب عام- فحص عمالة -مختبر)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>442</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>حي المربدية، FHDA8903، 8903 شارع الأمير مشهور بن عبد العزيز، 2097، الهفوف‎ 36362، المملكة العربية السعودية</t>
+          <t>الاستاد الرياضي، مدائن الفهد، جدة 22347، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>+966548684111</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>http://madari.bio.link/</t>
-        </is>
-      </c>
+          <t>+966126010118</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D9%85%D8%AF%D9%88%D8%AD+%D8%A7%D8%B3%D9%83%D9%86%D8%AF%D8%B1+%D9%84%D8%A3%D9%85%D8%B1%D8%A7%D8%B6+%D8%A7%D9%84%D8%B0%D9%83%D9%88%D8%B1%D8%A9+%D9%88%D8%A7%D9%84%D8%A5%D8%AE%D8%B5%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15e35345af94a30f:0x9053794efce4c2f!8m2!3d18.2085778!4d42.4984861!16s%2Fg%2F11hdnpnpmb!19sChIJD6OUr0VT4xURL0zO75Q3BQk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%82%D8%B1%DB%8C%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15869d5690f6c713:0x61719252770dbcd!8m2!3d24.73238!4d43.794!16s%2Fg%2F11c7sbnr73!19sChIJE8f2kFadhhURzdtwJyUZFwY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ممدوح اسكندر لأمراض الذكورة والإخصاب</t>
+          <t>مركز صحي القرین</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>مستشفى</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>مستوصف عام</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>3174 الإمارات، 3174، الشفاء، 7003، أبها 62521، المملكة العربية السعودية</t>
+          <t>Unnamed Road, 17278, عقلة الغويري المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>+966564745768</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr"/>
+          <t>+966116330320</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>http://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Padi+Clinic+-+Dammam+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A8%D8%AF%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D9%81%D9%84+%D9%84%D8%B7%D8%A8+%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D8%A3%D8%B7%D9%81%D8%A7%D9%84+%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e49e5005f338691:0x9145831a11faa6!8m2!3d26.3715351!4d50.1240187!16s%2Fg%2F11yd5p52bn!19sChIJkYYzXwDlST4RpvoRGoNFkQA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AF%D9%88%D8%B3%D8%B1%D9%8A+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB%E2%80%AD/data=!4m7!3m6!1s0x3e254f1b5e0a9627:0xe5fbca4fa6c361f!8m2!3d24.1589513!4d47.326258!16s%2Fg%2F11c5qqp1vb!19sChIJJ5YKXhtPJT4RHzZs-qS8Xw4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Padi Clinic - Dammam عيادات بداية الطفل لطب أسنان الأطفال الدمام</t>
+          <t>مستوصف عيادات الدوسري الحديث</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>مستشفى</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
+          <t>مستوصف عام</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>94CF+JJ6، هجر، الظهران 34253، المملكة العربية السعودية</t>
+          <t>2784 طريق الملك فهد، المنتزة، الخرج 16439، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>+966549653630</t>
+          <t>+966115448960</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -8252,121 +8268,117 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D8%B3%D9%83%D9%86+%D8%A7%D9%84%D8%AD%D8%B1%D8%B3+%D8%A7%D9%84%D9%85%D9%84%D9%83%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3cffab09755ef:0x8f57825f8faca73d!8m2!3d21.5351548!4d39.1640849!16s%2Fg%2F11c58qfrxy!19sChIJ71WXsPrPwxURPaesj1-CV48?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AA%D9%85%D9%8A%D8%B2+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f0975821225fd:0xe42042e447ff7ffe!8m2!3d24.5720928!4d46.7861116!16s%2Fg%2F11c5rt417y!19sChIJ_SUSgnUJLz4R_n__R-RCIOQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>مركز الرعاية الصحية الأولية بسكن الحرس الملكي</t>
+          <t>مجمع التميز التخصصي الطبي</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>400</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>7325 ابراهيم ادهم، 3190, Al Hamra District، جدة 23323، المملكة العربية السعودية</t>
+          <t>طريق العزيزية الفرعي، الدار البيضاء، الرياض 14518، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>+966122235200</t>
+          <t>+966554214802</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.moh.gov.sa/</t>
+          <t>https://www.facebook.com/Excellencemedc/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A8%D8%A7%D9%82%D8%AF%D9%88+%D9%88%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%B9%D8%B1%D9%81%D8%A7%D9%86+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c3d05e805d9f29:0x50533498d1bdc4e3!8m2!3d21.5762728!4d39.179202!16s%2Fg%2F1tfv7ph4!19sChIJKZ9dgF7QwxUR48S90Zg0U1A?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B9%D8%B7%D9%81%D9%8A%D9%86+%D8%A7%D9%84%D9%86%D9%85%D9%88%D8%B0%D8%AC%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ace3c79909a1:0x565da44607c57071!8m2!3d28.3759975!4d36.5807557!16s%2Fg%2F11clwdgjx6!19sChIJoQmZx-OsqRURcXDFB0akXVY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>مستشفى باقدو والدكتور عرفان العام</t>
+          <t>مجمع عيادات العطفين النموذجية</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>King Fahad St, Al Sitteen Road، جدة المملكة العربية السعودية</t>
+          <t>9HGJ+98R، طريق الإمام تركي بن عبدالله، العليا، تبوك 47911، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>+966920008485</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>https://ebgh.med.sa/</t>
-        </is>
-      </c>
+          <t>+966144229192</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%B2%D9%85%D8%B2%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e3796956bfbab15:0xe1d1f942d2b91609!8m2!3d25.3808069!4d49.5902141!16s%2Fg%2F11c1v0fsdc!19sChIJFav7a5WWNz4RCRa50kL50eE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D9%88%D8%B3%D8%B7+%D8%A7%D9%84%D8%B3%D9%8A%D8%AD%E2%80%AD/data=!4m7!3m6!1s0x3e254f0c7046ddc9:0xebbb328e56fe9e98!8m2!3d24.1604137!4d47.3150432!16s%2Fg%2F11c57y2kdv!19sChIJyd1GcAxPJT4RmJ7-Vo4yu-s?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>مستوصف زمزم</t>
+          <t>مركز الرعاية الصحية الأولية بوسط السيح</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Al Hufuf and Al Mubarraz والمبرز 36361، الهفوف‎ المملكة العربية السعودية</t>
+          <t>شارع الملك فيصل، السلام، السيح، الخرج 16278، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>+966503759679</t>
+          <t>+966115444011</t>
         </is>
       </c>
       <c r="H201" t="inlineStr"/>
